--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87C326C-4F6D-4C12-9CB4-F5E07D87F3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7F35EE-68E8-4AE8-B0E3-45D8CFFED999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,20 +36,26 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>phone</t>
+    <t>PhoneNumber</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -62,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -70,12 +74,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B65809-7069-482D-ABD6-D568B5E57C26}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2:A201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -401,19 +423,1009 @@
     <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>96892448944</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>96897774615</v>
+    <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>96895103950</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>96894304800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>96894667381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>96893253441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>96878963168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>96897131905</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>96894997703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>96899897860</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>96898554805</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>96894766667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>96893880900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>96898861186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>96892564682</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>96896497922</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>96893328005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>96896963211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>96891780224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>96896500064</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>96892767709</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>96892346010</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>96894774746</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>96871196060</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>96896132123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>96879496867</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>96898965297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>96894039025</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>96897913681</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>96894817027</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>96894898997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>96895960503</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>96879638121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <v>96895289181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <v>96892670399</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>96893377372</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
+        <v>96892826494</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <v>96896674744</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
+        <v>96894338388</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="1">
+        <v>96892239517</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>96895222396</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <v>96879994789</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
+        <v>96895249763</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <v>96891732179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
+        <v>96898187506</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
+        <v>96893272515</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
+        <v>96892109901</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
+        <v>96871175912</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
+        <v>96892292888</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <v>96872118714</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
+        <v>96894365853</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
+        <v>96896656730</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
+        <v>96892893866</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
+        <v>96899411228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
+        <v>96897449728</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
+        <v>96896454292</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="1">
+        <v>96871505366</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
+        <v>96893651568</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
+        <v>96897772291</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="1">
+        <v>96895869558</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
+        <v>96879258480</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
+        <v>96899644386</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
+        <v>96897902556</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
+        <v>96897580006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
+        <v>96896696532</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
+        <v>96896667951</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
+        <v>96894685723</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="1">
+        <v>96898884285</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="1">
+        <v>96894416137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="1">
+        <v>96891182224</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="1">
+        <v>96899662258</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="1">
+        <v>96872684241</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="1">
+        <v>96893535594</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="1">
+        <v>96877214477</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="1">
+        <v>96898387689</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
+        <v>96896277626</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
+        <v>96894602060</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="1">
+        <v>96896785201</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="1">
+        <v>96895477558</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="1">
+        <v>96897101082</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="1">
+        <v>96891143744</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="1">
+        <v>96896622076</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="1">
+        <v>96891780830</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="1">
+        <v>96891336888</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="1">
+        <v>96891275454</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="1">
+        <v>96897434747</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="1">
+        <v>96899218867</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="1">
+        <v>96871979710</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="1">
+        <v>96897636698</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="1">
+        <v>96897756640</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="1">
+        <v>96890698238</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="1">
+        <v>96894226871</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="1">
+        <v>96892959462</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="1">
+        <v>96890101017</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="1">
+        <v>96897780130</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="1">
+        <v>96894492206</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="1">
+        <v>96879066940</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="1">
+        <v>96891140436</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="1">
+        <v>96891789087</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="1">
+        <v>96872011800</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="1">
+        <v>96895036121</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="1">
+        <v>96896669369</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="1">
+        <v>96899114486</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="1">
+        <v>96891319456</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="1">
+        <v>96890444030</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="1">
+        <v>96899593818</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="1">
+        <v>96879497479</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="1">
+        <v>96895535659</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="1">
+        <v>96872560794</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="1">
+        <v>96896605353</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="1">
+        <v>96892351604</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="1">
+        <v>96899592949</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="1">
+        <v>96898151410</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="1">
+        <v>96879990530</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="1">
+        <v>96894444657</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="1">
+        <v>96879211468</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="1">
+        <v>96895522707</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="1">
+        <v>96871754947</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A118" s="1">
+        <v>96894341171</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A119" s="1">
+        <v>96896050816</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A120" s="1">
+        <v>96891408202</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="1">
+        <v>96895228447</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A122" s="1">
+        <v>96892448171</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A123" s="1">
+        <v>96896000868</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A124" s="1">
+        <v>96899266493</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="1">
+        <v>96892221595</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A126" s="1">
+        <v>96899436719</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A127" s="1">
+        <v>96899622697</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A128" s="1">
+        <v>96896117416</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A129" s="1">
+        <v>96894529411</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A130" s="1">
+        <v>96895159792</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A131" s="1">
+        <v>96891718855</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A132" s="1">
+        <v>96899290879</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A133" s="1">
+        <v>96876865591</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A134" s="1">
+        <v>96895919623</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A135" s="1">
+        <v>96896070015</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A136" s="1">
+        <v>96897541367</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A137" s="1">
+        <v>96893986823</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A138" s="1">
+        <v>96890446646</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A139" s="1">
+        <v>96898887027</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A140" s="1">
+        <v>96892100851</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A141" s="1">
+        <v>96894565518</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A142" s="1">
+        <v>96879091855</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A143" s="1">
+        <v>96898998087</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A144" s="1">
+        <v>96897271783</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A145" s="1">
+        <v>96893821712</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A146" s="1">
+        <v>96899897234</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A147" s="1">
+        <v>96896090223</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A148" s="1">
+        <v>96895608204</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A149" s="1">
+        <v>96899215211</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A150" s="1">
+        <v>96892717664</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A151" s="1">
+        <v>96892644766</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A152" s="1">
+        <v>96895445528</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A153" s="1">
+        <v>96895535949</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A154" s="1">
+        <v>96892309695</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A155" s="1">
+        <v>96892146811</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A156" s="1">
+        <v>96894977443</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A157" s="1">
+        <v>96871554560</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A158" s="1">
+        <v>96879028479</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A159" s="1">
+        <v>96898865912</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A160" s="1">
+        <v>96891338909</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A161" s="1">
+        <v>96892510996</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A162" s="1">
+        <v>96899709300</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A163" s="1">
+        <v>96898160396</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A164" s="1">
+        <v>96892825951</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A165" s="1">
+        <v>96898977961</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A166" s="1">
+        <v>96892685529</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A167" s="1">
+        <v>96890993313</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A168" s="1">
+        <v>96899818111</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A169" s="1">
+        <v>96894909008</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A170" s="1">
+        <v>96896070701</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A171" s="1">
+        <v>96879010440</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A172" s="1">
+        <v>96877075545</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A173" s="1">
+        <v>96896658869</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A174" s="1">
+        <v>96899314812</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A175" s="1">
+        <v>96892650504</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A176" s="1">
+        <v>96894254166</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A177" s="1">
+        <v>96895726008</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A178" s="1">
+        <v>96896334363</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A179" s="1">
+        <v>96899447661</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A180" s="1">
+        <v>96879259675</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A181" s="1">
+        <v>96894730883</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A182" s="1">
+        <v>96898986246</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A183" s="1">
+        <v>96894443360</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A184" s="1">
+        <v>96892481515</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A185" s="1">
+        <v>96897772481</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A186" s="1">
+        <v>96895533792</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A187" s="1">
+        <v>96899427884</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A188" s="1">
+        <v>96894194333</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A189" s="1">
+        <v>96898574749</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A190" s="1">
+        <v>96899547000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A191" s="1">
+        <v>96872255301</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A192" s="1">
+        <v>96879402003</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A193" s="1">
+        <v>96899593682</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A194" s="1">
+        <v>96895108101</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A195" s="1">
+        <v>96896600422</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A196" s="1">
+        <v>96899871615</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A197" s="1">
+        <v>96898856333</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A198" s="1">
+        <v>96898883061</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A199" s="1">
+        <v>96896782662</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A200" s="1">
+        <v>96899619206</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A201" s="1">
+        <v>96872114259</v>
       </c>
     </row>
   </sheetData>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B550E696-D483-42DC-9477-F9A205D2559B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E230AC-723B-4140-87B4-3796A4144256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
+    <workbookView xWindow="3300" yWindow="3300" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -412,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B65809-7069-482D-ABD6-D568B5E57C26}">
-  <dimension ref="A1:A51"/>
+  <dimension ref="A1:A202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A51"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -430,252 +430,1007 @@
     </row>
     <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
-        <v>96892883561</v>
+        <v>96893560377</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <v>96892877072</v>
+        <v>96892883561</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>96899462166</v>
+        <v>96892877072</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>96897006882</v>
+        <v>96899462166</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <v>96891917754</v>
+        <v>96897006882</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <v>96879101618</v>
+        <v>96891917754</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <v>96897211258</v>
+        <v>96879101618</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
-        <v>96871128288</v>
+        <v>96897211258</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
-        <v>96893883444</v>
+        <v>96871128288</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
-        <v>96877520007</v>
+        <v>96893883444</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
-        <v>96893388270</v>
+        <v>96877520007</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
-        <v>96897895099</v>
+        <v>96893388270</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
-        <v>96879050540</v>
+        <v>96897895099</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
-        <v>96898159330</v>
+        <v>96879050540</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
-        <v>96899793798</v>
+        <v>96898159330</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
-        <v>96871746336</v>
+        <v>96899793798</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
-        <v>96896969019</v>
+        <v>96871746336</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
-        <v>96899268858</v>
+        <v>96896969019</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
-        <v>96894545455</v>
+        <v>96899268858</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
-        <v>96890103332</v>
+        <v>96894545455</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
-        <v>96894631935</v>
+        <v>96890103332</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
-        <v>96894159434</v>
+        <v>96894631935</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
-        <v>96879972424</v>
+        <v>96894159434</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
-        <v>96893983189</v>
+        <v>96879972424</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
-        <v>96879206617</v>
+        <v>96893983189</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
-        <v>96891288998</v>
+        <v>96879206617</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
-        <v>96899221137</v>
+        <v>96891288998</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
-        <v>96892452152</v>
+        <v>96899221137</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
-        <v>96894491898</v>
+        <v>96892452152</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
-        <v>96877070909</v>
+        <v>96894491898</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
-        <v>96892552110</v>
+        <v>96877070909</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
-        <v>96899551822</v>
+        <v>96892552110</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
-        <v>96877128989</v>
+        <v>96899551822</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
-        <v>96897259866</v>
+        <v>96877128989</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
-        <v>96893900908</v>
+        <v>96897259866</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
-        <v>96898975543</v>
+        <v>96893900908</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
-        <v>96879094240</v>
+        <v>96898975543</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
-        <v>96897606034</v>
+        <v>96879094240</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
-        <v>96890900915</v>
+        <v>96897606034</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
-        <v>96895153526</v>
+        <v>96890900915</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
-        <v>96896739700</v>
+        <v>96895153526</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
-        <v>96879343255</v>
+        <v>96896739700</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
-        <v>96892990010</v>
+        <v>96879343255</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
-        <v>96894443818</v>
+        <v>96892990010</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
-        <v>96895622569</v>
+        <v>96894443818</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
-        <v>96896339696</v>
+        <v>96895622569</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
-        <v>96891204959</v>
+        <v>96896339696</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
-        <v>96872477191</v>
+        <v>96891204959</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
-        <v>96894967733</v>
+        <v>96872477191</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
+        <v>96894967733</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
         <v>96879979719</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
+        <v>96898839077</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
+        <v>96871784686</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
+        <v>96898888422</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="1">
+        <v>96894311441</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
+        <v>96891289110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
+        <v>96871112311</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="1">
+        <v>96871540038</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
+        <v>96899829494</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
+        <v>96895518861</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
+        <v>96898011930</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
+        <v>96899036565</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
+        <v>96895322778</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
+        <v>96899191443</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
+        <v>96897901090</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="1">
+        <v>96892719721</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="1">
+        <v>96892828247</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="1">
+        <v>96895897888</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="1">
+        <v>96891455556</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="1">
+        <v>96890903331</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="1">
+        <v>96891151119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="1">
+        <v>96898550844</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="1">
+        <v>96871118081</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
+        <v>96897609038</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
+        <v>96897827493</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="1">
+        <v>96891298912</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="1">
+        <v>96893990246</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="1">
+        <v>96898287202</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="1">
+        <v>96879603349</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="1">
+        <v>96879265611</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="1">
+        <v>96894708955</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="1">
+        <v>96893843435</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="1">
+        <v>96894442666</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="1">
+        <v>96897555375</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="1">
+        <v>96898222901</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="1">
+        <v>96894052202</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="1">
+        <v>96892939852</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="1">
+        <v>96893663060</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="1">
+        <v>96894440622</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="1">
+        <v>96872440854</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="1">
+        <v>96899532657</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="1">
+        <v>96877462347</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="1">
+        <v>96892445591</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="1">
+        <v>96892444405</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="1">
+        <v>96877188388</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="1">
+        <v>96898282884</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="1">
+        <v>96877492401</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="1">
+        <v>96894680316</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="1">
+        <v>96894960519</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="1">
+        <v>96896333260</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="1">
+        <v>96891222224</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="1">
+        <v>96897674126</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="1">
+        <v>96872381112</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="1">
+        <v>96897035808</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="1">
+        <v>96899518909</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="1">
+        <v>96879283809</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="1">
+        <v>96895972030</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="1">
+        <v>96871093633</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="1">
+        <v>96892939124</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="1">
+        <v>96899854645</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="1">
+        <v>96877157717</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="1">
+        <v>96894462950</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="1">
+        <v>96895909589</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="1">
+        <v>96898952956</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="1">
+        <v>96898924775</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="1">
+        <v>96893227979</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A118" s="1">
+        <v>96896643223</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A119" s="1">
+        <v>96895618571</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A120" s="1">
+        <v>96894353570</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="1">
+        <v>96899793797</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A122" s="1">
+        <v>96899772438</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A123" s="1">
+        <v>96890913810</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A124" s="1">
+        <v>96892191850</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="1">
+        <v>96896656965</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A126" s="1">
+        <v>96890140971</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A127" s="1">
+        <v>96871271071</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A128" s="1">
+        <v>96895241727</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A129" s="1">
+        <v>96872144777</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A130" s="1">
+        <v>96896951989</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A131" s="1">
+        <v>96879165880</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A132" s="1">
+        <v>96896615112</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A133" s="1">
+        <v>96897727254</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A134" s="1">
+        <v>96892830549</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A135" s="1">
+        <v>96895720819</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A136" s="1">
+        <v>96898909569</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A137" s="1">
+        <v>96896007619</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A138" s="1">
+        <v>96897999680</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A139" s="1">
+        <v>96895440150</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A140" s="1">
+        <v>96897619885</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A141" s="1">
+        <v>96899108059</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A142" s="1">
+        <v>96896544321</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A143" s="1">
+        <v>96897055935</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A144" s="1">
+        <v>96893580129</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A145" s="1">
+        <v>96892077218</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A146" s="1">
+        <v>96890624763</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A147" s="1">
+        <v>96897243425</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A148" s="1">
+        <v>96893658106</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A149" s="1">
+        <v>96897281032</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A150" s="1">
+        <v>96892633292</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A151" s="1">
+        <v>96894440879</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A152" s="1">
+        <v>96891017575</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A153" s="1">
+        <v>96891365588</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A154" s="1">
+        <v>96896662060</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A155" s="1">
+        <v>96899461120</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A156" s="1">
+        <v>96894299640</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A157" s="1">
+        <v>96871766527</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A158" s="1">
+        <v>96893939290</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A159" s="1">
+        <v>96896313036</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A160" s="1">
+        <v>96890929992</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A161" s="1">
+        <v>96894800025</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A162" s="1">
+        <v>96892280456</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A163" s="1">
+        <v>96899248838</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A164" s="1">
+        <v>96890111200</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A165" s="1">
+        <v>96891994707</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A166" s="1">
+        <v>96899269443</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A167" s="1">
+        <v>96896196835</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A168" s="1">
+        <v>96894949557</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A169" s="1">
+        <v>96891247378</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A170" s="1">
+        <v>96899855686</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A171" s="1">
+        <v>96898999652</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A172" s="1">
+        <v>96893262992</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A173" s="1">
+        <v>96897128291</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A174" s="1">
+        <v>96894450874</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A175" s="1">
+        <v>96891456016</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A176" s="1">
+        <v>96895605066</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A177" s="1">
+        <v>96897444908</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A178" s="1">
+        <v>96899870348</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A179" s="1">
+        <v>96878956772</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A180" s="1">
+        <v>96893602417</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A181" s="1">
+        <v>96890910914</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A182" s="1">
+        <v>96895088589</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A183" s="1">
+        <v>96895151932</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A184" s="1">
+        <v>96893383830</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A185" s="1">
+        <v>96892037378</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A186" s="1">
+        <v>96879447806</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A187" s="1">
+        <v>96894960536</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A188" s="1">
+        <v>96895645551</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A189" s="1">
+        <v>96895825077</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A190" s="1">
+        <v>96897140760</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A191" s="1">
+        <v>96896067616</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A192" s="1">
+        <v>96896163931</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A193" s="1">
+        <v>96897992967</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A194" s="1">
+        <v>96899234155</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A195" s="1">
+        <v>96895921147</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A196" s="1">
+        <v>96877234361</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A197" s="1">
+        <v>96899602166</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A198" s="1">
+        <v>96898582424</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A199" s="1">
+        <v>96893999895</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A200" s="1">
+        <v>96899432176</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A201" s="1">
+        <v>96893111731</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A202" s="1">
+        <v>96899702708</v>
       </c>
     </row>
   </sheetData>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E230AC-723B-4140-87B4-3796A4144256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E2F16E-9EB8-4982-8764-D96B9B533F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="3300" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B65809-7069-482D-ABD6-D568B5E57C26}">
   <dimension ref="A1:A202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
       <selection activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEE5DE9-A288-4C6B-A014-AC032A713568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7076554B-945E-49EE-A287-6011674E9E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B65809-7069-482D-ABD6-D568B5E57C26}">
   <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A51"/>
     </sheetView>
   </sheetViews>
@@ -430,252 +430,252 @@
     </row>
     <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
-        <v>96893304939</v>
+        <v>96878476740</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <v>96895560719</v>
+        <v>96891173828</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>96895044995</v>
+        <v>96897966772</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>96897887958</v>
+        <v>96894846767</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <v>96892325736</v>
+        <v>96899665111</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <v>96894933430</v>
+        <v>96871717180</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <v>96894930859</v>
+        <v>96893566845</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
-        <v>96877128711</v>
+        <v>96898892008</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
-        <v>96897572498</v>
+        <v>96894384938</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
-        <v>96896993326</v>
+        <v>96895240664</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
-        <v>96892525028</v>
+        <v>96898952502</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
-        <v>96892074449</v>
+        <v>96897111867</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
-        <v>96894600640</v>
+        <v>96894981010</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
-        <v>96894531262</v>
+        <v>96890424734</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
-        <v>96872163000</v>
+        <v>96891445750</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
-        <v>96891773728</v>
+        <v>96872009987</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
-        <v>96898978284</v>
+        <v>96896506066</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
-        <v>96896060169</v>
+        <v>96892889250</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
-        <v>96898835333</v>
+        <v>96894964343</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
-        <v>96897775597</v>
+        <v>96895056623</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
-        <v>96898518884</v>
+        <v>96894751595</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
-        <v>96893393639</v>
+        <v>96897101661</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
-        <v>96899199861</v>
+        <v>96872566556</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
-        <v>96896691251</v>
+        <v>96898377789</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
-        <v>96892844333</v>
+        <v>96897757005</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
-        <v>96891102483</v>
+        <v>96879433554</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
-        <v>96897995150</v>
+        <v>96871124111</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
-        <v>96891032222</v>
+        <v>96895461991</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
-        <v>96894721299</v>
+        <v>96896589797</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
-        <v>96892595040</v>
+        <v>96871149092</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
-        <v>96893855085</v>
+        <v>96894493320</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
-        <v>96899399588</v>
+        <v>96891313346</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
-        <v>96894873037</v>
+        <v>96872828001</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
-        <v>96893274453</v>
+        <v>96879100091</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
-        <v>96891405945</v>
+        <v>96878350037</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
-        <v>96891758880</v>
+        <v>96892153555</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
-        <v>96896406402</v>
+        <v>96895430020</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
-        <v>96897715598</v>
+        <v>96893342609</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
-        <v>96896920205</v>
+        <v>96872103555</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
-        <v>96898575720</v>
+        <v>96896161424</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
-        <v>96894119715</v>
+        <v>96891159939</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
-        <v>96892712515</v>
+        <v>96898032167</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
-        <v>96895129612</v>
+        <v>96896789136</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
-        <v>96898229878</v>
+        <v>96879379111</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
-        <v>96890188775</v>
+        <v>96899037405</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
-        <v>96877331664</v>
+        <v>96891194649</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
-        <v>96896955951</v>
+        <v>96897902049</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
-        <v>96894498336</v>
+        <v>96899233904</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
-        <v>96892029191</v>
+        <v>96899794704</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
-        <v>96879679900</v>
+        <v>96898988026</v>
       </c>
     </row>
   </sheetData>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7076554B-945E-49EE-A287-6011674E9E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EAAABB-FCDF-4BB8-942D-54B72370620F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -412,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B65809-7069-482D-ABD6-D568B5E57C26}">
-  <dimension ref="A1:A51"/>
+  <dimension ref="A1:A101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A51"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -430,252 +430,502 @@
     </row>
     <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
-        <v>96878476740</v>
+        <v>96899873232</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <v>96891173828</v>
+        <v>96897427118</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>96897966772</v>
+        <v>96895242332</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>96894846767</v>
+        <v>96894907979</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <v>96899665111</v>
+        <v>96890402333</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <v>96871717180</v>
+        <v>96892239801</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <v>96893566845</v>
+        <v>96899478111</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
-        <v>96898892008</v>
+        <v>96879215040</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
-        <v>96894384938</v>
+        <v>96872441742</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
-        <v>96895240664</v>
+        <v>96892421771</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
-        <v>96898952502</v>
+        <v>96894248805</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
-        <v>96897111867</v>
+        <v>96899053316</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
-        <v>96894981010</v>
+        <v>96891116575</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
-        <v>96890424734</v>
+        <v>96899198190</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
-        <v>96891445750</v>
+        <v>96897844193</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
-        <v>96872009987</v>
+        <v>96899734727</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
-        <v>96896506066</v>
+        <v>96877286600</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
-        <v>96892889250</v>
+        <v>96892581111</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
-        <v>96894964343</v>
+        <v>96898981420</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
-        <v>96895056623</v>
+        <v>96898964433</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
-        <v>96894751595</v>
+        <v>96893830097</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
-        <v>96897101661</v>
+        <v>96898955288</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
-        <v>96872566556</v>
+        <v>96892119820</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
-        <v>96898377789</v>
+        <v>96878968920</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
-        <v>96897757005</v>
+        <v>96897848088</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
-        <v>96879433554</v>
+        <v>96891217169</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
-        <v>96871124111</v>
+        <v>96894557508</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
-        <v>96895461991</v>
+        <v>96891196321</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
-        <v>96896589797</v>
+        <v>96897059168</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
-        <v>96871149092</v>
+        <v>96899795166</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
-        <v>96894493320</v>
+        <v>96896141478</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
-        <v>96891313346</v>
+        <v>96879211294</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
-        <v>96872828001</v>
+        <v>96897371661</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
-        <v>96879100091</v>
+        <v>96893007002</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
-        <v>96878350037</v>
+        <v>96890111675</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
-        <v>96892153555</v>
+        <v>96890997055</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
-        <v>96895430020</v>
+        <v>96897671478</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
-        <v>96893342609</v>
+        <v>96894396734</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
-        <v>96872103555</v>
+        <v>96890706033</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
-        <v>96896161424</v>
+        <v>96898148711</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
-        <v>96891159939</v>
+        <v>96896274074</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
-        <v>96898032167</v>
+        <v>96893270477</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
-        <v>96896789136</v>
+        <v>96899772626</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
-        <v>96879379111</v>
+        <v>96892847887</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
-        <v>96899037405</v>
+        <v>96897103063</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
-        <v>96891194649</v>
+        <v>96897506261</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
-        <v>96897902049</v>
+        <v>96876916282</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
-        <v>96899233904</v>
+        <v>96899179318</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
-        <v>96899794704</v>
+        <v>96899700078</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
-        <v>96898988026</v>
+        <v>96871124831</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
+        <v>96894989483</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
+        <v>96893830435</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
+        <v>96892010119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
+        <v>96898084722</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="1">
+        <v>96896032208</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
+        <v>96891130625</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
+        <v>96879423003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="1">
+        <v>96894312955</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
+        <v>96895597510</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
+        <v>96891446967</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
+        <v>96899056139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
+        <v>96896319681</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
+        <v>96892828027</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
+        <v>96894954537</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
+        <v>96898228303</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="1">
+        <v>96897728598</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="1">
+        <v>96893552045</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="1">
+        <v>96877170777</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="1">
+        <v>96897373017</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="1">
+        <v>96893349662</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="1">
+        <v>96879474400</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="1">
+        <v>96894067379</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="1">
+        <v>96893661636</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
+        <v>96891717568</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
+        <v>96890509600</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="1">
+        <v>96879662995</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="1">
+        <v>96899050999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="1">
+        <v>96896001058</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="1">
+        <v>96871571401</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="1">
+        <v>96896007276</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="1">
+        <v>96894736911</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="1">
+        <v>96895216609</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="1">
+        <v>96893338748</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="1">
+        <v>96893097673</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="1">
+        <v>96895302802</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="1">
+        <v>96897792049</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="1">
+        <v>96897362190</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="1">
+        <v>96891350720</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="1">
+        <v>96892294374</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="1">
+        <v>96892489446</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="1">
+        <v>96890646331</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="1">
+        <v>96892786679</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="1">
+        <v>96895517959</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="1">
+        <v>96877177997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="1">
+        <v>96898288152</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="1">
+        <v>96894622651</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="1">
+        <v>96892300507</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="1">
+        <v>96890111196</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="1">
+        <v>96872222077</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="1">
+        <v>96898115042</v>
       </c>
     </row>
   </sheetData>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EAAABB-FCDF-4BB8-942D-54B72370620F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94457B82-C469-4DA4-BB9F-6695E17E2803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -412,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B65809-7069-482D-ABD6-D568B5E57C26}">
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:A151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -430,502 +430,752 @@
     </row>
     <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
-        <v>96899873232</v>
+        <v>96893883821</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <v>96897427118</v>
+        <v>96894816600</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>96895242332</v>
+        <v>96890699066</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>96894907979</v>
+        <v>96892389693</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <v>96890402333</v>
+        <v>96891433661</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <v>96892239801</v>
+        <v>96871567799</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <v>96899478111</v>
+        <v>96895901688</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
-        <v>96879215040</v>
+        <v>96896299111</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
-        <v>96872441742</v>
+        <v>96871121745</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
-        <v>96892421771</v>
+        <v>96892002349</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
-        <v>96894248805</v>
+        <v>96891303076</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
-        <v>96899053316</v>
+        <v>96894985878</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
-        <v>96891116575</v>
+        <v>96892230848</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
-        <v>96899198190</v>
+        <v>96894202152</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
-        <v>96897844193</v>
+        <v>96894825245</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
-        <v>96899734727</v>
+        <v>96876899701</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
-        <v>96877286600</v>
+        <v>96898895585</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
-        <v>96892581111</v>
+        <v>96892271231</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
-        <v>96898981420</v>
+        <v>96892032790</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
-        <v>96898964433</v>
+        <v>96890962325</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
-        <v>96893830097</v>
+        <v>96897729958</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
-        <v>96898955288</v>
+        <v>96898249042</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
-        <v>96892119820</v>
+        <v>96879071026</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
-        <v>96878968920</v>
+        <v>96877386747</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
-        <v>96897848088</v>
+        <v>96892711081</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
-        <v>96891217169</v>
+        <v>96879917191</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
-        <v>96894557508</v>
+        <v>96896393989</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
-        <v>96891196321</v>
+        <v>96872780476</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
-        <v>96897059168</v>
+        <v>96896231124</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
-        <v>96899795166</v>
+        <v>96896023882</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
-        <v>96896141478</v>
+        <v>96894109577</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
-        <v>96879211294</v>
+        <v>96891956771</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
-        <v>96897371661</v>
+        <v>96897307220</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
-        <v>96893007002</v>
+        <v>96898903193</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
-        <v>96890111675</v>
+        <v>96896905574</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
-        <v>96890997055</v>
+        <v>96894807298</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
-        <v>96897671478</v>
+        <v>96891405664</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
-        <v>96894396734</v>
+        <v>96895888825</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
-        <v>96890706033</v>
+        <v>96879342722</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
-        <v>96898148711</v>
+        <v>96879755894</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
-        <v>96896274074</v>
+        <v>96894158734</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
-        <v>96893270477</v>
+        <v>96897838222</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
-        <v>96899772626</v>
+        <v>96879053940</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
-        <v>96892847887</v>
+        <v>96899816683</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
-        <v>96897103063</v>
+        <v>96877119564</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
-        <v>96897506261</v>
+        <v>96891765896</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
-        <v>96876916282</v>
+        <v>96895373272</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
-        <v>96899179318</v>
+        <v>96897930299</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
-        <v>96899700078</v>
+        <v>96892116175</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
-        <v>96871124831</v>
+        <v>96892637903</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
-        <v>96894989483</v>
+        <v>96895086212</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
-        <v>96893830435</v>
+        <v>96872046776</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
-        <v>96892010119</v>
+        <v>96872603666</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
-        <v>96898084722</v>
+        <v>96895449195</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
-        <v>96896032208</v>
+        <v>96894309517</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
-        <v>96891130625</v>
+        <v>96893511248</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
-        <v>96879423003</v>
+        <v>96895463832</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
-        <v>96894312955</v>
+        <v>96893318189</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
-        <v>96895597510</v>
+        <v>96894995680</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
-        <v>96891446967</v>
+        <v>96878004008</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
-        <v>96899056139</v>
+        <v>96899766546</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
-        <v>96896319681</v>
+        <v>96897330162</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
-        <v>96892828027</v>
+        <v>96892391229</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
-        <v>96894954537</v>
+        <v>96872452146</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
-        <v>96898228303</v>
+        <v>96894117874</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
-        <v>96897728598</v>
+        <v>96896338296</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
-        <v>96893552045</v>
+        <v>96897546564</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
-        <v>96877170777</v>
+        <v>96896233236</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
-        <v>96897373017</v>
+        <v>96890122355</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
-        <v>96893349662</v>
+        <v>96897109777</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
-        <v>96879474400</v>
+        <v>96898531003</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
-        <v>96894067379</v>
+        <v>96896024840</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
-        <v>96893661636</v>
+        <v>96890384444</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
-        <v>96891717568</v>
+        <v>96895212812</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
-        <v>96890509600</v>
+        <v>96897075172</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
-        <v>96879662995</v>
+        <v>96894823123</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
-        <v>96899050999</v>
+        <v>96877580387</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
-        <v>96896001058</v>
+        <v>96898258053</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
-        <v>96871571401</v>
+        <v>96899107001</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
-        <v>96896007276</v>
+        <v>96890222905</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
-        <v>96894736911</v>
+        <v>96899597568</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
-        <v>96895216609</v>
+        <v>96899804848</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
-        <v>96893338748</v>
+        <v>96894405479</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
-        <v>96893097673</v>
+        <v>96892461251</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
-        <v>96895302802</v>
+        <v>96876836686</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
-        <v>96897792049</v>
+        <v>96890639810</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
-        <v>96897362190</v>
+        <v>96895191041</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
-        <v>96891350720</v>
+        <v>96899071940</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
-        <v>96892294374</v>
+        <v>96891787666</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
-        <v>96892489446</v>
+        <v>96896140164</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
-        <v>96890646331</v>
+        <v>96899619921</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
-        <v>96892786679</v>
+        <v>96899485586</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
-        <v>96895517959</v>
+        <v>96894417708</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
-        <v>96877177997</v>
+        <v>96898808611</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
-        <v>96898288152</v>
+        <v>96894680330</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
-        <v>96894622651</v>
+        <v>96896675557</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
-        <v>96892300507</v>
+        <v>96891202210</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
-        <v>96890111196</v>
+        <v>96897606633</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
-        <v>96872222077</v>
+        <v>96879164674</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
-        <v>96898115042</v>
+        <v>96899495117</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="1">
+        <v>96898212552</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="1">
+        <v>96878372605</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="1">
+        <v>96892921242</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="1">
+        <v>96895399400</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="1">
+        <v>96891167037</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="1">
+        <v>96897408533</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="1">
+        <v>96872792227</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="1">
+        <v>96899474912</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="1">
+        <v>96877108377</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="1">
+        <v>96897177668</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="1">
+        <v>96897097855</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="1">
+        <v>96897617733</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="1">
+        <v>96896688298</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="1">
+        <v>96871761222</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="1">
+        <v>96897717076</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="1">
+        <v>96894889644</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A118" s="1">
+        <v>96897485830</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A119" s="1">
+        <v>96898086953</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A120" s="1">
+        <v>96895342230</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="1">
+        <v>96895143000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A122" s="1">
+        <v>96895522837</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A123" s="1">
+        <v>96899038730</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A124" s="1">
+        <v>96871162370</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="1">
+        <v>96892425665</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A126" s="1">
+        <v>96897818004</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A127" s="1">
+        <v>96896050995</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A128" s="1">
+        <v>96897195662</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A129" s="1">
+        <v>96891731928</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A130" s="1">
+        <v>96879964988</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A131" s="1">
+        <v>96872833304</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A132" s="1">
+        <v>96893293930</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A133" s="1">
+        <v>96893535380</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A134" s="1">
+        <v>96898078079</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A135" s="1">
+        <v>96895103357</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A136" s="1">
+        <v>96894466782</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A137" s="1">
+        <v>96894008974</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A138" s="1">
+        <v>96892937167</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A139" s="1">
+        <v>96897075008</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A140" s="1">
+        <v>96872618662</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A141" s="1">
+        <v>96892111521</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A142" s="1">
+        <v>96871711285</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A143" s="1">
+        <v>96871116100</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A144" s="1">
+        <v>96896452652</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A145" s="1">
+        <v>96890171114</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A146" s="1">
+        <v>96891352888</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A147" s="1">
+        <v>96899556003</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A148" s="1">
+        <v>96899230077</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A149" s="1">
+        <v>96893508872</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A150" s="1">
+        <v>96892726690</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A151" s="1">
+        <v>96894941144</v>
       </c>
     </row>
   </sheetData>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94457B82-C469-4DA4-BB9F-6695E17E2803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC474729-7B1A-4CCA-9C0D-2BB250549145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B65809-7069-482D-ABD6-D568B5E57C26}">
   <dimension ref="A1:A151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A151"/>
     </sheetView>
   </sheetViews>
@@ -430,752 +430,752 @@
     </row>
     <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
-        <v>96893883821</v>
+        <v>96890996656</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <v>96894816600</v>
+        <v>96871967764</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>96890699066</v>
+        <v>96893816082</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>96892389693</v>
+        <v>96899631616</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <v>96891433661</v>
+        <v>96894411935</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <v>96871567799</v>
+        <v>96896111603</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <v>96895901688</v>
+        <v>96899878300</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
-        <v>96896299111</v>
+        <v>96898079503</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
-        <v>96871121745</v>
+        <v>96897679009</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
-        <v>96892002349</v>
+        <v>96892089203</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
-        <v>96891303076</v>
+        <v>96894356699</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
-        <v>96894985878</v>
+        <v>96872695968</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
-        <v>96892230848</v>
+        <v>96891345702</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
-        <v>96894202152</v>
+        <v>96898280222</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
-        <v>96894825245</v>
+        <v>96898873879</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
-        <v>96876899701</v>
+        <v>96898075077</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
-        <v>96898895585</v>
+        <v>96894276126</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
-        <v>96892271231</v>
+        <v>96899668535</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
-        <v>96892032790</v>
+        <v>96894441931</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
-        <v>96890962325</v>
+        <v>96892519391</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
-        <v>96897729958</v>
+        <v>96879770876</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
-        <v>96898249042</v>
+        <v>96898022130</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
-        <v>96879071026</v>
+        <v>96899154959</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
-        <v>96877386747</v>
+        <v>96899556255</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
-        <v>96892711081</v>
+        <v>96893305520</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
-        <v>96879917191</v>
+        <v>96872211740</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
-        <v>96896393989</v>
+        <v>96895377719</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
-        <v>96872780476</v>
+        <v>96895428887</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
-        <v>96896231124</v>
+        <v>96892551553</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
-        <v>96896023882</v>
+        <v>96899811925</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
-        <v>96894109577</v>
+        <v>96899881179</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
-        <v>96891956771</v>
+        <v>96897774718</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
-        <v>96897307220</v>
+        <v>96892111230</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
-        <v>96898903193</v>
+        <v>96892456003</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
-        <v>96896905574</v>
+        <v>96898178731</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
-        <v>96894807298</v>
+        <v>96898250914</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
-        <v>96891405664</v>
+        <v>96895111747</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
-        <v>96895888825</v>
+        <v>96892934152</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
-        <v>96879342722</v>
+        <v>96872626476</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
-        <v>96879755894</v>
+        <v>96899360020</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
-        <v>96894158734</v>
+        <v>96890905272</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
-        <v>96897838222</v>
+        <v>96899461285</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
-        <v>96879053940</v>
+        <v>96894322259</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
-        <v>96899816683</v>
+        <v>96892585485</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
-        <v>96877119564</v>
+        <v>96892627160</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
-        <v>96891765896</v>
+        <v>96890188508</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
-        <v>96895373272</v>
+        <v>96894288767</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
-        <v>96897930299</v>
+        <v>96895572747</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
-        <v>96892116175</v>
+        <v>96891173122</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
-        <v>96892637903</v>
+        <v>96897752010</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
-        <v>96895086212</v>
+        <v>96895180120</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
-        <v>96872046776</v>
+        <v>96894100644</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
-        <v>96872603666</v>
+        <v>96892082229</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
-        <v>96895449195</v>
+        <v>96898233359</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
-        <v>96894309517</v>
+        <v>96871777124</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
-        <v>96893511248</v>
+        <v>96896575059</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
-        <v>96895463832</v>
+        <v>96879090232</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
-        <v>96893318189</v>
+        <v>96897532323</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
-        <v>96894995680</v>
+        <v>96895940284</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
-        <v>96878004008</v>
+        <v>96898200300</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
-        <v>96899766546</v>
+        <v>96896548959</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
-        <v>96897330162</v>
+        <v>96891788282</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
-        <v>96892391229</v>
+        <v>96899002875</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
-        <v>96872452146</v>
+        <v>96897381580</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
-        <v>96894117874</v>
+        <v>96892109952</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
-        <v>96896338296</v>
+        <v>96871108281</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
-        <v>96897546564</v>
+        <v>96899179801</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
-        <v>96896233236</v>
+        <v>96892328026</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
-        <v>96890122355</v>
+        <v>96898862066</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
-        <v>96897109777</v>
+        <v>96895303540</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
-        <v>96898531003</v>
+        <v>96897707854</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
-        <v>96896024840</v>
+        <v>96877199420</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
-        <v>96890384444</v>
+        <v>96899411900</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
-        <v>96895212812</v>
+        <v>96894991189</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
-        <v>96897075172</v>
+        <v>96899415897</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
-        <v>96894823123</v>
+        <v>96893671050</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
-        <v>96877580387</v>
+        <v>96879656767</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
-        <v>96898258053</v>
+        <v>96892888009</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
-        <v>96899107001</v>
+        <v>96894996002</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
-        <v>96890222905</v>
+        <v>96896483389</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
-        <v>96899597568</v>
+        <v>96879756727</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
-        <v>96899804848</v>
+        <v>96893948645</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
-        <v>96894405479</v>
+        <v>96896645088</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
-        <v>96892461251</v>
+        <v>96871811878</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
-        <v>96876836686</v>
+        <v>96893271169</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
-        <v>96890639810</v>
+        <v>96878643437</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
-        <v>96895191041</v>
+        <v>96896580156</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
-        <v>96899071940</v>
+        <v>96895215063</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
-        <v>96891787666</v>
+        <v>96897000218</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
-        <v>96896140164</v>
+        <v>96871921017</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
-        <v>96899619921</v>
+        <v>96892211463</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
-        <v>96899485586</v>
+        <v>96895095292</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
-        <v>96894417708</v>
+        <v>96891757875</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
-        <v>96898808611</v>
+        <v>96892028909</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
-        <v>96894680330</v>
+        <v>96898962821</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
-        <v>96896675557</v>
+        <v>96898998161</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
-        <v>96891202210</v>
+        <v>96892169629</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
-        <v>96897606633</v>
+        <v>96899887241</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
-        <v>96879164674</v>
+        <v>96895815051</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
-        <v>96899495117</v>
+        <v>96898001876</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
-        <v>96898212552</v>
+        <v>96871777867</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
-        <v>96878372605</v>
+        <v>96894979850</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
-        <v>96892921242</v>
+        <v>96871170254</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
-        <v>96895399400</v>
+        <v>96892117086</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
-        <v>96891167037</v>
+        <v>96892983426</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
-        <v>96897408533</v>
+        <v>96894512490</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
-        <v>96872792227</v>
+        <v>96899448372</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
-        <v>96899474912</v>
+        <v>96896696089</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
-        <v>96877108377</v>
+        <v>96877598727</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
-        <v>96897177668</v>
+        <v>96895767199</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
-        <v>96897097855</v>
+        <v>96894408906</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
-        <v>96897617733</v>
+        <v>96872276699</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
-        <v>96896688298</v>
+        <v>96897555537</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
-        <v>96871761222</v>
+        <v>96891924933</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
-        <v>96897717076</v>
+        <v>96892581188</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
-        <v>96894889644</v>
+        <v>96872285752</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
-        <v>96897485830</v>
+        <v>96890904232</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
-        <v>96898086953</v>
+        <v>96897112088</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
-        <v>96895342230</v>
+        <v>96892182369</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
-        <v>96895143000</v>
+        <v>96895752013</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
-        <v>96895522837</v>
+        <v>96896068855</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="1">
-        <v>96899038730</v>
+        <v>96891317943</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124" s="1">
-        <v>96871162370</v>
+        <v>96894272777</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
-        <v>96892425665</v>
+        <v>96879666129</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A126" s="1">
-        <v>96897818004</v>
+        <v>96898088099</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
-        <v>96896050995</v>
+        <v>96892462300</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" s="1">
-        <v>96897195662</v>
+        <v>96899370564</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" s="1">
-        <v>96891731928</v>
+        <v>96891030306</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
-        <v>96879964988</v>
+        <v>96879382142</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
-        <v>96872833304</v>
+        <v>96872457667</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="1">
-        <v>96893293930</v>
+        <v>96890997978</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" s="1">
-        <v>96893535380</v>
+        <v>96899575644</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
-        <v>96898078079</v>
+        <v>96896248864</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135" s="1">
-        <v>96895103357</v>
+        <v>96898574291</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="1">
-        <v>96894466782</v>
+        <v>96894953656</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="1">
-        <v>96894008974</v>
+        <v>96879650050</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="1">
-        <v>96892937167</v>
+        <v>96879391566</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
-        <v>96897075008</v>
+        <v>96895187744</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="1">
-        <v>96872618662</v>
+        <v>96892241157</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="1">
-        <v>96892111521</v>
+        <v>96896530965</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="1">
-        <v>96871711285</v>
+        <v>96898824801</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143" s="1">
-        <v>96871116100</v>
+        <v>96896608805</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" s="1">
-        <v>96896452652</v>
+        <v>96892281145</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" s="1">
-        <v>96890171114</v>
+        <v>96892240051</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" s="1">
-        <v>96891352888</v>
+        <v>96897453797</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" s="1">
-        <v>96899556003</v>
+        <v>96893433477</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="1">
-        <v>96899230077</v>
+        <v>96894173983</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A149" s="1">
-        <v>96893508872</v>
+        <v>96894985640</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150" s="1">
-        <v>96892726690</v>
+        <v>96894089902</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" s="1">
-        <v>96894941144</v>
+        <v>96892516825</v>
       </c>
     </row>
   </sheetData>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC474729-7B1A-4CCA-9C0D-2BB250549145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E55F2C-8E13-4D8F-84D9-9258A2D4D4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
+    <workbookView xWindow="1480" yWindow="1480" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,11 +93,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B65809-7069-482D-ABD6-D568B5E57C26}">
   <dimension ref="A1:A151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A151"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -423,760 +424,558 @@
     <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>96890996656</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>96871967764</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>96893816082</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>96899631616</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>96894411935</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>96896111603</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
-        <v>96899878300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="1">
-        <v>96898079503</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
-        <v>96897679009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="1">
-        <v>96892089203</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="1">
-        <v>96894356699</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="1">
-        <v>96872695968</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="1">
-        <v>96891345702</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="1">
-        <v>96898280222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="1">
-        <v>96898873879</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="1">
-        <v>96898075077</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="1">
-        <v>96894276126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="1">
-        <v>96899668535</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="1">
-        <v>96894441931</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="1">
-        <v>96892519391</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="1">
-        <v>96879770876</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="1">
-        <v>96898022130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="1">
-        <v>96899154959</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="1">
-        <v>96899556255</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="1">
-        <v>96893305520</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="1">
-        <v>96872211740</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="1">
-        <v>96895377719</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="1">
-        <v>96895428887</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="1">
-        <v>96892551553</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="1">
-        <v>96899811925</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="1">
-        <v>96899881179</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="1">
-        <v>96897774718</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="1">
-        <v>96892111230</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="1">
-        <v>96892456003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="1">
-        <v>96898178731</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="1">
-        <v>96898250914</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="1">
-        <v>96895111747</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="1">
-        <v>96892934152</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="1">
-        <v>96872626476</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="1">
-        <v>96899360020</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="1">
-        <v>96890905272</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="1">
-        <v>96899461285</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="1">
-        <v>96894322259</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="1">
-        <v>96892585485</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="1">
-        <v>96892627160</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="1">
-        <v>96890188508</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="1">
-        <v>96894288767</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="1">
-        <v>96895572747</v>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>96897864166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>96892081502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>96872297426</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>96893603711</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>96897422965</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>96896207170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>96893309709</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>96896522349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>96891217553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>96896206269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>96899072131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>96899298082</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>96893233351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>96890101908</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>96897089688</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>96890127727</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>96893956596</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>96892997513</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>96879039000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>96895050045</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>96891166070</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>96891155979</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>96895562767</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>96893345748</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>96892966837</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>96879934660</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>96897774615</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>96897415533</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>96891794440</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>96897117541</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>96894443407</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>96894021673</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>96891295999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>96891200828</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>96899207493</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>96895257739</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>96892981717</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>96893525838</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>96897101105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>96894121666</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>96897131176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>96897442295</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <v>96898983524</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>96891164395</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>96897774615</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>96871121133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>96893646099</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>96890907797</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="1">
-        <v>96891173122</v>
+      <c r="A50" s="2">
+        <v>96897131176</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="1">
-        <v>96897752010</v>
-      </c>
+      <c r="A51" s="1"/>
     </row>
     <row r="52" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="1">
-        <v>96895180120</v>
-      </c>
+      <c r="A52" s="1"/>
     </row>
     <row r="53" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="1">
-        <v>96894100644</v>
-      </c>
+      <c r="A53" s="1"/>
     </row>
     <row r="54" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="1">
-        <v>96892082229</v>
-      </c>
+      <c r="A54" s="1"/>
     </row>
     <row r="55" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="1">
-        <v>96898233359</v>
-      </c>
+      <c r="A55" s="1"/>
     </row>
     <row r="56" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="1">
-        <v>96871777124</v>
-      </c>
+      <c r="A56" s="1"/>
     </row>
     <row r="57" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="1">
-        <v>96896575059</v>
-      </c>
+      <c r="A57" s="1"/>
     </row>
     <row r="58" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="1">
-        <v>96879090232</v>
-      </c>
+      <c r="A58" s="1"/>
     </row>
     <row r="59" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="1">
-        <v>96897532323</v>
-      </c>
+      <c r="A59" s="1"/>
     </row>
     <row r="60" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="1">
-        <v>96895940284</v>
-      </c>
+      <c r="A60" s="1"/>
     </row>
     <row r="61" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="1">
-        <v>96898200300</v>
-      </c>
+      <c r="A61" s="1"/>
     </row>
     <row r="62" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="1">
-        <v>96896548959</v>
-      </c>
+      <c r="A62" s="1"/>
     </row>
     <row r="63" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="1">
-        <v>96891788282</v>
-      </c>
+      <c r="A63" s="1"/>
     </row>
     <row r="64" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="1">
-        <v>96899002875</v>
-      </c>
+      <c r="A64" s="1"/>
     </row>
     <row r="65" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="1">
-        <v>96897381580</v>
-      </c>
+      <c r="A65" s="1"/>
     </row>
     <row r="66" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="1">
-        <v>96892109952</v>
-      </c>
+      <c r="A66" s="1"/>
     </row>
     <row r="67" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="1">
-        <v>96871108281</v>
-      </c>
+      <c r="A67" s="1"/>
     </row>
     <row r="68" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="1">
-        <v>96899179801</v>
-      </c>
+      <c r="A68" s="1"/>
     </row>
     <row r="69" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="1">
-        <v>96892328026</v>
-      </c>
+      <c r="A69" s="1"/>
     </row>
     <row r="70" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="1">
-        <v>96898862066</v>
-      </c>
+      <c r="A70" s="1"/>
     </row>
     <row r="71" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="1">
-        <v>96895303540</v>
-      </c>
+      <c r="A71" s="1"/>
     </row>
     <row r="72" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="1">
-        <v>96897707854</v>
-      </c>
+      <c r="A72" s="1"/>
     </row>
     <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="1">
-        <v>96877199420</v>
-      </c>
+      <c r="A73" s="1"/>
     </row>
     <row r="74" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="1">
-        <v>96899411900</v>
-      </c>
+      <c r="A74" s="1"/>
     </row>
     <row r="75" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="1">
-        <v>96894991189</v>
-      </c>
+      <c r="A75" s="1"/>
     </row>
     <row r="76" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="1">
-        <v>96899415897</v>
-      </c>
+      <c r="A76" s="1"/>
     </row>
     <row r="77" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="1">
-        <v>96893671050</v>
-      </c>
+      <c r="A77" s="1"/>
     </row>
     <row r="78" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="1">
-        <v>96879656767</v>
-      </c>
+      <c r="A78" s="1"/>
     </row>
     <row r="79" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="1">
-        <v>96892888009</v>
-      </c>
+      <c r="A79" s="1"/>
     </row>
     <row r="80" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="1">
-        <v>96894996002</v>
-      </c>
+      <c r="A80" s="1"/>
     </row>
     <row r="81" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="1">
-        <v>96896483389</v>
-      </c>
+      <c r="A81" s="1"/>
     </row>
     <row r="82" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="1">
-        <v>96879756727</v>
-      </c>
+      <c r="A82" s="1"/>
     </row>
     <row r="83" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="1">
-        <v>96893948645</v>
-      </c>
+      <c r="A83" s="1"/>
     </row>
     <row r="84" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="1">
-        <v>96896645088</v>
-      </c>
+      <c r="A84" s="1"/>
     </row>
     <row r="85" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="1">
-        <v>96871811878</v>
-      </c>
+      <c r="A85" s="1"/>
     </row>
     <row r="86" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="1">
-        <v>96893271169</v>
-      </c>
+      <c r="A86" s="1"/>
     </row>
     <row r="87" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="1">
-        <v>96878643437</v>
-      </c>
+      <c r="A87" s="1"/>
     </row>
     <row r="88" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="1">
-        <v>96896580156</v>
-      </c>
+      <c r="A88" s="1"/>
     </row>
     <row r="89" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="1">
-        <v>96895215063</v>
-      </c>
+      <c r="A89" s="1"/>
     </row>
     <row r="90" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="1">
-        <v>96897000218</v>
-      </c>
+      <c r="A90" s="1"/>
     </row>
     <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="1">
-        <v>96871921017</v>
-      </c>
+      <c r="A91" s="1"/>
     </row>
     <row r="92" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="1">
-        <v>96892211463</v>
-      </c>
+      <c r="A92" s="1"/>
     </row>
     <row r="93" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="1">
-        <v>96895095292</v>
-      </c>
+      <c r="A93" s="1"/>
     </row>
     <row r="94" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="1">
-        <v>96891757875</v>
-      </c>
+      <c r="A94" s="1"/>
     </row>
     <row r="95" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="1">
-        <v>96892028909</v>
-      </c>
+      <c r="A95" s="1"/>
     </row>
     <row r="96" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="1">
-        <v>96898962821</v>
-      </c>
+      <c r="A96" s="1"/>
     </row>
     <row r="97" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="1">
-        <v>96898998161</v>
-      </c>
+      <c r="A97" s="1"/>
     </row>
     <row r="98" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="1">
-        <v>96892169629</v>
-      </c>
+      <c r="A98" s="1"/>
     </row>
     <row r="99" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="1">
-        <v>96899887241</v>
-      </c>
+      <c r="A99" s="1"/>
     </row>
     <row r="100" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="1">
-        <v>96895815051</v>
-      </c>
+      <c r="A100" s="1"/>
     </row>
     <row r="101" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="1">
-        <v>96898001876</v>
-      </c>
+      <c r="A101" s="1"/>
     </row>
     <row r="102" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="1">
-        <v>96871777867</v>
-      </c>
+      <c r="A102" s="1"/>
     </row>
     <row r="103" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="1">
-        <v>96894979850</v>
-      </c>
+      <c r="A103" s="1"/>
     </row>
     <row r="104" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="1">
-        <v>96871170254</v>
-      </c>
+      <c r="A104" s="1"/>
     </row>
     <row r="105" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="1">
-        <v>96892117086</v>
-      </c>
+      <c r="A105" s="1"/>
     </row>
     <row r="106" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="1">
-        <v>96892983426</v>
-      </c>
+      <c r="A106" s="1"/>
     </row>
     <row r="107" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="1">
-        <v>96894512490</v>
-      </c>
+      <c r="A107" s="1"/>
     </row>
     <row r="108" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="1">
-        <v>96899448372</v>
-      </c>
+      <c r="A108" s="1"/>
     </row>
     <row r="109" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="1">
-        <v>96896696089</v>
-      </c>
+      <c r="A109" s="1"/>
     </row>
     <row r="110" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="1">
-        <v>96877598727</v>
-      </c>
+      <c r="A110" s="1"/>
     </row>
     <row r="111" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="1">
-        <v>96895767199</v>
-      </c>
+      <c r="A111" s="1"/>
     </row>
     <row r="112" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="1">
-        <v>96894408906</v>
-      </c>
+      <c r="A112" s="1"/>
     </row>
     <row r="113" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="1">
-        <v>96872276699</v>
-      </c>
+      <c r="A113" s="1"/>
     </row>
     <row r="114" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="1">
-        <v>96897555537</v>
-      </c>
+      <c r="A114" s="1"/>
     </row>
     <row r="115" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="1">
-        <v>96891924933</v>
-      </c>
+      <c r="A115" s="1"/>
     </row>
     <row r="116" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="1">
-        <v>96892581188</v>
-      </c>
+      <c r="A116" s="1"/>
     </row>
     <row r="117" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="1">
-        <v>96872285752</v>
-      </c>
+      <c r="A117" s="1"/>
     </row>
     <row r="118" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="1">
-        <v>96890904232</v>
-      </c>
+      <c r="A118" s="1"/>
     </row>
     <row r="119" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="1">
-        <v>96897112088</v>
-      </c>
+      <c r="A119" s="1"/>
     </row>
     <row r="120" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="1">
-        <v>96892182369</v>
-      </c>
+      <c r="A120" s="1"/>
     </row>
     <row r="121" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="1">
-        <v>96895752013</v>
-      </c>
+      <c r="A121" s="1"/>
     </row>
     <row r="122" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="1">
-        <v>96896068855</v>
-      </c>
+      <c r="A122" s="1"/>
     </row>
     <row r="123" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="1">
-        <v>96891317943</v>
-      </c>
+      <c r="A123" s="1"/>
     </row>
     <row r="124" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="1">
-        <v>96894272777</v>
-      </c>
+      <c r="A124" s="1"/>
     </row>
     <row r="125" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="1">
-        <v>96879666129</v>
-      </c>
+      <c r="A125" s="1"/>
     </row>
     <row r="126" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="1">
-        <v>96898088099</v>
-      </c>
+      <c r="A126" s="1"/>
     </row>
     <row r="127" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="1">
-        <v>96892462300</v>
-      </c>
+      <c r="A127" s="1"/>
     </row>
     <row r="128" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="1">
-        <v>96899370564</v>
-      </c>
+      <c r="A128" s="1"/>
     </row>
     <row r="129" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A129" s="1">
-        <v>96891030306</v>
-      </c>
+      <c r="A129" s="1"/>
     </row>
     <row r="130" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="1">
-        <v>96879382142</v>
-      </c>
+      <c r="A130" s="1"/>
     </row>
     <row r="131" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="1">
-        <v>96872457667</v>
-      </c>
+      <c r="A131" s="1"/>
     </row>
     <row r="132" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="1">
-        <v>96890997978</v>
-      </c>
+      <c r="A132" s="1"/>
     </row>
     <row r="133" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="1">
-        <v>96899575644</v>
-      </c>
+      <c r="A133" s="1"/>
     </row>
     <row r="134" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="1">
-        <v>96896248864</v>
-      </c>
+      <c r="A134" s="1"/>
     </row>
     <row r="135" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A135" s="1">
-        <v>96898574291</v>
-      </c>
+      <c r="A135" s="1"/>
     </row>
     <row r="136" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A136" s="1">
-        <v>96894953656</v>
-      </c>
+      <c r="A136" s="1"/>
     </row>
     <row r="137" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="1">
-        <v>96879650050</v>
-      </c>
+      <c r="A137" s="1"/>
     </row>
     <row r="138" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="1">
-        <v>96879391566</v>
-      </c>
+      <c r="A138" s="1"/>
     </row>
     <row r="139" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="1">
-        <v>96895187744</v>
-      </c>
+      <c r="A139" s="1"/>
     </row>
     <row r="140" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="1">
-        <v>96892241157</v>
-      </c>
+      <c r="A140" s="1"/>
     </row>
     <row r="141" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="1">
-        <v>96896530965</v>
-      </c>
+      <c r="A141" s="1"/>
     </row>
     <row r="142" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A142" s="1">
-        <v>96898824801</v>
-      </c>
+      <c r="A142" s="1"/>
     </row>
     <row r="143" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A143" s="1">
-        <v>96896608805</v>
-      </c>
+      <c r="A143" s="1"/>
     </row>
     <row r="144" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A144" s="1">
-        <v>96892281145</v>
-      </c>
+      <c r="A144" s="1"/>
     </row>
     <row r="145" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A145" s="1">
-        <v>96892240051</v>
-      </c>
+      <c r="A145" s="1"/>
     </row>
     <row r="146" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A146" s="1">
-        <v>96897453797</v>
-      </c>
+      <c r="A146" s="1"/>
     </row>
     <row r="147" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A147" s="1">
-        <v>96893433477</v>
-      </c>
+      <c r="A147" s="1"/>
     </row>
     <row r="148" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A148" s="1">
-        <v>96894173983</v>
-      </c>
+      <c r="A148" s="1"/>
     </row>
     <row r="149" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A149" s="1">
-        <v>96894985640</v>
-      </c>
+      <c r="A149" s="1"/>
     </row>
     <row r="150" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A150" s="1">
-        <v>96894089902</v>
-      </c>
+      <c r="A150" s="1"/>
     </row>
     <row r="151" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A151" s="1">
-        <v>96892516825</v>
-      </c>
+      <c r="A151" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141931B4-73A3-4E2A-9AB6-1BD0E39D450C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D604638F-B955-43C3-ABAD-6248F758B992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="1820" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
   <si>
     <t>PhoneNumber</t>
   </si>
@@ -42,7 +42,199 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Mazin</t>
+    <t>عبير</t>
+  </si>
+  <si>
+    <t>حاكمة</t>
+  </si>
+  <si>
+    <t>مريم</t>
+  </si>
+  <si>
+    <t>أنوار</t>
+  </si>
+  <si>
+    <t>شيماء</t>
+  </si>
+  <si>
+    <t>سهام</t>
+  </si>
+  <si>
+    <t>سمية</t>
+  </si>
+  <si>
+    <t>رجاء</t>
+  </si>
+  <si>
+    <t>اميمة</t>
+  </si>
+  <si>
+    <t>نهى</t>
+  </si>
+  <si>
+    <t>Jamila</t>
+  </si>
+  <si>
+    <t>سُميـه</t>
+  </si>
+  <si>
+    <t>بلقيس</t>
+  </si>
+  <si>
+    <t>نادية</t>
+  </si>
+  <si>
+    <t>صالحه</t>
+  </si>
+  <si>
+    <t>ام افنان</t>
+  </si>
+  <si>
+    <t>احلام</t>
+  </si>
+  <si>
+    <t>سميره</t>
+  </si>
+  <si>
+    <t>وضحئ</t>
+  </si>
+  <si>
+    <t>رؤى</t>
+  </si>
+  <si>
+    <t>جنات</t>
+  </si>
+  <si>
+    <t>فاطمة</t>
+  </si>
+  <si>
+    <t>بسمة</t>
+  </si>
+  <si>
+    <t>سماح</t>
+  </si>
+  <si>
+    <t>شذى</t>
+  </si>
+  <si>
+    <t>نصرى</t>
+  </si>
+  <si>
+    <t>مريم محمد</t>
+  </si>
+  <si>
+    <t>شهد</t>
+  </si>
+  <si>
+    <t>حنين</t>
+  </si>
+  <si>
+    <t>ريما</t>
+  </si>
+  <si>
+    <t>أمل</t>
+  </si>
+  <si>
+    <t>هـدايــه</t>
+  </si>
+  <si>
+    <t>وعد</t>
+  </si>
+  <si>
+    <t>احمد</t>
+  </si>
+  <si>
+    <t>بدريه</t>
+  </si>
+  <si>
+    <t>اسماء</t>
+  </si>
+  <si>
+    <t>منال</t>
+  </si>
+  <si>
+    <t>غدير</t>
+  </si>
+  <si>
+    <t>فاطمه</t>
+  </si>
+  <si>
+    <t>إيمان</t>
+  </si>
+  <si>
+    <t>خلود خالد</t>
+  </si>
+  <si>
+    <t>زينب</t>
+  </si>
+  <si>
+    <t>ريم سعيد</t>
+  </si>
+  <si>
+    <t>عائشة</t>
+  </si>
+  <si>
+    <t>سميرة</t>
+  </si>
+  <si>
+    <t>شيخة</t>
+  </si>
+  <si>
+    <t>حور</t>
+  </si>
+  <si>
+    <t>شمس</t>
+  </si>
+  <si>
+    <t>اشواق</t>
+  </si>
+  <si>
+    <t>نوف</t>
+  </si>
+  <si>
+    <t>ريان</t>
+  </si>
+  <si>
+    <t>حور العين</t>
+  </si>
+  <si>
+    <t>حمده</t>
+  </si>
+  <si>
+    <t>شمسه</t>
+  </si>
+  <si>
+    <t>ايناس</t>
+  </si>
+  <si>
+    <t>وداد</t>
+  </si>
+  <si>
+    <t>وئام</t>
+  </si>
+  <si>
+    <t>أسيل</t>
+  </si>
+  <si>
+    <t>في</t>
+  </si>
+  <si>
+    <t>سجى</t>
+  </si>
+  <si>
+    <t>اماني</t>
+  </si>
+  <si>
+    <t>هنادي</t>
+  </si>
+  <si>
+    <t>ثريا</t>
+  </si>
+  <si>
+    <t>عزة</t>
+  </si>
+  <si>
+    <t>هدى</t>
   </si>
 </sst>
 </file>
@@ -99,11 +291,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B65809-7069-482D-ABD6-D568B5E57C26}">
-  <dimension ref="A1:B151"/>
+  <dimension ref="A1:B127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -438,102 +633,620 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2">
+        <v>96879498264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2">
+        <v>96891980727</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2">
+        <v>96891194892</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>96892009382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>96899299375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="2">
+        <v>96894405993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>96894465254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>96894220470</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>96896406606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>96892055773</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="2">
+        <v>96891302244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2">
+        <v>96897864166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2">
+        <v>96899863004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2">
+        <v>96894734245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="2">
+        <v>96891962900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="2">
+        <v>96890994074</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="2">
+        <v>96893837862</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="2">
+        <v>96894440813</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="2">
+        <v>96895127379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="2">
+        <v>96891770997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="2">
+        <v>96894094053</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="2">
+        <v>96892128051</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2">
+        <v>96892628328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="2">
+        <v>96897862014</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="2">
+        <v>96899562095</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="2">
+        <v>96897399322</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="2">
+        <v>96892122252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="2">
+        <v>96892597275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="2">
+        <v>96879292966</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="2">
+        <v>96894298371</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="2">
+        <v>96893999134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="2">
+        <v>96896618099</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="2">
+        <v>96895533335</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="2">
+        <v>96891197877</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="2">
+        <v>96892527321</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="2">
+        <v>96898011494</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="1">
+        <v>96896774345</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="1">
+        <v>96895437375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="1">
+        <v>96894466584</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="1">
+        <v>96897770426</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="1">
+        <v>96897801304</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="1">
+        <v>96897003667</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>96897774615</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="51" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="1"/>
-    </row>
-    <row r="62" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="1"/>
-    </row>
-    <row r="68" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="1"/>
-    </row>
-    <row r="70" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="1"/>
-    </row>
-    <row r="71" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="1"/>
-    </row>
-    <row r="72" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="1"/>
-    </row>
-    <row r="73" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="1"/>
-    </row>
-    <row r="74" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="1"/>
-    </row>
-    <row r="75" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="1"/>
-    </row>
-    <row r="76" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B76" s="1"/>
-    </row>
-    <row r="77" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="1"/>
-    </row>
-    <row r="78" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="1">
+        <v>96895790093</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="1">
+        <v>96897873765</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="1">
+        <v>96899700905</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="1">
+        <v>96896650646</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="1">
+        <v>96879181282</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="1">
+        <v>96893930732</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="1">
+        <v>96879998595</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="1">
+        <v>96893374084</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" s="1">
+        <v>96896977984</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="1">
+        <v>96899676502</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" s="1">
+        <v>96894344344</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="1">
+        <v>96891126262</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="1">
+        <v>96896676774</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="1">
+        <v>96890181816</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="1">
+        <v>96898848090</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="1">
+        <v>96893395406</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" s="1">
+        <v>96896608863</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" s="1">
+        <v>96891122168</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="1">
+        <v>96898008223</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="1">
+        <v>96893641646</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="1">
+        <v>96899632304</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="1">
+        <v>96893332258</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="1">
+        <v>96891785990</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" s="1">
+        <v>96898838813</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68" s="1">
+        <v>96891955796</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" s="1">
+        <v>96898111620</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" s="1">
+        <v>96895222764</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" s="1">
+        <v>96895097965</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72" s="1">
+        <v>96894266486</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B73" s="1">
+        <v>96893339068</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="1">
+        <v>96894747114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B75" s="1">
+        <v>96896204661</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B76" s="1">
+        <v>96899054800</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B77" s="1">
+        <v>96897906303</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B78" s="1"/>
     </row>
-    <row r="79" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B80" s="1"/>
     </row>
     <row r="81" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -676,78 +1389,6 @@
     </row>
     <row r="127" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="1"/>
-    </row>
-    <row r="128" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B128" s="1"/>
-    </row>
-    <row r="129" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B129" s="1"/>
-    </row>
-    <row r="130" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B130" s="1"/>
-    </row>
-    <row r="131" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B131" s="1"/>
-    </row>
-    <row r="132" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B132" s="1"/>
-    </row>
-    <row r="133" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B133" s="1"/>
-    </row>
-    <row r="134" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B134" s="1"/>
-    </row>
-    <row r="135" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B135" s="1"/>
-    </row>
-    <row r="136" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B136" s="1"/>
-    </row>
-    <row r="137" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B137" s="1"/>
-    </row>
-    <row r="138" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B138" s="1"/>
-    </row>
-    <row r="139" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B139" s="1"/>
-    </row>
-    <row r="140" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B140" s="1"/>
-    </row>
-    <row r="141" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B141" s="1"/>
-    </row>
-    <row r="142" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B142" s="1"/>
-    </row>
-    <row r="143" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B143" s="1"/>
-    </row>
-    <row r="144" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B144" s="1"/>
-    </row>
-    <row r="145" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B145" s="1"/>
-    </row>
-    <row r="146" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B146" s="1"/>
-    </row>
-    <row r="147" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B147" s="1"/>
-    </row>
-    <row r="148" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B148" s="1"/>
-    </row>
-    <row r="149" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B149" s="1"/>
-    </row>
-    <row r="150" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B150" s="1"/>
-    </row>
-    <row r="151" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B151" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514FA558-4B43-4E10-8DBD-A5319E9941CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DB8EE1-594B-4BB1-9DE2-311732B6487F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="1820" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
+    <workbookView xWindow="2840" yWindow="2840" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
   <si>
     <t>PhoneNumber</t>
   </si>
@@ -42,26 +42,248 @@
     <t>Name</t>
   </si>
   <si>
-    <t>مازن</t>
+    <t>شيماء</t>
+  </si>
+  <si>
+    <t>روان</t>
+  </si>
+  <si>
+    <t>احلام</t>
+  </si>
+  <si>
+    <t>زهرة عبدالرحمن</t>
+  </si>
+  <si>
+    <t>بشاير</t>
+  </si>
+  <si>
+    <t>سلمى</t>
+  </si>
+  <si>
+    <t>عهود</t>
+  </si>
+  <si>
+    <t>جهينة</t>
+  </si>
+  <si>
+    <t>إيمان</t>
+  </si>
+  <si>
+    <t>هاجر</t>
+  </si>
+  <si>
+    <t>انفال</t>
+  </si>
+  <si>
+    <t>سلمى الحوسني</t>
+  </si>
+  <si>
+    <t>أماني</t>
+  </si>
+  <si>
+    <t>ابتسام</t>
+  </si>
+  <si>
+    <t>فاطمة</t>
+  </si>
+  <si>
+    <t>ليلى</t>
+  </si>
+  <si>
+    <t>فاطمه</t>
+  </si>
+  <si>
+    <t>انتصار</t>
+  </si>
+  <si>
+    <t>نجوى</t>
+  </si>
+  <si>
+    <t>ريم</t>
+  </si>
+  <si>
+    <t>ثـويبـة</t>
+  </si>
+  <si>
+    <t>مهناز</t>
+  </si>
+  <si>
+    <t>احلام خليفه</t>
+  </si>
+  <si>
+    <t>اماني</t>
+  </si>
+  <si>
+    <t>زوان</t>
+  </si>
+  <si>
+    <t>مريم</t>
+  </si>
+  <si>
+    <t>اميمه</t>
+  </si>
+  <si>
+    <t>سعاده</t>
+  </si>
+  <si>
+    <t>ملاك</t>
+  </si>
+  <si>
+    <t>مرام</t>
+  </si>
+  <si>
+    <t>شفاء</t>
+  </si>
+  <si>
+    <t>بدرية</t>
+  </si>
+  <si>
+    <t>خلود</t>
+  </si>
+  <si>
+    <t>زهره</t>
+  </si>
+  <si>
+    <t>صفيه</t>
+  </si>
+  <si>
+    <t>امينة</t>
+  </si>
+  <si>
+    <t>رحمه</t>
+  </si>
+  <si>
+    <t>ريان</t>
+  </si>
+  <si>
+    <t>موزه</t>
+  </si>
+  <si>
+    <t>جهينه</t>
+  </si>
+  <si>
+    <t>أم حمد</t>
+  </si>
+  <si>
+    <t>بسمه</t>
+  </si>
+  <si>
+    <t>ريه</t>
+  </si>
+  <si>
+    <t>نورة</t>
+  </si>
+  <si>
+    <t>سالم</t>
+  </si>
+  <si>
+    <t>علياء</t>
+  </si>
+  <si>
+    <t>جواهر</t>
+  </si>
+  <si>
+    <t>رهام</t>
+  </si>
+  <si>
+    <t>زينب</t>
+  </si>
+  <si>
+    <t>رزان</t>
+  </si>
+  <si>
+    <t>حنان</t>
+  </si>
+  <si>
+    <t>آمنه</t>
+  </si>
+  <si>
+    <t>هدى</t>
+  </si>
+  <si>
+    <t>ساره</t>
+  </si>
+  <si>
+    <t>شيخه</t>
+  </si>
+  <si>
+    <t>ابرار</t>
+  </si>
+  <si>
+    <t>خالد</t>
+  </si>
+  <si>
+    <t>عبير</t>
+  </si>
+  <si>
+    <t>خالده</t>
+  </si>
+  <si>
+    <t>ويان</t>
+  </si>
+  <si>
+    <t>أحلام</t>
+  </si>
+  <si>
+    <t>غالية</t>
+  </si>
+  <si>
+    <t>وصال البلوشي</t>
+  </si>
+  <si>
+    <t>بـراءه</t>
+  </si>
+  <si>
+    <t>فاطمة السيد</t>
+  </si>
+  <si>
+    <t>زمزم العلويه</t>
+  </si>
+  <si>
+    <t>انوار</t>
+  </si>
+  <si>
+    <t>لطيفه</t>
+  </si>
+  <si>
+    <t>ضحى</t>
+  </si>
+  <si>
+    <t>غيداء</t>
+  </si>
+  <si>
+    <t>هالة</t>
+  </si>
+  <si>
+    <t>ام تركي</t>
+  </si>
+  <si>
+    <t>راوية</t>
+  </si>
+  <si>
+    <t>نصرى</t>
+  </si>
+  <si>
+    <t>ايمان</t>
+  </si>
+  <si>
+    <t>كواثر</t>
+  </si>
+  <si>
+    <t>طيف</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -72,7 +294,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -80,30 +302,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B65809-7069-482D-ABD6-D568B5E57C26}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A70" sqref="A70:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -429,7 +636,7 @@
     <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -437,163 +644,757 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>96897774615</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="1"/>
+        <v>96896065166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>96895970721</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>96891550855</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>96891959576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>96896006825</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>96872131383</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>96898566695</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>96898181617</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>96896358888</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>96894626695</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>96877433697</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>96894458523</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>96895350543</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>96890999373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <v>96893974225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
+        <v>96895655688</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
+        <v>96899370095</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1">
+        <v>96892392949</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
+        <v>96892776993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>96899054600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>96894128923</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>96898571261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>96896069430</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2">
+        <v>96895644979</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <v>96877230087</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="2">
+        <v>96897336717</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2">
+        <v>96871187955</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2">
+        <v>96896333993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2">
+        <v>96895988997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="2">
+        <v>96897300806</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2">
+        <v>96898933616</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2">
+        <v>96898059381</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="2">
+        <v>96897913135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="2">
+        <v>96890979447</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="2">
+        <v>96899226560</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="2">
+        <v>96890966041</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="2">
+        <v>96892377776</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="2">
+        <v>96892016602</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="2">
+        <v>96893923884</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="2">
+        <v>96899021959</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="2">
+        <v>96892229470</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="2">
+        <v>96891226144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="2">
+        <v>96893324095</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="2">
+        <v>96897806719</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="2">
+        <v>96897006552</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="2">
+        <v>96899028558</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="3">
+        <v>96898542020</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="3">
+        <v>96891172748</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="3">
+        <v>96892396957</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="3">
+        <v>96897411942</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="3">
+        <v>96897904839</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="3">
+        <v>96898983141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="3">
+        <v>96894888003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="3">
+        <v>96890998862</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="3">
+        <v>96897774875</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="3">
+        <v>96893508093</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="3">
+        <v>96872704443</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="3">
+        <v>96879200174</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="3">
+        <v>96898952121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="3">
+        <v>96894528805</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" s="3">
+        <v>96899288869</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63" s="3">
+        <v>96896712817</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="3">
+        <v>96893647888</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" s="3">
+        <v>96897267171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" s="3">
+        <v>96893380523</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="3">
+        <v>96879086414</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68" s="3">
+        <v>96892678954</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="3">
+        <v>96897618600</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B70" s="3">
+        <v>96896290266</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" s="3">
+        <v>96899095636</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B72" s="3">
+        <v>96879994489</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" s="3">
+        <v>96894458477</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B74" s="3">
+        <v>96890680042</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B75" s="3">
+        <v>96896979505</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B76" s="3">
+        <v>96899794704</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B77" s="3">
+        <v>96890667887</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78" s="3">
+        <v>96897809077</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B79" s="3">
+        <v>96890102799</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B80" s="3">
+        <v>96833433319</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B81" s="3">
+        <v>96890177353</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="3">
+        <v>96892667966</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B83" s="3">
+        <v>96879285276</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B84" s="3">
+        <v>96899522569</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85" s="3">
+        <v>96894116151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86" s="3">
+        <v>96895926644</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B87" s="3">
+        <v>96893807788</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B88" s="3">
+        <v>96897778828</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B89" s="3">
+        <v>96896453001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B90" s="3">
+        <v>96894811118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B91" s="3">
+        <v>96891103915</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B92" s="3">
+        <v>96898553415</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B93" s="3">
+        <v>96894844727</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B94" s="3">
+        <v>96894051547</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B95" s="3">
+        <v>96892194103</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E434DF2-6FF5-4A5F-AA92-CB15755929FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A23C274-9000-49C3-933C-1BD0BD73DFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
+    <workbookView xWindow="2500" yWindow="2500" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
   <si>
     <t>PhoneNumber</t>
   </si>
@@ -48,88 +48,208 @@
     <t>مريم</t>
   </si>
   <si>
-    <t>موزه</t>
-  </si>
-  <si>
-    <t>علياء</t>
-  </si>
-  <si>
     <t>حنان</t>
   </si>
   <si>
     <t>ايمان</t>
   </si>
   <si>
-    <t>وجدان</t>
-  </si>
-  <si>
     <t>نور</t>
   </si>
   <si>
-    <t>سهام</t>
-  </si>
-  <si>
-    <t>عائشة</t>
-  </si>
-  <si>
     <t>لمياء</t>
   </si>
   <si>
-    <t>سهيله</t>
-  </si>
-  <si>
-    <t>سلوان</t>
-  </si>
-  <si>
     <t>زينب</t>
   </si>
   <si>
-    <t>نسمة</t>
-  </si>
-  <si>
-    <t>طيف</t>
-  </si>
-  <si>
     <t>مزنة</t>
   </si>
   <si>
-    <t>خديجة</t>
-  </si>
-  <si>
     <t>منى</t>
   </si>
   <si>
     <t>شيماء</t>
   </si>
   <si>
-    <t>مايده</t>
-  </si>
-  <si>
-    <t>مروه</t>
-  </si>
-  <si>
-    <t>وعد</t>
-  </si>
-  <si>
     <t>أميره</t>
   </si>
   <si>
-    <t>ماريا</t>
-  </si>
-  <si>
-    <t>ياسه</t>
-  </si>
-  <si>
-    <t>رحاب الشيدي</t>
-  </si>
-  <si>
     <t>أمل</t>
   </si>
   <si>
-    <t>أسيل</t>
-  </si>
-  <si>
     <t>عبير</t>
+  </si>
+  <si>
+    <t>سليمة</t>
+  </si>
+  <si>
+    <t>بدور</t>
+  </si>
+  <si>
+    <t>ثريا</t>
+  </si>
+  <si>
+    <t>عايشه</t>
+  </si>
+  <si>
+    <t>نوره</t>
+  </si>
+  <si>
+    <t>إرم</t>
+  </si>
+  <si>
+    <t>هدى</t>
+  </si>
+  <si>
+    <t>فايزة</t>
+  </si>
+  <si>
+    <t>مزنه</t>
+  </si>
+  <si>
+    <t>آمنه</t>
+  </si>
+  <si>
+    <t>اسماء</t>
+  </si>
+  <si>
+    <t>سليمه</t>
+  </si>
+  <si>
+    <t>خوله</t>
+  </si>
+  <si>
+    <t>ام خالد</t>
+  </si>
+  <si>
+    <t>سالم</t>
+  </si>
+  <si>
+    <t>ام علي</t>
+  </si>
+  <si>
+    <t>يقين</t>
+  </si>
+  <si>
+    <t>ريان</t>
+  </si>
+  <si>
+    <t>زلفى</t>
+  </si>
+  <si>
+    <t>شمساء</t>
+  </si>
+  <si>
+    <t>هبة</t>
+  </si>
+  <si>
+    <t>معاني</t>
+  </si>
+  <si>
+    <t>فاطمه</t>
+  </si>
+  <si>
+    <t>جواهر</t>
+  </si>
+  <si>
+    <t>فاطمه راشد</t>
+  </si>
+  <si>
+    <t>بلقيس</t>
+  </si>
+  <si>
+    <t>غدير</t>
+  </si>
+  <si>
+    <t>سناء</t>
+  </si>
+  <si>
+    <t>حميده</t>
+  </si>
+  <si>
+    <t>ريم</t>
+  </si>
+  <si>
+    <t>عبدالله علي</t>
+  </si>
+  <si>
+    <t>عايدة</t>
+  </si>
+  <si>
+    <t>عبله</t>
+  </si>
+  <si>
+    <t>راويه</t>
+  </si>
+  <si>
+    <t>شريفه</t>
+  </si>
+  <si>
+    <t>ميمونه</t>
+  </si>
+  <si>
+    <t>إيمان</t>
+  </si>
+  <si>
+    <t>رشا</t>
+  </si>
+  <si>
+    <t>الزهراء</t>
+  </si>
+  <si>
+    <t>خديجه</t>
+  </si>
+  <si>
+    <t>اروى</t>
+  </si>
+  <si>
+    <t>ايناس</t>
+  </si>
+  <si>
+    <t>ليلى</t>
+  </si>
+  <si>
+    <t>رنده</t>
+  </si>
+  <si>
+    <t>رياء</t>
+  </si>
+  <si>
+    <t>الكوثر</t>
+  </si>
+  <si>
+    <t>طيب</t>
+  </si>
+  <si>
+    <t>امنه البلوشيه</t>
+  </si>
+  <si>
+    <t>وجود ناصر</t>
+  </si>
+  <si>
+    <t>فآطمه</t>
+  </si>
+  <si>
+    <t>دعاء</t>
+  </si>
+  <si>
+    <t>مروة</t>
+  </si>
+  <si>
+    <t>ياسين</t>
+  </si>
+  <si>
+    <t>ساميه</t>
+  </si>
+  <si>
+    <t>أصيلة محمد</t>
+  </si>
+  <si>
+    <t>فخريه</t>
+  </si>
+  <si>
+    <t>جهينه</t>
   </si>
 </sst>
 </file>
@@ -165,9 +285,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B65809-7069-482D-ABD6-D568B5E57C26}">
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82:XFD82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -503,50 +622,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>96896460847</v>
+        <v>96894492258</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B3">
-        <v>96898155157</v>
+        <v>96899277347</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B4">
-        <v>96896917005</v>
+        <v>96899018837</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>96896551628</v>
+        <v>96896688676</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>96895061653</v>
+        <v>96893356676</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B7">
-        <v>96898815401</v>
+        <v>96897894499</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -554,402 +673,608 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>96893997363</v>
+        <v>96891290941</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B9">
-        <v>96893223364</v>
+        <v>96897141618</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B10">
-        <v>96895354205</v>
+        <v>96891777970</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B11">
-        <v>96894077283</v>
+        <v>96897757775</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B12">
-        <v>96895410003</v>
+        <v>96898275297</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B13">
-        <v>96895184186</v>
+        <v>96890662335</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B14">
-        <v>96898067751</v>
+        <v>96893876369</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B15">
-        <v>96895928430</v>
+        <v>96890307777</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>96896023221</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>96893536145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>96893351423</v>
+        <v>96899701026</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B18">
-        <v>96893099960</v>
+        <v>96897378221</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B19">
-        <v>96899700651</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>96894442724</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>96897712992</v>
+        <v>96896040684</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>96894090144</v>
+        <v>96898151181</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>96893577358</v>
+        <v>96898857585</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>96896081417</v>
+        <v>96872125545</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>96894432238</v>
+        <v>96892804403</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B25">
-        <v>96898135991</v>
+        <v>96899349977</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>96895572655</v>
+        <v>96897578961</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>96879325582</v>
+        <v>96894736352</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>96893605002</v>
+        <v>96899748583</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>96896083381</v>
+        <v>96877326498</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B30">
-        <v>96895415635</v>
+        <v>96891125276</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>96893303371</v>
+        <v>96898240040</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>96899519562</v>
+        <v>96895315447</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B33">
-        <v>96899101882</v>
+        <v>96898834436</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>96891979420</v>
+        <v>96891266826</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="1"/>
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>96894387587</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B36" s="1"/>
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>96898105663</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B37" s="1"/>
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>96878787000</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B38" s="1"/>
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>96899590705</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B39" s="1"/>
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>96891921626</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B40" s="1"/>
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>96891715537</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B41" s="1"/>
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>96871108583</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B42" s="1"/>
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42">
+        <v>96897715151</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B43" s="1"/>
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>96872001437</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B44" s="1"/>
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>96894959162</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B45" s="1"/>
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45">
+        <v>96892327632</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B46" s="1"/>
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>96895091908</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B47" s="1"/>
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>96892521464</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B61" s="1"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B67" s="1"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B69" s="1"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B70" s="1"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B71" s="1"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B72" s="1"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B73" s="1"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B74" s="1"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B75" s="1"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B76" s="1"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B77" s="1"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B78" s="1"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B79" s="1"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B80" s="1"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B81" s="1"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B82" s="1"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B83" s="1"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B84" s="1"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B85" s="1"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B86" s="1"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B87" s="1"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B88" s="1"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B89" s="1"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B90" s="1"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B91" s="1"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B92" s="1"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B93" s="1"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B94" s="1"/>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B95" s="1"/>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B96" s="1"/>
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>96893371711</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>96894977700</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50">
+        <v>96899036454</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51">
+        <v>96833766333</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>96872508059</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>96893838049</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>96890999681</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>96896055752</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>96896184449</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57">
+        <v>96896215058</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58">
+        <v>96890101266</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59">
+        <v>96899252705</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60">
+        <v>96896166651</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61">
+        <v>96898962612</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62">
+        <v>96892280302</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63">
+        <v>96895137712</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64">
+        <v>96890921113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65">
+        <v>96899192866</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66">
+        <v>96879253068</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67">
+        <v>96894559267</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68">
+        <v>96871769366</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69">
+        <v>96896422023</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70">
+        <v>96892225277</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71">
+        <v>96899601063</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72">
+        <v>96894249985</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73">
+        <v>96871300636</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>65</v>
+      </c>
+      <c r="B74">
+        <v>96894442511</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75">
+        <v>96899155466</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>66</v>
+      </c>
+      <c r="B76">
+        <v>96879270509</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77">
+        <v>96891774644</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78">
+        <v>96898598349</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>68</v>
+      </c>
+      <c r="B79">
+        <v>96892176745</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80">
+        <v>96896188995</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>69</v>
+      </c>
+      <c r="B81">
+        <v>96892110547</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>70</v>
+      </c>
+      <c r="B82">
+        <v>96892105000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>71</v>
+      </c>
+      <c r="B83">
+        <v>96897129261</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A23C274-9000-49C3-933C-1BD0BD73DFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA576F27-14DD-4B43-A39A-2E1775013A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="2500" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
+    <workbookView xWindow="3180" yWindow="3180" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
   <si>
     <t>PhoneNumber</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>فاطمة</t>
-  </si>
-  <si>
     <t>مريم</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>نور</t>
   </si>
   <si>
-    <t>لمياء</t>
-  </si>
-  <si>
     <t>زينب</t>
   </si>
   <si>
@@ -69,187 +63,217 @@
     <t>منى</t>
   </si>
   <si>
-    <t>شيماء</t>
-  </si>
-  <si>
     <t>أميره</t>
   </si>
   <si>
-    <t>أمل</t>
-  </si>
-  <si>
     <t>عبير</t>
   </si>
   <si>
-    <t>سليمة</t>
-  </si>
-  <si>
-    <t>بدور</t>
-  </si>
-  <si>
-    <t>ثريا</t>
-  </si>
-  <si>
-    <t>عايشه</t>
-  </si>
-  <si>
-    <t>نوره</t>
-  </si>
-  <si>
-    <t>إرم</t>
-  </si>
-  <si>
     <t>هدى</t>
   </si>
   <si>
-    <t>فايزة</t>
-  </si>
-  <si>
-    <t>مزنه</t>
-  </si>
-  <si>
-    <t>آمنه</t>
-  </si>
-  <si>
-    <t>اسماء</t>
-  </si>
-  <si>
-    <t>سليمه</t>
-  </si>
-  <si>
-    <t>خوله</t>
-  </si>
-  <si>
-    <t>ام خالد</t>
-  </si>
-  <si>
-    <t>سالم</t>
-  </si>
-  <si>
-    <t>ام علي</t>
-  </si>
-  <si>
-    <t>يقين</t>
-  </si>
-  <si>
-    <t>ريان</t>
-  </si>
-  <si>
-    <t>زلفى</t>
-  </si>
-  <si>
-    <t>شمساء</t>
-  </si>
-  <si>
-    <t>هبة</t>
-  </si>
-  <si>
-    <t>معاني</t>
-  </si>
-  <si>
     <t>فاطمه</t>
   </si>
   <si>
     <t>جواهر</t>
   </si>
   <si>
-    <t>فاطمه راشد</t>
-  </si>
-  <si>
     <t>بلقيس</t>
   </si>
   <si>
-    <t>غدير</t>
-  </si>
-  <si>
     <t>سناء</t>
   </si>
   <si>
-    <t>حميده</t>
-  </si>
-  <si>
     <t>ريم</t>
   </si>
   <si>
-    <t>عبدالله علي</t>
-  </si>
-  <si>
-    <t>عايدة</t>
-  </si>
-  <si>
-    <t>عبله</t>
-  </si>
-  <si>
-    <t>راويه</t>
-  </si>
-  <si>
-    <t>شريفه</t>
-  </si>
-  <si>
-    <t>ميمونه</t>
-  </si>
-  <si>
-    <t>إيمان</t>
-  </si>
-  <si>
-    <t>رشا</t>
-  </si>
-  <si>
-    <t>الزهراء</t>
-  </si>
-  <si>
     <t>خديجه</t>
   </si>
   <si>
-    <t>اروى</t>
-  </si>
-  <si>
-    <t>ايناس</t>
-  </si>
-  <si>
     <t>ليلى</t>
   </si>
   <si>
-    <t>رنده</t>
-  </si>
-  <si>
-    <t>رياء</t>
-  </si>
-  <si>
-    <t>الكوثر</t>
-  </si>
-  <si>
-    <t>طيب</t>
-  </si>
-  <si>
-    <t>امنه البلوشيه</t>
-  </si>
-  <si>
-    <t>وجود ناصر</t>
-  </si>
-  <si>
-    <t>فآطمه</t>
-  </si>
-  <si>
-    <t>دعاء</t>
-  </si>
-  <si>
-    <t>مروة</t>
-  </si>
-  <si>
-    <t>ياسين</t>
-  </si>
-  <si>
-    <t>ساميه</t>
-  </si>
-  <si>
-    <t>أصيلة محمد</t>
-  </si>
-  <si>
-    <t>فخريه</t>
-  </si>
-  <si>
     <t>جهينه</t>
+  </si>
+  <si>
+    <t>مروه</t>
+  </si>
+  <si>
+    <t>عذراء</t>
+  </si>
+  <si>
+    <t>تيماء</t>
+  </si>
+  <si>
+    <t>خالدة</t>
+  </si>
+  <si>
+    <t>ابتهال</t>
+  </si>
+  <si>
+    <t>حنين</t>
+  </si>
+  <si>
+    <t>صحوه</t>
+  </si>
+  <si>
+    <t>ساره</t>
+  </si>
+  <si>
+    <t>رحال</t>
+  </si>
+  <si>
+    <t>ساره عبدالله</t>
+  </si>
+  <si>
+    <t>عائشه</t>
+  </si>
+  <si>
+    <t>حور</t>
+  </si>
+  <si>
+    <t>العنود</t>
+  </si>
+  <si>
+    <t>زكية</t>
+  </si>
+  <si>
+    <t>زوينه</t>
+  </si>
+  <si>
+    <t>مريم ابراهيم</t>
+  </si>
+  <si>
+    <t>منيره</t>
+  </si>
+  <si>
+    <t>شمسة</t>
+  </si>
+  <si>
+    <t>منال</t>
+  </si>
+  <si>
+    <t>هدى سالم</t>
+  </si>
+  <si>
+    <t>عذاري</t>
+  </si>
+  <si>
+    <t>هويدا</t>
+  </si>
+  <si>
+    <t>انيسة</t>
+  </si>
+  <si>
+    <t>هيام</t>
+  </si>
+  <si>
+    <t>الهام</t>
+  </si>
+  <si>
+    <t>اميرة</t>
+  </si>
+  <si>
+    <t>سمر علي</t>
+  </si>
+  <si>
+    <t>شهد</t>
+  </si>
+  <si>
+    <t>سلمى</t>
+  </si>
+  <si>
+    <t>امنه</t>
+  </si>
+  <si>
+    <t>خلود</t>
+  </si>
+  <si>
+    <t>دلال</t>
+  </si>
+  <si>
+    <t>اصيلة</t>
+  </si>
+  <si>
+    <t>وضحه</t>
+  </si>
+  <si>
+    <t>وضحى</t>
+  </si>
+  <si>
+    <t>عطيه</t>
+  </si>
+  <si>
+    <t>شذى</t>
+  </si>
+  <si>
+    <t>وجدان</t>
+  </si>
+  <si>
+    <t>بثينه</t>
+  </si>
+  <si>
+    <t>زينب الجابري</t>
+  </si>
+  <si>
+    <t>أماني</t>
+  </si>
+  <si>
+    <t>وعد</t>
+  </si>
+  <si>
+    <t>احلام</t>
+  </si>
+  <si>
+    <t>سمية</t>
+  </si>
+  <si>
+    <t>مها</t>
+  </si>
+  <si>
+    <t>علي</t>
+  </si>
+  <si>
+    <t>رزان</t>
+  </si>
+  <si>
+    <t>عزيزه</t>
+  </si>
+  <si>
+    <t>حبيبه</t>
+  </si>
+  <si>
+    <t>مياسة</t>
+  </si>
+  <si>
+    <t>ماريا</t>
+  </si>
+  <si>
+    <t>ابتسام</t>
+  </si>
+  <si>
+    <t>منار</t>
+  </si>
+  <si>
+    <t>عايشة</t>
+  </si>
+  <si>
+    <t>اصليه</t>
+  </si>
+  <si>
+    <t>هاجر</t>
+  </si>
+  <si>
+    <t>بشاير</t>
+  </si>
+  <si>
+    <t>رجاء</t>
+  </si>
+  <si>
+    <t>روان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فريدة </t>
   </si>
 </sst>
 </file>
@@ -601,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B65809-7069-482D-ABD6-D568B5E57C26}">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82:XFD82"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -622,298 +646,298 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>96894492258</v>
+        <v>96879926201</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>96899277347</v>
+        <v>96897731297</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B4">
-        <v>96899018837</v>
+        <v>96890661887</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B5">
-        <v>96896688676</v>
+        <v>96892977544</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>96893356676</v>
+        <v>96899600743</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B7">
-        <v>96897894499</v>
+        <v>96892960542</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B8">
-        <v>96891290941</v>
+        <v>96899554992</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>96897141618</v>
+        <v>96891479944</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B10">
-        <v>96891777970</v>
+        <v>96895729108</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>96897757775</v>
+        <v>96895035420</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B12">
-        <v>96898275297</v>
+        <v>96897176119</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B13">
-        <v>96890662335</v>
+        <v>96898561201</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>96893876369</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>96895655121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B15">
-        <v>96890307777</v>
+        <v>96896979707</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B16">
-        <v>96893536145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>96899164656</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B17">
-        <v>96899701026</v>
+        <v>96872205007</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B18">
-        <v>96897378221</v>
+        <v>96896907577</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B19">
-        <v>96894442724</v>
+        <v>96894873449</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B20">
-        <v>96896040684</v>
+        <v>96895249060</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B21">
-        <v>96898151181</v>
+        <v>96894979908</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>96898857585</v>
+        <v>96891766059</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B23">
-        <v>96872125545</v>
+        <v>96896147611</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B24">
-        <v>96892804403</v>
+        <v>96894488340</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B25">
-        <v>96899349977</v>
+        <v>96891108873</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>96897578961</v>
+        <v>96899600698</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B27">
-        <v>96894736352</v>
+        <v>96899174006</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>96899748583</v>
+        <v>96899113456</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B29">
-        <v>96877326498</v>
+        <v>96899251099</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B30">
-        <v>96891125276</v>
+        <v>96894413555</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B31">
-        <v>96898240040</v>
+        <v>96895667227</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B32">
-        <v>96895315447</v>
+        <v>96891208822</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B33">
-        <v>96898834436</v>
+        <v>96899191951</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>96891266826</v>
+        <v>96877273937</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35">
-        <v>96894387587</v>
+        <v>96892150180</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>96898105663</v>
+        <v>96894932658</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37">
-        <v>96878787000</v>
+        <v>96879400025</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B38">
-        <v>96899590705</v>
+        <v>96896049707</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -921,7 +945,7 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>96891921626</v>
+        <v>96897749700</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -929,7 +953,7 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>96891715537</v>
+        <v>96895855701</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -937,143 +961,143 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>96871108583</v>
+        <v>96891111949</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B42">
-        <v>96897715151</v>
+        <v>96892393137</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B43">
-        <v>96872001437</v>
+        <v>96898033303</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44">
-        <v>96894959162</v>
+        <v>96891210957</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B45">
-        <v>96892327632</v>
+        <v>96871594714</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B46">
-        <v>96895091908</v>
+        <v>96891165734</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B47">
-        <v>96892521464</v>
+        <v>96892224894</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>96893371711</v>
+        <v>96872009500</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>96894977700</v>
+        <v>96893366444</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>96899036454</v>
+        <v>96893330282</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>96833766333</v>
+        <v>96891324969</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="B52">
-        <v>96872508059</v>
+        <v>96896252559</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53">
-        <v>96893838049</v>
+        <v>96897727442</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54">
-        <v>96890999681</v>
+        <v>96896777636</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55">
-        <v>96896055752</v>
+        <v>96892777569</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56">
-        <v>96896184449</v>
+        <v>96891411144</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B57">
-        <v>96896215058</v>
+        <v>96891162909</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B58">
-        <v>96890101266</v>
+        <v>96899814894</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -1081,199 +1105,311 @@
         <v>55</v>
       </c>
       <c r="B59">
-        <v>96899252705</v>
+        <v>96893988865</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B60">
-        <v>96896166651</v>
+        <v>96893366441</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B61">
-        <v>96898962612</v>
+        <v>96891955855</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="B62">
-        <v>96892280302</v>
+        <v>96892954882</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B63">
-        <v>96895137712</v>
+        <v>96890910545</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B64">
-        <v>96890921113</v>
+        <v>96896959369</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B65">
-        <v>96899192866</v>
+        <v>96892435999</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B66">
-        <v>96879253068</v>
+        <v>96892661158</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B67">
-        <v>96894559267</v>
+        <v>96895238957</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="B68">
-        <v>96871769366</v>
+        <v>96897795788</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B69">
-        <v>96896422023</v>
+        <v>96899004491</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B70">
-        <v>96892225277</v>
+        <v>96897205316</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B71">
-        <v>96899601063</v>
+        <v>96892905769</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B72">
-        <v>96894249985</v>
+        <v>96897770086</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B73">
-        <v>96871300636</v>
+        <v>96897200424</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B74">
-        <v>96894442511</v>
+        <v>96891161306</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B75">
-        <v>96899155466</v>
+        <v>96871174526</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B76">
-        <v>96879270509</v>
+        <v>96897872408</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="B77">
-        <v>96891774644</v>
+        <v>96892734099</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B78">
-        <v>96898598349</v>
+        <v>96891917411</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="B79">
-        <v>96892176745</v>
+        <v>96895544055</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B80">
-        <v>96896188995</v>
+        <v>96897142020</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B81">
-        <v>96892110547</v>
+        <v>96893379432</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B82">
-        <v>96892105000</v>
+        <v>96892111477</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
+        <v>69</v>
+      </c>
+      <c r="B83">
+        <v>96899815029</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>70</v>
+      </c>
+      <c r="B84">
+        <v>96894922313</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85">
+        <v>96892983166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>71</v>
       </c>
-      <c r="B83">
-        <v>96897129261</v>
+      <c r="B86">
+        <v>96897767068</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>72</v>
+      </c>
+      <c r="B87">
+        <v>96892770466</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88">
+        <v>96899617558</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>73</v>
+      </c>
+      <c r="B89">
+        <v>96897838389</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90">
+        <v>96891136347</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>74</v>
+      </c>
+      <c r="B91">
+        <v>96897463663</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>75</v>
+      </c>
+      <c r="B92">
+        <v>96895622144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>76</v>
+      </c>
+      <c r="B93">
+        <v>96891911931</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>79</v>
+      </c>
+      <c r="B94">
+        <v>96898481666</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>77</v>
+      </c>
+      <c r="B95">
+        <v>96891793488</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>48</v>
+      </c>
+      <c r="B96">
+        <v>96872131303</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>78</v>
+      </c>
+      <c r="B97">
+        <v>96895388466</v>
       </c>
     </row>
   </sheetData>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439AF93F-05EF-4129-B97E-AE15D675624E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFFF103-5F5B-403E-9483-0168464D51F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="3180" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -389,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B65809-7069-482D-ABD6-D568B5E57C26}">
-  <dimension ref="A1:A151"/>
+  <dimension ref="A1:A72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -407,752 +407,357 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>966536177315</v>
+        <v>966556954150</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>966504826990</v>
+        <v>966568336681</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>966561627222</v>
+        <v>966533738833</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>966563758938</v>
+        <v>966500081982</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>966590948279</v>
+        <v>966500521307</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>966580008582</v>
+        <v>966550006433</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>966504675111</v>
+        <v>966590005224</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>966509147477</v>
+        <v>966566858445</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>966509747601</v>
+        <v>966540025891</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>966550740833</v>
+        <v>966552429440</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>966560006559</v>
+        <v>966541010334</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>966501302195</v>
+        <v>966534533114</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>966550446443</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>966580007915</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>966537730700</v>
+        <v>966535275099</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>966505222760</v>
+        <v>966569555932</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>966567744568</v>
+        <v>966511111111</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>966552225434</v>
+        <v>966509044626</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>966580003635</v>
+        <v>966555898173</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>966564118305</v>
+        <v>966559310109</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>966580001238</v>
+        <v>966536556203</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>966568772180</v>
+        <v>966507931113</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>966555504171</v>
+        <v>966509785384</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>966509098796</v>
+        <v>966565757567</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>966506128825</v>
+        <v>966590003263</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>966567750141</v>
+        <v>966561981291</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>966550318758</v>
+        <v>966554822768</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>966594320009</v>
+        <v>966556918002</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>966544338410</v>
+        <v>966566677320</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>966535848000</v>
+        <v>966505828111</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>966543071617</v>
+        <v>966533144118</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>966560788059</v>
+        <v>966537064799</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>966564994890</v>
+        <v>966537040428</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>966565066688</v>
+        <v>966530001157</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>966553665333</v>
+        <v>966556203132</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>966545750032</v>
+        <v>966506568090</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>966536823551</v>
+        <v>966538043294</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>966533307263</v>
+        <v>966563280380</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>966534001193</v>
+        <v>966545187141</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>966549036689</v>
+        <v>966532545358</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>966503044491</v>
+        <v>966553255731</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>966507013463</v>
+        <v>966555543826</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>966506701731</v>
+        <v>966505241998</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>966530920336</v>
+        <v>966541122334</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>966560006492</v>
+        <v>966535777082</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>966505979759</v>
+        <v>966554353668</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>966550055206</v>
+        <v>966546688005</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>966556262004</v>
+        <v>966545725550</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>966508990060</v>
+        <v>966536446802</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>966500001145</v>
+        <v>966554738272</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>966569711071</v>
+        <v>966567072020</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>966533622268</v>
+        <v>966555518286</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>966501993998</v>
+        <v>966504889554</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>966501220334</v>
+        <v>966500494434</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>966538303172</v>
+        <v>966538313102</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>966559432032</v>
+        <v>966560005570</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>966508116241</v>
+        <v>966555659011</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>966555786678</v>
+        <v>966598885240</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>966580000085</v>
+        <v>966541047717</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>966504206393</v>
+        <v>966542525587</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>966546786473</v>
+        <v>966558092822</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>966597244447</v>
+        <v>966550392231</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>966582013235</v>
+        <v>966568069771</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>966580001548</v>
+        <v>966543886801</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>966558458525</v>
+        <v>966532015232</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>966550002409</v>
+        <v>966556326760</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>966500001386</v>
+        <v>966564492543</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>966556263556</v>
+        <v>966580001329</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>966503349334</v>
+        <v>966553115579</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>966534449640</v>
+        <v>966550000387</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>966551366322</v>
+        <v>966552990209</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>966557859499</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
-        <v>966568044048</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
-        <v>966543479950</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
-        <v>966550006442</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
-        <v>966536889882</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
-        <v>966559420224</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
-        <v>966550589089</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
-        <v>966502906286</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
-        <v>966556712149</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
-        <v>966507544449</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
-        <v>966560003907</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
-        <v>966537919159</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" s="1">
-        <v>966561841134</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
-        <v>966530001154</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" s="1">
-        <v>966559797785</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
-        <v>966500931283</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
-        <v>966569854236</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
-        <v>966506251431</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" s="1">
-        <v>966599178808</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
-        <v>966557780757</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
-        <v>966550668499</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
-        <v>966552843534</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
-        <v>966502264964</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
-        <v>966503151612</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96" s="1">
-        <v>966561246650</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" s="1">
-        <v>966542895419</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" s="1">
-        <v>966554999077</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" s="1">
-        <v>966553820885</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" s="1">
-        <v>966560002886</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" s="1">
-        <v>966546203930</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" s="1">
-        <v>966542412735</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" s="1">
-        <v>966541223346</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104" s="1">
-        <v>966505598280</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" s="1">
-        <v>966557612075</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" s="1">
-        <v>966567047670</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" s="1">
-        <v>966560701315</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" s="1">
-        <v>966566961801</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" s="1">
-        <v>966558833347</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" s="1">
-        <v>966599187865</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111" s="1">
-        <v>966551900804</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A112" s="1">
-        <v>966550033889</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" s="1">
-        <v>966545552233</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" s="1">
-        <v>966560002660</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" s="1">
-        <v>966540044818</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" s="1">
-        <v>966562727626</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" s="1">
-        <v>966565664565</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A118" s="1">
-        <v>966554060521</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A119" s="1">
-        <v>966568153006</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A120" s="1">
-        <v>966506416120</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121" s="1">
-        <v>966561560632</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A122" s="1">
-        <v>966543522162</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A123" s="1">
-        <v>966506914120</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A124" s="1">
-        <v>966590004147</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A125" s="1">
-        <v>966508369172</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A126" s="1">
-        <v>966541285053</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A127" s="1">
-        <v>966549265545</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A128" s="1">
-        <v>966557509850</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A129" s="1">
-        <v>966550002355</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130" s="1">
-        <v>966530993268</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131" s="1">
-        <v>966552281443</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132" s="1">
-        <v>966505208008</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133" s="1">
-        <v>966508248360</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134" s="1">
-        <v>966502656718</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135" s="1">
-        <v>966507894999</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A136" s="1">
-        <v>966555225437</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A137" s="1">
-        <v>966560004959</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A138" s="1">
-        <v>966538168336</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139" s="1">
-        <v>966500562955</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140" s="1">
-        <v>966550662953</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A141" s="1">
-        <v>966563461377</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A142" s="1">
-        <v>966544899735</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A143" s="1">
-        <v>966563305523</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A144" s="1">
-        <v>966506923093</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A145" s="1">
-        <v>966590001667</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146" s="1">
-        <v>966551197571</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A147" s="1">
-        <v>966507553811</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A148" s="1">
-        <v>966567111161</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A149" s="1">
-        <v>966532122249</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A150" s="1">
-        <v>966502523334</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A151" s="1">
-        <v>966500640051</v>
+        <v>966560003941</v>
       </c>
     </row>
   </sheetData>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFFF103-5F5B-403E-9483-0168464D51F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD0C59C-C6C1-4833-B62D-28F5A0C39696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
+    <workbookView xWindow="2500" yWindow="2500" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -389,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B65809-7069-482D-ABD6-D568B5E57C26}">
-  <dimension ref="A1:A72"/>
+  <dimension ref="A1:A150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E162" sqref="E162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -407,357 +407,747 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>966556954150</v>
+        <v>966500001145</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>966568336681</v>
+        <v>966500001386</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>966533738833</v>
+        <v>966500001964</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>966500081982</v>
+        <v>966500002124</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>966500521307</v>
+        <v>966500004516</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>966550006433</v>
+        <v>966500081982</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>966590005224</v>
+        <v>966500379070</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>966566858445</v>
+        <v>966500494434</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>966540025891</v>
+        <v>966500521307</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>966552429440</v>
+        <v>966500562955</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>966541010334</v>
+        <v>966500580095</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>966534533114</v>
+        <v>966500640051</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>966580007915</v>
+        <v>966500668732</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>966535275099</v>
+        <v>966500931283</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>966569555932</v>
+        <v>966501069945</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>966511111111</v>
+        <v>966501163427</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>966509044626</v>
+        <v>966501220334</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>966555898173</v>
+        <v>966501302195</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>966559310109</v>
+        <v>966501993998</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>966536556203</v>
+        <v>966502081107</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>966507931113</v>
+        <v>966502264964</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>966509785384</v>
+        <v>966502456853</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>966565757567</v>
+        <v>966502523334</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>966590003263</v>
+        <v>966502656718</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>966561981291</v>
+        <v>966502777009</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>966554822768</v>
+        <v>966502795766</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>966556918002</v>
+        <v>966502906286</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>966566677320</v>
+        <v>966502922892</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>966505828111</v>
+        <v>966503044491</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>966533144118</v>
+        <v>966503151612</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>966537064799</v>
+        <v>966503159166</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>966537040428</v>
+        <v>966503253773</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>966530001157</v>
+        <v>966503349334</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>966556203132</v>
+        <v>966503983320</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>966506568090</v>
+        <v>966504146495</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>966538043294</v>
+        <v>966504206393</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>966563280380</v>
+        <v>966504238274</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>966545187141</v>
+        <v>966504508086</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>966532545358</v>
+        <v>966504675111</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>966553255731</v>
+        <v>966504707223</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>966555543826</v>
+        <v>966504776482</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>966505241998</v>
+        <v>966504826990</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>966541122334</v>
+        <v>966504889554</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>966535777082</v>
+        <v>966505118827</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>966554353668</v>
+        <v>966505125174</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>966546688005</v>
+        <v>966505208008</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>966545725550</v>
+        <v>966505222760</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>966536446802</v>
+        <v>966505241998</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>966554738272</v>
+        <v>966505277779</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>966567072020</v>
+        <v>966505598280</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>966555518286</v>
+        <v>966505808851</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>966504889554</v>
+        <v>966505828111</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>966500494434</v>
+        <v>966505852641</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>966538313102</v>
+        <v>966505979759</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>966560005570</v>
+        <v>966506128825</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>966555659011</v>
+        <v>966506251431</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>966598885240</v>
+        <v>966506416120</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>966541047717</v>
+        <v>966506568090</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>966542525587</v>
+        <v>966506599666</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>966558092822</v>
+        <v>966506701731</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>966550392231</v>
+        <v>966506914120</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>966568069771</v>
+        <v>966506923093</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>966543886801</v>
+        <v>966507013463</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>966532015232</v>
+        <v>966507544449</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>966556326760</v>
+        <v>966507553811</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>966564492543</v>
+        <v>966507889965</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>966580001329</v>
+        <v>966507894999</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>966553115579</v>
+        <v>966507931113</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>966550000387</v>
+        <v>966507948983</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>966552990209</v>
+        <v>966508116241</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>966560003941</v>
+        <v>966508248360</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>966508369172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>966508908016</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>966508931953</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>966508990060</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>966508996670</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>966509044626</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>966509098796</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>966509147477</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>966509731394</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>966509747601</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>966509785384</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>966511111111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>966530001154</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>966530001157</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>966530001887</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>966530002050</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>966530035450</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>966530056306</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>966530362442</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>966530415873</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>966530920336</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>966530993268</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>966532015232</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>966532122249</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>966532203928</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>966532545358</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>966533144118</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>966533307263</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>966533622268</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>966533738833</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>966534001193</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>966534449640</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>966534533114</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <v>966535275099</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>966535777082</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>966535844280</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>966535848000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>966535971629</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <v>966536113161</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
+        <v>966536121153</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
+        <v>966536177315</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
+        <v>966536446802</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
+        <v>966536556203</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
+        <v>966536823551</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
+        <v>966536889202</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
+        <v>966536889882</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>966537040428</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
+        <v>966537064799</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
+        <v>966537229218</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
+        <v>966537730700</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
+        <v>966537919159</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
+        <v>966538043294</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
+        <v>966538061137</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>966538168336</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <v>966538303172</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
+        <v>966538313102</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
+        <v>966540025891</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
+        <v>966540044818</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
+        <v>966540061272</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <v>966540621462</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <v>966541003117</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
+        <v>966541010334</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
+        <v>966541047717</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
+        <v>966541077331</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A137" s="1">
+        <v>966541122334</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
+        <v>966541223346</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A139" s="1">
+        <v>966541285053</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A140" s="1">
+        <v>966541390225</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A141" s="1">
+        <v>966541932842</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A142" s="1">
+        <v>966542412735</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A143" s="1">
+        <v>966542525587</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
+        <v>966542895419</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
+        <v>966543071617</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
+        <v>966543479950</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A147" s="1">
+        <v>966543522162</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
+        <v>966543886801</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A149" s="1">
+        <v>966544338410</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
+        <v>966544899735</v>
       </c>
     </row>
   </sheetData>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD0C59C-C6C1-4833-B62D-28F5A0C39696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC719CBA-00B5-454E-8B8D-DCEE74453D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2500" yWindow="2500" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
@@ -389,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B65809-7069-482D-ABD6-D568B5E57C26}">
-  <dimension ref="A1:A150"/>
+  <dimension ref="A1:A151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E162" sqref="E162"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -407,747 +407,752 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>966500001145</v>
+        <v>966545155717</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>966500001386</v>
+        <v>966545187141</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>966500001964</v>
+        <v>966545552233</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>966500002124</v>
+        <v>966545725550</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>966500004516</v>
+        <v>966545750032</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>966500081982</v>
+        <v>966546203930</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>966500379070</v>
+        <v>966546688005</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>966500494434</v>
+        <v>966546786473</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>966500521307</v>
+        <v>966547709097</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>966500562955</v>
+        <v>966548182806</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>966500580095</v>
+        <v>966549036689</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>966500640051</v>
+        <v>966549265545</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>966500668732</v>
+        <v>966550000387</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>966500931283</v>
+        <v>966550001085</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>966501069945</v>
+        <v>966550001652</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>966501163427</v>
+        <v>966550002122</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>966501220334</v>
+        <v>966550002355</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>966501302195</v>
+        <v>966550002409</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>966501993998</v>
+        <v>966550005866</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>966502081107</v>
+        <v>966550006433</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>966502264964</v>
+        <v>966550006442</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>966502456853</v>
+        <v>966550033889</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>966502523334</v>
+        <v>966550055206</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>966502656718</v>
+        <v>966550318758</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>966502777009</v>
+        <v>966550392231</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>966502795766</v>
+        <v>966550446443</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>966502906286</v>
+        <v>966550589089</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>966502922892</v>
+        <v>966550662953</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>966503044491</v>
+        <v>966550668499</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>966503151612</v>
+        <v>966550740833</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>966503159166</v>
+        <v>966551005085</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>966503253773</v>
+        <v>966551197571</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>966503349334</v>
+        <v>966551306317</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>966503983320</v>
+        <v>966551366322</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>966504146495</v>
+        <v>966551808891</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>966504206393</v>
+        <v>966551900804</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>966504238274</v>
+        <v>966552225434</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>966504508086</v>
+        <v>966552263225</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>966504675111</v>
+        <v>966552281443</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>966504707223</v>
+        <v>966552330803</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>966504776482</v>
+        <v>966552429440</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>966504826990</v>
+        <v>966552628518</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>966504889554</v>
+        <v>966552843534</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>966505118827</v>
+        <v>966552990209</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>966505125174</v>
+        <v>966553055251</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>966505208008</v>
+        <v>966553115579</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>966505222760</v>
+        <v>966553255731</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>966505241998</v>
+        <v>966553665333</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>966505277779</v>
+        <v>966553798613</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>966505598280</v>
+        <v>966553820885</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>966505808851</v>
+        <v>966554060521</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>966505828111</v>
+        <v>966554353668</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>966505852641</v>
+        <v>966554429218</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>966505979759</v>
+        <v>966554433221</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>966506128825</v>
+        <v>966554453787</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>966506251431</v>
+        <v>966554488362</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>966506416120</v>
+        <v>966554605225</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>966506568090</v>
+        <v>966554630666</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>966506599666</v>
+        <v>966554738272</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>966506701731</v>
+        <v>966554822768</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>966506914120</v>
+        <v>966554999077</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>966506923093</v>
+        <v>966555005467</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>966507013463</v>
+        <v>966555181286</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>966507544449</v>
+        <v>966555225437</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>966507553811</v>
+        <v>966555333898</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>966507889965</v>
+        <v>966555504171</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>966507894999</v>
+        <v>966555543826</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>966507931113</v>
+        <v>966555595015</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>966507948983</v>
+        <v>966555659011</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>966508116241</v>
+        <v>966555720801</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>966508248360</v>
+        <v>966555724898</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>966508369172</v>
+        <v>966555786678</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>966508908016</v>
+        <v>966555898173</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>966508931953</v>
+        <v>966555977553</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>966508990060</v>
+        <v>966556203132</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>966508996670</v>
+        <v>966556262004</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>966509044626</v>
+        <v>966556263556</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>966509098796</v>
+        <v>966556326760</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>966509147477</v>
+        <v>966556676671</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>966509731394</v>
+        <v>966556712149</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>966509747601</v>
+        <v>966556918002</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>966509785384</v>
+        <v>966556954150</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>966511111111</v>
+        <v>966557245052</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>966530001154</v>
+        <v>966557509850</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>966530001157</v>
+        <v>966557612075</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>966530001887</v>
+        <v>966557771538</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>966530002050</v>
+        <v>966557780757</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>966530035450</v>
+        <v>966557859499</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>966530056306</v>
+        <v>966558064843</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>966530362442</v>
+        <v>966558092822</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>966530415873</v>
+        <v>966558258622</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>966530920336</v>
+        <v>966558458525</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>966530993268</v>
+        <v>966558686387</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>966532015232</v>
+        <v>966558793337</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>966532122249</v>
+        <v>966558833347</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>966532203928</v>
+        <v>966559310109</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>966532545358</v>
+        <v>966559420224</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>966533144118</v>
+        <v>966559432032</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>966533307263</v>
+        <v>966559797785</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>966533622268</v>
+        <v>966559844903</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>966533738833</v>
+        <v>966560002660</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>966534001193</v>
+        <v>966560002697</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>966534449640</v>
+        <v>966560002752</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>966534533114</v>
+        <v>966560002802</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>966535275099</v>
+        <v>966560002831</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>966535777082</v>
+        <v>966560002886</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>966535844280</v>
+        <v>966560002948</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
-        <v>966535848000</v>
+        <v>966560003317</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
-        <v>966535971629</v>
+        <v>966560003574</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
-        <v>966536113161</v>
+        <v>966560003590</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
-        <v>966536121153</v>
+        <v>966560003907</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
-        <v>966536177315</v>
+        <v>966560003941</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
-        <v>966536446802</v>
+        <v>966560004543</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <v>966536556203</v>
+        <v>966560004586</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
-        <v>966536823551</v>
+        <v>966560004857</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
-        <v>966536889202</v>
+        <v>966560004959</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
-        <v>966536889882</v>
+        <v>966560005312</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
-        <v>966537040428</v>
+        <v>966560005372</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
-        <v>966537064799</v>
+        <v>966560005570</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
-        <v>966537229218</v>
+        <v>966560006311</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
-        <v>966537730700</v>
+        <v>966560006395</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
-        <v>966537919159</v>
+        <v>966560006492</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
-        <v>966538043294</v>
+        <v>966560006559</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
-        <v>966538061137</v>
+        <v>966560007053</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
-        <v>966538168336</v>
+        <v>966560007211</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
-        <v>966538303172</v>
+        <v>966560007502</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
-        <v>966538313102</v>
+        <v>966560011252</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
-        <v>966540025891</v>
+        <v>966560018369</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
-        <v>966540044818</v>
+        <v>966560701315</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
-        <v>966540061272</v>
+        <v>966560788059</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
-        <v>966540621462</v>
+        <v>966560888038</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
-        <v>966541003117</v>
+        <v>966561246650</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
-        <v>966541010334</v>
+        <v>966561560632</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
-        <v>966541047717</v>
+        <v>966561627222</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
-        <v>966541077331</v>
+        <v>966561841134</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
-        <v>966541122334</v>
+        <v>966561981291</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
-        <v>966541223346</v>
+        <v>966562727626</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
-        <v>966541285053</v>
+        <v>966563280380</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
-        <v>966541390225</v>
+        <v>966563305523</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
-        <v>966541932842</v>
+        <v>966563461377</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
-        <v>966542412735</v>
+        <v>966563758938</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
-        <v>966542525587</v>
+        <v>966564118305</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
-        <v>966542895419</v>
+        <v>966564492543</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
-        <v>966543071617</v>
+        <v>966564994890</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
-        <v>966543479950</v>
+        <v>966565066688</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
-        <v>966543522162</v>
+        <v>966565664565</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
-        <v>966543886801</v>
+        <v>966565757567</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
-        <v>966544338410</v>
+        <v>966566677320</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
-        <v>966544899735</v>
+        <v>966566858445</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
+        <v>966566961801</v>
       </c>
     </row>
   </sheetData>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC719CBA-00B5-454E-8B8D-DCEE74453D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247E778C-D414-415B-975C-AA4A3026247D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2500" yWindow="2500" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
@@ -389,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B65809-7069-482D-ABD6-D568B5E57C26}">
-  <dimension ref="A1:A151"/>
+  <dimension ref="A1:A186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A151"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -407,752 +407,927 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>966545155717</v>
+        <v>966505499080</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>966545187141</v>
+        <v>966503892031</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>966545552233</v>
+        <v>966504720491</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>966545725550</v>
+        <v>966502880259</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>966545750032</v>
+        <v>966504504076</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>966546203930</v>
+        <v>966503935260</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>966546688005</v>
+        <v>966503695318</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>966546786473</v>
+        <v>966502516457</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>966547709097</v>
+        <v>966502946919</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>966548182806</v>
+        <v>966502110957</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>966549036689</v>
+        <v>966501901784</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>966549265545</v>
+        <v>966503750178</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>966550000387</v>
+        <v>966504357019</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>966550001085</v>
+        <v>966503775082</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>966550001652</v>
+        <v>966501504469</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>966550002122</v>
+        <v>966501289919</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>966550002355</v>
+        <v>966502393423</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>966550002409</v>
+        <v>966504404717</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>966550005866</v>
+        <v>966501314864</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>966550006433</v>
+        <v>966504418377</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>966550006442</v>
+        <v>966503365700</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>966550033889</v>
+        <v>966502262016</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>966550055206</v>
+        <v>966504752373</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>966550318758</v>
+        <v>966501414937</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>966550392231</v>
+        <v>966503190780</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>966550446443</v>
+        <v>966502122480</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>966550589089</v>
+        <v>966502971642</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>966550662953</v>
+        <v>966502134441</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>966550668499</v>
+        <v>966503781655</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>966550740833</v>
+        <v>966504684139</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>966551005085</v>
+        <v>966504701975</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>966551197571</v>
+        <v>966503363908</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>966551306317</v>
+        <v>966502252008</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>966551366322</v>
+        <v>966503117087</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>966551808891</v>
+        <v>966501631870</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>966551900804</v>
+        <v>966502503675</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>966552225434</v>
+        <v>966501476226</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>966552263225</v>
+        <v>966502985515</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>966552281443</v>
+        <v>966503775089</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>966552330803</v>
+        <v>966503778838</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>966552429440</v>
+        <v>966503061490</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>966552628518</v>
+        <v>966501149822</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>966552843534</v>
+        <v>966503626428</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>966552990209</v>
+        <v>966503901422</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>966553055251</v>
+        <v>966502052318</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>966553115579</v>
+        <v>966502056414</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>966553255731</v>
+        <v>966503662324</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>966553665333</v>
+        <v>966502488268</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>966553798613</v>
+        <v>966501859615</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>966553820885</v>
+        <v>966501659351</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>966554060521</v>
+        <v>966502535779</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>966554353668</v>
+        <v>966502756251</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>966554429218</v>
+        <v>966504589818</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>966554433221</v>
+        <v>966502996539</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>966554453787</v>
+        <v>966502797294</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>966554488362</v>
+        <v>966503292916</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>966554605225</v>
+        <v>966503824227</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>966554630666</v>
+        <v>966501314869</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>966554738272</v>
+        <v>966504178473</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>966554822768</v>
+        <v>966504909416</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>966554999077</v>
+        <v>966502845838</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>966555005467</v>
+        <v>966504445837</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>966555181286</v>
+        <v>966503102717</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>966555225437</v>
+        <v>966503367500</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>966555333898</v>
+        <v>966501850225</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>966555504171</v>
+        <v>966502272103</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>966555543826</v>
+        <v>966504514921</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>966555595015</v>
+        <v>966503209408</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>966555659011</v>
+        <v>966502966646</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>966555720801</v>
+        <v>966501714441</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>966555724898</v>
+        <v>966501946224</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>966555786678</v>
+        <v>966501726617</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>966555898173</v>
+        <v>966502383005</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>966555977553</v>
+        <v>966504182991</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>966556203132</v>
+        <v>966502429501</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>966556262004</v>
+        <v>966503065992</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>966556263556</v>
+        <v>966502900903</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>966556326760</v>
+        <v>966504771606</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>966556676671</v>
+        <v>966502090989</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>966556712149</v>
+        <v>966501657675</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>966556918002</v>
+        <v>966503976511</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>966556954150</v>
+        <v>966501464938</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>966557245052</v>
+        <v>966504827066</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>966557509850</v>
+        <v>966504351295</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>966557612075</v>
+        <v>966502357666</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>966557771538</v>
+        <v>966501968955</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>966557780757</v>
+        <v>966501317125</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>966557859499</v>
+        <v>966501984160</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>966558064843</v>
+        <v>966502449548</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>966558092822</v>
+        <v>966504307904</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>966558258622</v>
+        <v>966501454715</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>966558458525</v>
+        <v>966504336104</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>966558686387</v>
+        <v>966503224731</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>966558793337</v>
+        <v>966502143529</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>966558833347</v>
+        <v>966504618562</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>966559310109</v>
+        <v>966502371779</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>966559420224</v>
+        <v>966504138572</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>966559432032</v>
+        <v>966504155672</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>966559797785</v>
+        <v>966502182044</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>966559844903</v>
+        <v>966501316361</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>966560002660</v>
+        <v>966503057109</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>966560002697</v>
+        <v>966502238373</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>966560002752</v>
+        <v>966503117116</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>966560002802</v>
+        <v>966502690112</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>966560002831</v>
+        <v>966502701745</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>966560002886</v>
+        <v>966503430847</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>966560002948</v>
+        <v>966501678094</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
-        <v>966560003317</v>
+        <v>966504578893</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
-        <v>966560003574</v>
+        <v>966502970836</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
-        <v>966560003590</v>
+        <v>966503773171</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
-        <v>966560003907</v>
+        <v>966503775115</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
-        <v>966560003941</v>
+        <v>966503505041</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
-        <v>966560004543</v>
+        <v>966503777956</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <v>966560004586</v>
+        <v>966502792660</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
-        <v>966560004857</v>
+        <v>966504398201</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
-        <v>966560004959</v>
+        <v>966501335863</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
-        <v>966560005312</v>
+        <v>966501561735</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
-        <v>966560005372</v>
+        <v>966501367580</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
-        <v>966560005570</v>
+        <v>966567047670</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
-        <v>966560006311</v>
+        <v>966567072020</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
-        <v>966560006395</v>
+        <v>966567111161</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
-        <v>966560006492</v>
+        <v>966567744568</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
-        <v>966560006559</v>
+        <v>966567750141</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
-        <v>966560007053</v>
+        <v>966568044048</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
-        <v>966560007211</v>
+        <v>966568069771</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
-        <v>966560007502</v>
+        <v>966568153006</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
-        <v>966560011252</v>
+        <v>966568336681</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
-        <v>966560018369</v>
+        <v>966568772180</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
-        <v>966560701315</v>
+        <v>966569555932</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
-        <v>966560788059</v>
+        <v>966569677069</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
-        <v>966560888038</v>
+        <v>966569711071</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
-        <v>966561246650</v>
+        <v>966569854236</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
-        <v>966561560632</v>
+        <v>966580000085</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
-        <v>966561627222</v>
+        <v>966580001036</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
-        <v>966561841134</v>
+        <v>966580001238</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
-        <v>966561981291</v>
+        <v>966580001329</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
-        <v>966562727626</v>
+        <v>966580001366</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
-        <v>966563280380</v>
+        <v>966580001548</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
-        <v>966563305523</v>
+        <v>966580001643</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
-        <v>966563461377</v>
+        <v>966580002256</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
-        <v>966563758938</v>
+        <v>966580002383</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
-        <v>966564118305</v>
+        <v>966580002641</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
-        <v>966564492543</v>
+        <v>966580002706</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
-        <v>966564994890</v>
+        <v>966580003349</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
-        <v>966565066688</v>
+        <v>966580003635</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
-        <v>966565664565</v>
+        <v>966580003814</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
-        <v>966565757567</v>
+        <v>966580004824</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
-        <v>966566677320</v>
+        <v>966580006513</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
-        <v>966566858445</v>
+        <v>966580007915</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
-        <v>966566961801</v>
+        <v>966580008216</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
+        <v>966580008582</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
+        <v>966582013235</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
+        <v>966590000212</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A155" s="1">
+        <v>966590000256</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A156" s="1">
+        <v>966590000850</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A157" s="1">
+        <v>966590000870</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A158" s="1">
+        <v>966590001622</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A159" s="1">
+        <v>966590001667</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
+        <v>966590002023</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A161" s="1">
+        <v>966590002252</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A162" s="1">
+        <v>966590002347</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A163" s="1">
+        <v>966590002967</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A164" s="1">
+        <v>966590003009</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A165" s="1">
+        <v>966590003263</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A166" s="1">
+        <v>966590003951</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A167" s="1">
+        <v>966590004080</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A168" s="1">
+        <v>966590004083</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A169" s="1">
+        <v>966590004147</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A170" s="1">
+        <v>966590004258</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A171" s="1">
+        <v>966590004544</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A172" s="1">
+        <v>966590004740</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A173" s="1">
+        <v>966590005156</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A174" s="1">
+        <v>966590005224</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A175" s="1">
+        <v>966590005228</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A176" s="1">
+        <v>966590005550</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A177" s="1">
+        <v>966590009088</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A178" s="1">
+        <v>966590948279</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A179" s="1">
+        <v>966591004458</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A180" s="1">
+        <v>966594141831</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A181" s="1">
+        <v>966594320009</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A182" s="1">
+        <v>966597244447</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A183" s="1">
+        <v>966598129489</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A184" s="1">
+        <v>966598885240</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A185" s="1">
+        <v>966599178808</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A186" s="1">
+        <v>966599187865</v>
       </c>
     </row>
   </sheetData>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247E778C-D414-415B-975C-AA4A3026247D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EA8CAD-3756-4B4A-8E3B-1C87FBB05CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="2500" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
+    <workbookView xWindow="3520" yWindow="3520" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B65809-7069-482D-ABD6-D568B5E57C26}">
-  <dimension ref="A1:A186"/>
+  <dimension ref="A1:A221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -407,928 +408,837 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>966505499080</v>
+        <v>966502879416</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>966503892031</v>
+        <v>966503117119</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>966504720491</v>
+        <v>966501218300</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>966502880259</v>
+        <v>966503957608</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>966504504076</v>
+        <v>966502938133</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>966503935260</v>
+        <v>966503706661</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>966503695318</v>
+        <v>966501677160</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>966502516457</v>
+        <v>966504587976</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>966502946919</v>
+        <v>966502342953</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>966502110957</v>
+        <v>966501923136</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>966501901784</v>
+        <v>966502977251</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>966503750178</v>
+        <v>966503777118</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>966504357019</v>
+        <v>966503001029</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>966503775082</v>
+        <v>966503788623</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>966501504469</v>
+        <v>966501515411</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>966501289919</v>
+        <v>966503277910</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>966502393423</v>
+        <v>966504644493</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>966504404717</v>
+        <v>966503552662</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>966501314864</v>
+        <v>966504665238</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>966504418377</v>
+        <v>966502640297</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>966503365700</v>
+        <v>966502858334</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>966502262016</v>
+        <v>966501800987</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>966504752373</v>
+        <v>966502905074</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>966501414937</v>
+        <v>966503195518</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>966503190780</v>
+        <v>966502745950</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>966502122480</v>
+        <v>966503238716</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>966502971642</v>
+        <v>966504373638</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>966502134441</v>
+        <v>966501977993</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>966503781655</v>
+        <v>966504412869</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>966504684139</v>
+        <v>966504668444</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>966504701975</v>
+        <v>966502207537</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>966503363908</v>
+        <v>966501350153</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>966502252008</v>
+        <v>966504457758</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>966503117087</v>
+        <v>966504706757</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>966501631870</v>
+        <v>966501820937</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>966502503675</v>
+        <v>966501603635</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>966501476226</v>
+        <v>966502894627</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>966502985515</v>
+        <v>966504744434</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>966503775089</v>
+        <v>966502502932</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>966503778838</v>
+        <v>966502506839</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>966503061490</v>
+        <v>966503691040</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>966501149822</v>
+        <v>966501425131</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>966503626428</v>
+        <v>966501899263</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>966503901422</v>
+        <v>966502322833</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>966502052318</v>
+        <v>966501915516</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>966502056414</v>
+        <v>966503002632</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>966503662324</v>
+        <v>966502201672</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>966502488268</v>
+        <v>966503051619</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>966501859615</v>
+        <v>966502660548</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>966501659351</v>
+        <v>966502033843</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>966502535779</v>
+        <v>966502463679</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>966502756251</v>
+        <v>966504737015</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>966504589818</v>
+        <v>966501192030</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>966502996539</v>
+        <v>966502504438</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>966502797294</v>
+        <v>966503693307</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>966503292916</v>
+        <v>966502941257</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>966503824227</v>
+        <v>966503238737</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>966501314869</v>
+        <v>966503263686</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>966504178473</v>
+        <v>966503793553</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>966504909416</v>
+        <v>966502588483</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>966502845838</v>
+        <v>966503533820</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>966504445837</v>
+        <v>966501314118</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>966503102717</v>
+        <v>966502209752</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>966503367500</v>
+        <v>966503590228</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>966501850225</v>
+        <v>966502433548</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>966502272103</v>
+        <v>966502009573</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>966504514921</v>
+        <v>966503080205</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>966503209408</v>
+        <v>966504716602</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>966502966646</v>
+        <v>966501165541</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>966501714441</v>
+        <v>966503642779</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>966501946224</v>
+        <v>966502263530</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>966501726617</v>
+        <v>966503394748</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>966502383005</v>
+        <v>966503947912</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>966504182991</v>
+        <v>966502310196</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>966502429501</v>
+        <v>966501667797</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>966503065992</v>
+        <v>966503204286</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>966502900903</v>
+        <v>966504811016</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>966504771606</v>
+        <v>966501454749</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>966502090989</v>
+        <v>966503739734</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>966501657675</v>
+        <v>966502966680</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>966503976511</v>
+        <v>966502144331</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>966501464938</v>
+        <v>966501737550</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>966504827066</v>
+        <v>966502597030</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>966504351295</v>
+        <v>966502178818</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>966502357666</v>
+        <v>966502819829</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>966501968955</v>
+        <v>966503550651</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>966501317125</v>
+        <v>966501974773</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
-        <v>966501984160</v>
-      </c>
+      <c r="A89" s="2"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" s="1">
-        <v>966502449548</v>
-      </c>
+      <c r="A90" s="2"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
-        <v>966504307904</v>
-      </c>
+      <c r="A91" s="2"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
-        <v>966501454715</v>
-      </c>
+      <c r="A92" s="2"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
-        <v>966504336104</v>
-      </c>
+      <c r="A93" s="2"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
-        <v>966503224731</v>
-      </c>
+      <c r="A94" s="2"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
-        <v>966502143529</v>
-      </c>
+      <c r="A95" s="2"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96" s="1">
-        <v>966504618562</v>
-      </c>
+      <c r="A96" s="2"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" s="1">
-        <v>966502371779</v>
-      </c>
+      <c r="A97" s="2"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" s="1">
-        <v>966504138572</v>
-      </c>
+      <c r="A98" s="2"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" s="1">
-        <v>966504155672</v>
-      </c>
+      <c r="A99" s="2"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" s="1">
-        <v>966502182044</v>
-      </c>
+      <c r="A100" s="2"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" s="1">
-        <v>966501316361</v>
-      </c>
+      <c r="A101" s="2"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" s="1">
-        <v>966503057109</v>
-      </c>
+      <c r="A102" s="2"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" s="1">
-        <v>966502238373</v>
-      </c>
+      <c r="A103" s="2"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104" s="1">
-        <v>966503117116</v>
-      </c>
+      <c r="A104" s="2"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" s="1">
-        <v>966502690112</v>
-      </c>
+      <c r="A105" s="2"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" s="1">
-        <v>966502701745</v>
-      </c>
+      <c r="A106" s="2"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" s="1">
-        <v>966503430847</v>
-      </c>
+      <c r="A107" s="2"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" s="1">
-        <v>966501678094</v>
-      </c>
+      <c r="A108" s="2"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" s="1">
-        <v>966504578893</v>
-      </c>
+      <c r="A109" s="2"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" s="1">
-        <v>966502970836</v>
-      </c>
+      <c r="A110" s="2"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111" s="1">
-        <v>966503773171</v>
-      </c>
+      <c r="A111" s="2"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A112" s="1">
-        <v>966503775115</v>
-      </c>
+      <c r="A112" s="2"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" s="1">
-        <v>966503505041</v>
-      </c>
+      <c r="A113" s="2"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" s="1">
-        <v>966503777956</v>
-      </c>
+      <c r="A114" s="2"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" s="1">
-        <v>966502792660</v>
-      </c>
+      <c r="A115" s="2"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" s="1">
-        <v>966504398201</v>
-      </c>
+      <c r="A116" s="2"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" s="1">
-        <v>966501335863</v>
-      </c>
+      <c r="A117" s="2"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A118" s="1">
-        <v>966501561735</v>
-      </c>
+      <c r="A118" s="2"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A119" s="1">
-        <v>966501367580</v>
-      </c>
+      <c r="A119" s="2"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A120" s="1">
-        <v>966567047670</v>
-      </c>
+      <c r="A120" s="2"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121" s="1">
-        <v>966567072020</v>
-      </c>
+      <c r="A121" s="2"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A122" s="1">
-        <v>966567111161</v>
-      </c>
+      <c r="A122" s="2"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A123" s="1">
-        <v>966567744568</v>
-      </c>
+      <c r="A123" s="2"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A124" s="1">
-        <v>966567750141</v>
-      </c>
+      <c r="A124" s="2"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A125" s="1">
-        <v>966568044048</v>
-      </c>
+      <c r="A125" s="2"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A126" s="1">
-        <v>966568069771</v>
-      </c>
+      <c r="A126" s="2"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A127" s="1">
-        <v>966568153006</v>
-      </c>
+      <c r="A127" s="2"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A128" s="1">
-        <v>966568336681</v>
-      </c>
+      <c r="A128" s="2"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A129" s="1">
-        <v>966568772180</v>
-      </c>
+      <c r="A129" s="2"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130" s="1">
-        <v>966569555932</v>
-      </c>
+      <c r="A130" s="2"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131" s="1">
-        <v>966569677069</v>
-      </c>
+      <c r="A131" s="2"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132" s="1">
-        <v>966569711071</v>
-      </c>
+      <c r="A132" s="2"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133" s="1">
-        <v>966569854236</v>
-      </c>
+      <c r="A133" s="2"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134" s="1">
-        <v>966580000085</v>
-      </c>
+      <c r="A134" s="2"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135" s="1">
-        <v>966580001036</v>
-      </c>
+      <c r="A135" s="2"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A136" s="1">
-        <v>966580001238</v>
-      </c>
+      <c r="A136" s="2"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A137" s="1">
-        <v>966580001329</v>
-      </c>
+      <c r="A137" s="2"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A138" s="1">
-        <v>966580001366</v>
-      </c>
+      <c r="A138" s="2"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139" s="1">
-        <v>966580001548</v>
-      </c>
+      <c r="A139" s="2"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140" s="1">
-        <v>966580001643</v>
-      </c>
+      <c r="A140" s="2"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A141" s="1">
-        <v>966580002256</v>
-      </c>
+      <c r="A141" s="2"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A142" s="1">
-        <v>966580002383</v>
-      </c>
+      <c r="A142" s="2"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A143" s="1">
-        <v>966580002641</v>
-      </c>
+      <c r="A143" s="2"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A144" s="1">
-        <v>966580002706</v>
-      </c>
+      <c r="A144" s="2"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A145" s="1">
-        <v>966580003349</v>
-      </c>
+      <c r="A145" s="2"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146" s="1">
-        <v>966580003635</v>
-      </c>
+      <c r="A146" s="2"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A147" s="1">
-        <v>966580003814</v>
-      </c>
+      <c r="A147" s="2"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A148" s="1">
-        <v>966580004824</v>
-      </c>
+      <c r="A148" s="2"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A149" s="1">
-        <v>966580006513</v>
-      </c>
+      <c r="A149" s="2"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A150" s="1">
-        <v>966580007915</v>
-      </c>
+      <c r="A150" s="2"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A151" s="1">
-        <v>966580008216</v>
-      </c>
+      <c r="A151" s="2"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A152" s="1">
-        <v>966580008582</v>
-      </c>
+      <c r="A152" s="2"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A153" s="1">
-        <v>966582013235</v>
-      </c>
+      <c r="A153" s="2"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A154" s="1">
-        <v>966590000212</v>
-      </c>
+      <c r="A154" s="2"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A155" s="1">
-        <v>966590000256</v>
-      </c>
+      <c r="A155" s="2"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A156" s="1">
-        <v>966590000850</v>
-      </c>
+      <c r="A156" s="2"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A157" s="1">
-        <v>966590000870</v>
-      </c>
+      <c r="A157" s="2"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A158" s="1">
-        <v>966590001622</v>
-      </c>
+      <c r="A158" s="2"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A159" s="1">
-        <v>966590001667</v>
-      </c>
+      <c r="A159" s="2"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A160" s="1">
-        <v>966590002023</v>
-      </c>
+      <c r="A160" s="2"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A161" s="1">
-        <v>966590002252</v>
-      </c>
+      <c r="A161" s="2"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A162" s="1">
-        <v>966590002347</v>
-      </c>
+      <c r="A162" s="2"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A163" s="1">
-        <v>966590002967</v>
-      </c>
+      <c r="A163" s="2"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A164" s="1">
-        <v>966590003009</v>
-      </c>
+      <c r="A164" s="2"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A165" s="1">
-        <v>966590003263</v>
-      </c>
+      <c r="A165" s="2"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A166" s="1">
-        <v>966590003951</v>
-      </c>
+      <c r="A166" s="2"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A167" s="1">
-        <v>966590004080</v>
-      </c>
+      <c r="A167" s="2"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A168" s="1">
-        <v>966590004083</v>
-      </c>
+      <c r="A168" s="2"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A169" s="1">
-        <v>966590004147</v>
-      </c>
+      <c r="A169" s="2"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A170" s="1">
-        <v>966590004258</v>
-      </c>
+      <c r="A170" s="2"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A171" s="1">
-        <v>966590004544</v>
-      </c>
+      <c r="A171" s="2"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A172" s="1">
-        <v>966590004740</v>
-      </c>
+      <c r="A172" s="2"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A173" s="1">
-        <v>966590005156</v>
-      </c>
+      <c r="A173" s="2"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A174" s="1">
-        <v>966590005224</v>
-      </c>
+      <c r="A174" s="2"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A175" s="1">
-        <v>966590005228</v>
-      </c>
+      <c r="A175" s="2"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A176" s="1">
-        <v>966590005550</v>
-      </c>
+      <c r="A176" s="2"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A177" s="1">
-        <v>966590009088</v>
-      </c>
+      <c r="A177" s="2"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A178" s="1">
-        <v>966590948279</v>
-      </c>
+      <c r="A178" s="2"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A179" s="1">
-        <v>966591004458</v>
-      </c>
+      <c r="A179" s="2"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A180" s="1">
-        <v>966594141831</v>
-      </c>
+      <c r="A180" s="2"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A181" s="1">
-        <v>966594320009</v>
-      </c>
+      <c r="A181" s="2"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A182" s="1">
-        <v>966597244447</v>
-      </c>
+      <c r="A182" s="2"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A183" s="1">
-        <v>966598129489</v>
-      </c>
+      <c r="A183" s="2"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A184" s="1">
-        <v>966598885240</v>
-      </c>
+      <c r="A184" s="2"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A185" s="1">
-        <v>966599178808</v>
-      </c>
+      <c r="A185" s="2"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A186" s="1">
-        <v>966599187865</v>
-      </c>
+      <c r="A186" s="2"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A187" s="2"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A188" s="2"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A189" s="2"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A190" s="2"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A191" s="2"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A192" s="2"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A193" s="2"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A194" s="2"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A195" s="2"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A196" s="2"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A197" s="2"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A198" s="2"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A199" s="2"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A200" s="2"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A201" s="2"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A202" s="2"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A203" s="2"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A204" s="2"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A205" s="2"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A206" s="2"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A207" s="2"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A208" s="2"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A209" s="2"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A210" s="2"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A211" s="2"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A212" s="2"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A213" s="2"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A214" s="2"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A215" s="2"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A216" s="2"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A217" s="2"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A218" s="2"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A219" s="2"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A220" s="2"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A221" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EA8CAD-3756-4B4A-8E3B-1C87FBB05CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F39F35-20BC-481E-A4D0-3304F49DA1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="3520" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
+    <workbookView xWindow="1100" yWindow="1100" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,10 +72,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B65809-7069-482D-ABD6-D568B5E57C26}">
-  <dimension ref="A1:A221"/>
+  <dimension ref="A1:A134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -408,837 +407,668 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>966502879416</v>
+        <v>966503560758</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>966503117119</v>
+        <v>966501344199</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>966501218300</v>
+        <v>966503862451</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>966503957608</v>
+        <v>966501795138</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>966502938133</v>
+        <v>966504761711</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>966503706661</v>
+        <v>966503467021</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>966501677160</v>
+        <v>966501709164</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>966504587976</v>
+        <v>966503776177</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>966502342953</v>
+        <v>966503796799</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>966501923136</v>
+        <v>966502380246</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>966502977251</v>
+        <v>966504391420</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>966503777118</v>
+        <v>966502605425</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>966503001029</v>
+        <v>966504894627</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>966503788623</v>
+        <v>966503327462</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>966501515411</v>
+        <v>966503650180</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>966503277910</v>
+        <v>966502897088</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>966504644493</v>
+        <v>966501856896</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>966503552662</v>
+        <v>966501429397</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>966504665238</v>
+        <v>966504315088</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>966502640297</v>
+        <v>966501448338</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>966502858334</v>
+        <v>966501449256</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>966501800987</v>
+        <v>966504806550</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>966502905074</v>
+        <v>966504588010</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>966503195518</v>
+        <v>966503781714</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>966502745950</v>
+        <v>966502394498</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>966503238716</v>
+        <v>966503314003</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>966504373638</v>
+        <v>966502005290</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>966501977993</v>
+        <v>966504697497</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>966504412869</v>
+        <v>966504716615</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>966504668444</v>
+        <v>966502042166</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>966502207537</v>
+        <v>966501388916</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>966501350153</v>
+        <v>966503198544</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>966504457758</v>
+        <v>966501908129</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>966504706757</v>
+        <v>966504815438</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>966501820937</v>
+        <v>966504583637</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>966501603635</v>
+        <v>966504342169</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>966502894627</v>
+        <v>966503752368</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>966504744434</v>
+        <v>966502760391</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>966502502932</v>
+        <v>966503509111</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>966502506839</v>
+        <v>966503800142</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>966503691040</v>
+        <v>966503037339</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>966501425131</v>
+        <v>966503334689</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>966501899263</v>
+        <v>966501573398</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>966502322833</v>
+        <v>966502462818</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>966501915516</v>
+        <v>966502676643</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>966503002632</v>
+        <v>966504730876</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>966502201672</v>
+        <v>966502262731</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>966503051619</v>
+        <v>966503149963</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>966502660548</v>
+        <v>966503399898</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>966502033843</v>
+        <v>966501210408</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>966502463679</v>
+        <v>966504303480</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>966504737015</v>
+        <v>966502938863</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>966501192030</v>
+        <v>966502097792</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>966502504438</v>
+        <v>966502734777</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>966503693307</v>
+        <v>966502963460</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>966502941257</v>
+        <v>966503218964</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>966503238737</v>
+        <v>966501689277</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>966503263686</v>
+        <v>966503778891</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>966503793553</v>
+        <v>966502151518</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>966502588483</v>
+        <v>966501951548</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>966503533820</v>
+        <v>966501517041</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>966501314118</v>
+        <v>966503556737</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>966502209752</v>
+        <v>966501541126</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>966503590228</v>
+        <v>966504427594</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>966502433548</v>
+        <v>966501776319</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>966502009573</v>
+        <v>966502027517</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>966503080205</v>
+        <v>966501212692</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>966504716602</v>
+        <v>966501439573</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>966501165541</v>
+        <v>966504315107</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>966503642779</v>
+        <v>966504799162</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>966502263530</v>
+        <v>966504319487</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>966503394748</v>
+        <v>966502551627</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>966503947912</v>
+        <v>966504589889</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>966502310196</v>
+        <v>966502340159</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>966501667797</v>
+        <v>966503262674</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>966503204286</v>
+        <v>966502372688</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>966504811016</v>
+        <v>966501288448</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>966501454749</v>
+        <v>966503803233</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>966503739734</v>
+        <v>966504646086</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>966502966680</v>
+        <v>966501978022</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>966502144331</v>
+        <v>966503060512</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>966501737550</v>
+        <v>966503080228</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>966502597030</v>
+        <v>966502649335</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>966502178818</v>
+        <v>966501595813</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>966502819829</v>
+        <v>966503650190</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>966503550651</v>
+        <v>966501886520</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>966501974773</v>
+        <v>966501234106</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" s="2"/>
+      <c r="A89" s="1">
+        <v>966502112436</v>
+      </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" s="2"/>
+      <c r="A90" s="1">
+        <v>966501459461</v>
+      </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" s="2"/>
+      <c r="A91" s="1">
+        <v>966502543842</v>
+      </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92" s="2"/>
+      <c r="A92" s="1">
+        <v>966503754538</v>
+      </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" s="2"/>
+      <c r="A93" s="1">
+        <v>966503239903</v>
+      </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94" s="2"/>
+      <c r="A94" s="1">
+        <v>966504841463</v>
+      </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" s="2"/>
+      <c r="A95" s="1">
+        <v>966501281708</v>
+      </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96" s="2"/>
+      <c r="A96" s="1">
+        <v>966503521226</v>
+      </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" s="2"/>
+      <c r="A97" s="1">
+        <v>966501309697</v>
+      </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" s="2"/>
+      <c r="A98" s="1">
+        <v>966501312663</v>
+      </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" s="2"/>
+      <c r="A99" s="1">
+        <v>966504672907</v>
+      </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" s="2"/>
+      <c r="A100" s="1">
+        <v>966503580898</v>
+      </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" s="2"/>
+      <c r="A101" s="1">
+        <v>966503660347</v>
+      </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" s="2"/>
+      <c r="A102" s="1">
+        <v>966504750094</v>
+      </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" s="2"/>
+      <c r="A103" s="1">
+        <v>966502290607</v>
+      </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104" s="2"/>
+      <c r="A104" s="1">
+        <v>966504297149</v>
+      </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" s="2"/>
+      <c r="A105" s="1">
+        <v>966501217506</v>
+      </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" s="2"/>
+      <c r="A106" s="1">
+        <v>966502298714</v>
+      </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" s="2"/>
+      <c r="A107" s="1">
+        <v>966504784990</v>
+      </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" s="2"/>
+      <c r="A108" s="1">
+        <v>966504589891</v>
+      </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" s="2"/>
+      <c r="A109" s="1">
+        <v>966502340164</v>
+      </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" s="2"/>
+      <c r="A110" s="1">
+        <v>966503814370</v>
+      </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111" s="2"/>
+      <c r="A111" s="1">
+        <v>966502621480</v>
+      </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A112" s="2"/>
+      <c r="A112" s="1">
+        <v>966501126193</v>
+      </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" s="2"/>
+      <c r="A113" s="1">
+        <v>966501795163</v>
+      </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" s="2"/>
+      <c r="A114" s="1">
+        <v>966503889317</v>
+      </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" s="2"/>
+      <c r="A115" s="1">
+        <v>966503109928</v>
+      </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" s="2"/>
+      <c r="A116" s="1">
+        <v>966502254553</v>
+      </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" s="2"/>
+      <c r="A117" s="1">
+        <v>966503936304</v>
+      </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A118" s="2"/>
+      <c r="A118" s="1">
+        <v>966501655972</v>
+      </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A119" s="2"/>
+      <c r="A119" s="1">
+        <v>966502303388</v>
+      </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A120" s="2"/>
+      <c r="A120" s="1">
+        <v>966502939677</v>
+      </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121" s="2"/>
+      <c r="A121" s="1">
+        <v>966503993135</v>
+      </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A122" s="2"/>
+      <c r="A122" s="1">
+        <v>966501279194</v>
+      </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A123" s="2"/>
+      <c r="A123" s="1">
+        <v>966504615928</v>
+      </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A124" s="2"/>
+      <c r="A124" s="1">
+        <v>966501544377</v>
+      </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A125" s="2"/>
+      <c r="A125" s="1">
+        <v>966503594871</v>
+      </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A126" s="2"/>
+      <c r="A126" s="1">
+        <v>966503335590</v>
+      </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A127" s="2"/>
+      <c r="A127" s="1">
+        <v>966502649338</v>
+      </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A128" s="2"/>
+      <c r="A128" s="1">
+        <v>966502890523</v>
+      </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A129" s="2"/>
+      <c r="A129" s="1">
+        <v>966501220717</v>
+      </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130" s="2"/>
+      <c r="A130" s="1">
+        <v>966504549513</v>
+      </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131" s="2"/>
+      <c r="A131" s="1">
+        <v>966504836096</v>
+      </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132" s="2"/>
+      <c r="A132" s="1">
+        <v>966502787118</v>
+      </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133" s="2"/>
+      <c r="A133" s="1">
+        <v>966503794740</v>
+      </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134" s="2"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135" s="2"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A136" s="2"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A137" s="2"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A138" s="2"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139" s="2"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140" s="2"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A141" s="2"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A142" s="2"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A143" s="2"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A144" s="2"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A145" s="2"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146" s="2"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A147" s="2"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A148" s="2"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A149" s="2"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A150" s="2"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A151" s="2"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A152" s="2"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A153" s="2"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A154" s="2"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A155" s="2"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A156" s="2"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A157" s="2"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A158" s="2"/>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A159" s="2"/>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A160" s="2"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A161" s="2"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A162" s="2"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A163" s="2"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A164" s="2"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A165" s="2"/>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A166" s="2"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A167" s="2"/>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A168" s="2"/>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A169" s="2"/>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A170" s="2"/>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A171" s="2"/>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A172" s="2"/>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A173" s="2"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A174" s="2"/>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A175" s="2"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A176" s="2"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A177" s="2"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A178" s="2"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A179" s="2"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A180" s="2"/>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A181" s="2"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A182" s="2"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A183" s="2"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A184" s="2"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A185" s="2"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A186" s="2"/>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A187" s="2"/>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A188" s="2"/>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A189" s="2"/>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A190" s="2"/>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A191" s="2"/>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A192" s="2"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A193" s="2"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A194" s="2"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A195" s="2"/>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A196" s="2"/>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A197" s="2"/>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A198" s="2"/>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A199" s="2"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A200" s="2"/>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A201" s="2"/>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A202" s="2"/>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A203" s="2"/>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A204" s="2"/>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A205" s="2"/>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A206" s="2"/>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A207" s="2"/>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A208" s="2"/>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A209" s="2"/>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A210" s="2"/>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A211" s="2"/>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A212" s="2"/>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A213" s="2"/>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A214" s="2"/>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A215" s="2"/>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A216" s="2"/>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A217" s="2"/>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A218" s="2"/>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A219" s="2"/>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A220" s="2"/>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A221" s="2"/>
+      <c r="A134" s="1">
+        <v>966504142377</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F39F35-20BC-481E-A4D0-3304F49DA1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8863D919-F1C7-4580-B970-9EC203AB5126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1100" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -389,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B65809-7069-482D-ABD6-D568B5E57C26}">
-  <dimension ref="A1:A134"/>
+  <dimension ref="A1:A152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A134"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -407,667 +407,757 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>966503560758</v>
+        <v>966507422821</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>966501344199</v>
+        <v>966501552256</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>966503862451</v>
+        <v>966502849774</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>966501795138</v>
+        <v>966503335526</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>966504761711</v>
+        <v>966502882566</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>966503467021</v>
+        <v>966501394092</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>966501709164</v>
+        <v>966503921020</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>966503776177</v>
+        <v>966504755146</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>966503796799</v>
+        <v>966501407208</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>966502380246</v>
+        <v>966502278756</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>966504391420</v>
+        <v>966501653999</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>966502605425</v>
+        <v>966501432036</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>966504894627</v>
+        <v>966501674360</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>966503327462</v>
+        <v>966504327231</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>966503650180</v>
+        <v>966502334677</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>966502897088</v>
+        <v>966501257316</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>966501856896</v>
+        <v>966504115656</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>966501429397</v>
+        <v>966503496140</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>966504315088</v>
+        <v>966502993001</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>966501448338</v>
+        <v>966502809297</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>966501449256</v>
+        <v>966501989991</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>966504806550</v>
+        <v>966501559358</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>966504588010</v>
+        <v>966502650914</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>966503781714</v>
+        <v>966502655666</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>966502394498</v>
+        <v>966504460406</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>966503314003</v>
+        <v>966504270556</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>966502005290</v>
+        <v>966501626721</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>966504697497</v>
+        <v>966501678986</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>966504716615</v>
+        <v>966503493945</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>966502042166</v>
+        <v>966502145883</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>966501388916</v>
+        <v>966501937211</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>966503198544</v>
+        <v>966502588448</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>966501908129</v>
+        <v>966503025010</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>966504815438</v>
+        <v>966503823392</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>966504583637</v>
+        <v>966504412837</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>966504342169</v>
+        <v>966504902894</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>966503752368</v>
+        <v>966504664439</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>966502760391</v>
+        <v>966502835921</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>966503509111</v>
+        <v>966504435980</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>966503800142</v>
+        <v>966501571562</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>966503037339</v>
+        <v>966504231129</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>966503334689</v>
+        <v>966504722503</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>966501573398</v>
+        <v>966501380277</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>966502462818</v>
+        <v>966502714096</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>966502676643</v>
+        <v>966502937310</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>966504730876</v>
+        <v>966504797304</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>966502262731</v>
+        <v>966503740822</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>966503149963</v>
+        <v>966502761077</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>966503399898</v>
+        <v>966504616671</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>966501210408</v>
+        <v>966504385813</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>966504303480</v>
+        <v>966501295850</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>966502938863</v>
+        <v>966501546737</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>966502097792</v>
+        <v>966503059411</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>966502734777</v>
+        <v>966504455928</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>966502963460</v>
+        <v>966501365097</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>966503218964</v>
+        <v>966504552661</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>966501689277</v>
+        <v>966503443341</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>966503778891</v>
+        <v>966504842340</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>966502151518</v>
+        <v>966501938111</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>966501951548</v>
+        <v>966501286805</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>966501517041</v>
+        <v>966503272852</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>966503556737</v>
+        <v>966504665998</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>966501541126</v>
+        <v>966503050602</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>966504427594</v>
+        <v>966502013370</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>966501776319</v>
+        <v>966503094432</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>966502027517</v>
+        <v>966504236644</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>966501212692</v>
+        <v>966501826914</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>966501439573</v>
+        <v>966501609620</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>966504315107</v>
+        <v>966503652203</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>966504799162</v>
+        <v>966503385654</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>966504319487</v>
+        <v>966504289010</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>966502551627</v>
+        <v>966502922983</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>966504589889</v>
+        <v>966502082936</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>966502340159</v>
+        <v>966501874812</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>966503262674</v>
+        <v>966501877979</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>966502372688</v>
+        <v>966504545578</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>966501288448</v>
+        <v>966504547721</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>966503803233</v>
+        <v>966503708925</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>966504646086</v>
+        <v>966501463064</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>966501978022</v>
+        <v>966503487506</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>966503060512</v>
+        <v>966501479064</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>966503080228</v>
+        <v>966503500179</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>966502649335</v>
+        <v>966503263664</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>966501595813</v>
+        <v>966503266584</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>966503650190</v>
+        <v>966501292315</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>966501886520</v>
+        <v>966503805061</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>966501234106</v>
+        <v>966504178474</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>966502112436</v>
+        <v>966501112795</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>966501459461</v>
+        <v>966501338465</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>966502543842</v>
+        <v>966503070378</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>966503754538</v>
+        <v>966501128810</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>966503239903</v>
+        <v>966502659009</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>966504841463</v>
+        <v>966502040513</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>966501281708</v>
+        <v>966502468482</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>966503521226</v>
+        <v>966502049115</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>966501309697</v>
+        <v>966501846884</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>966501312663</v>
+        <v>966504272621</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>966504672907</v>
+        <v>966501856008</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>966503580898</v>
+        <v>966501219093</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>966503660347</v>
+        <v>966502522021</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>966504750094</v>
+        <v>966504580750</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>966502290607</v>
+        <v>966503495005</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>966504297149</v>
+        <v>966503247796</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>966501217506</v>
+        <v>966504171580</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>966502298714</v>
+        <v>966501322849</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>966504784990</v>
+        <v>966502884166</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>966504589891</v>
+        <v>966502040515</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
-        <v>966502340164</v>
+        <v>966504244393</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
-        <v>966503814370</v>
+        <v>966504499887</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
-        <v>966502621480</v>
+        <v>966504266701</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
-        <v>966501126193</v>
+        <v>966501852571</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
-        <v>966501795163</v>
+        <v>966504270566</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
-        <v>966503889317</v>
+        <v>966501862142</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <v>966503109928</v>
+        <v>966501866466</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
-        <v>966502254553</v>
+        <v>966504290018</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
-        <v>966503936304</v>
+        <v>966502293003</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
-        <v>966501655972</v>
+        <v>966504550850</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
-        <v>966502303388</v>
+        <v>966504792821</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
-        <v>966502939677</v>
+        <v>966503967551</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
-        <v>966503993135</v>
+        <v>966503456042</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
-        <v>966501279194</v>
+        <v>966504329079</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
-        <v>966504615928</v>
+        <v>966502139577</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
-        <v>966501544377</v>
+        <v>966502787071</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
-        <v>966503594871</v>
+        <v>966501722168</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
-        <v>966503335590</v>
+        <v>966501290775</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
-        <v>966502649338</v>
+        <v>966501320355</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
-        <v>966502890523</v>
+        <v>966504200956</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
-        <v>966501220717</v>
+        <v>966503858603</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
-        <v>966504549513</v>
+        <v>966502857569</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
-        <v>966504836096</v>
+        <v>966502653278</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
-        <v>966502787118</v>
+        <v>966501361818</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
-        <v>966503794740</v>
+        <v>966501846887</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
-        <v>966504142377</v>
+        <v>966504266703</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
+        <v>966502271317</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
+        <v>966503931627</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A137" s="1">
+        <v>966501631883</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
+        <v>966501411131</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A139" s="1">
+        <v>966502297708</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A140" s="1">
+        <v>966503190791</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A141" s="1">
+        <v>966501895102</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A142" s="1">
+        <v>966502950178</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A143" s="1">
+        <v>966504807465</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
+        <v>966502122508</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
+        <v>966504344753</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
+        <v>966503765381</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A147" s="1">
+        <v>966501937238</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
+        <v>966504854324</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A149" s="1">
+        <v>966503026034</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
+        <v>966501991678</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
+        <v>96890300023</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
+        <v>96897774615</v>
       </c>
     </row>
   </sheetData>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8863D919-F1C7-4580-B970-9EC203AB5126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9940E812-9C0A-4927-B820-2C233583272E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="1440" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
@@ -391,8 +391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B65809-7069-482D-ABD6-D568B5E57C26}">
   <dimension ref="A1:A152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A153" sqref="A153"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -407,758 +407,590 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>966507422821</v>
+        <v>966504438610</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>966501552256</v>
+        <v>966502649297</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>966502849774</v>
+        <v>966502911447</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>966503335526</v>
+        <v>966502937328</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>966502882566</v>
+        <v>966503454004</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>966501394092</v>
+        <v>966504333418</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>966503921020</v>
+        <v>966501694283</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>966504755146</v>
+        <v>966504111226</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>966501407208</v>
+        <v>966502789785</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>966502278756</v>
+        <v>966502160166</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>966501653999</v>
+        <v>966503283752</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>966501432036</v>
+        <v>966501766670</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>966501674360</v>
+        <v>966504185000</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>966504327231</v>
+        <v>966501338479</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>966502334677</v>
+        <v>966504230258</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>966501257316</v>
+        <v>966501175354</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>966504115656</v>
+        <v>966504743496</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>966503496140</v>
+        <v>966501183389</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>966502993001</v>
+        <v>966503679270</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>966502809297</v>
+        <v>966504539615</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>966501989991</v>
+        <v>966502721024</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>966501559358</v>
+        <v>966501886500</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>966502650914</v>
+        <v>966502305550</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>966502655666</v>
+        <v>966501456562</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>966504460406</v>
+        <v>966503220812</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>966504270556</v>
+        <v>966504346535</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>966501626721</v>
+        <v>966501701809</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>966501678986</v>
+        <v>966501268559</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>966503493945</v>
+        <v>966504603857</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>966502145883</v>
+        <v>966503003438</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>966501937211</v>
+        <v>966503284850</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>966502588448</v>
+        <v>966504666849</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>966503025010</v>
+        <v>966504195381</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>966503823392</v>
+        <v>966504198228</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>966504412837</v>
+        <v>966501355105</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>966504902894</v>
+        <v>966501357609</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>966504664439</v>
+        <v>966502252033</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>966502835921</v>
+        <v>966503916462</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>966504435980</v>
+        <v>966503153059</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>966501571562</v>
+        <v>966504772476</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>966504231129</v>
+        <v>966501204878</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>966504722503</v>
+        <v>966503428609</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>966501380277</v>
+        <v>966504838843</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>966502714096</v>
+        <v>966502827437</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>966502937310</v>
+        <v>966503048903</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>966504797304</v>
+        <v>966503338069</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>966503740822</v>
+        <v>966504212279</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>966502761077</v>
+        <v>966502859899</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>966504616671</v>
+        <v>966501817602</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>966504385813</v>
+        <v>966502252034</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>966501295850</v>
+        <v>966501832696</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>966501546737</v>
+        <v>966502255234</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>966503059411</v>
+        <v>966504754268</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>966504455928</v>
+        <v>966503228613</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>966501365097</v>
+        <v>966503233444</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>966504552661</v>
+        <v>966501932163</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>966503443341</v>
+        <v>966503267622</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>966504842340</v>
+        <v>966503814340</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>966501938111</v>
+        <v>966501769234</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>966501286805</v>
+        <v>966502835949</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>966503272852</v>
+        <v>966504210383</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>966504665998</v>
+        <v>966501141730</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>966503050602</v>
+        <v>966503882156</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>966502013370</v>
+        <v>966502040530</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>966503094432</v>
+        <v>966501620131</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>966504236644</v>
+        <v>966504758717</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>966501826914</v>
+        <v>966501417412</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
-        <v>966501609620</v>
-      </c>
+      <c r="A69" s="1"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
-        <v>966503652203</v>
-      </c>
+      <c r="A70" s="1"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
-        <v>966503385654</v>
-      </c>
+      <c r="A71" s="1"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
-        <v>966504289010</v>
-      </c>
+      <c r="A72" s="1"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
-        <v>966502922983</v>
-      </c>
+      <c r="A73" s="1"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
-        <v>966502082936</v>
-      </c>
+      <c r="A74" s="1"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
-        <v>966501874812</v>
-      </c>
+      <c r="A75" s="1"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
-        <v>966501877979</v>
-      </c>
+      <c r="A76" s="1"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
-        <v>966504545578</v>
-      </c>
+      <c r="A77" s="1"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
-        <v>966504547721</v>
-      </c>
+      <c r="A78" s="1"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
-        <v>966503708925</v>
-      </c>
+      <c r="A79" s="1"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
-        <v>966501463064</v>
-      </c>
+      <c r="A80" s="1"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
-        <v>966503487506</v>
-      </c>
+      <c r="A81" s="1"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
-        <v>966501479064</v>
-      </c>
+      <c r="A82" s="1"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
-        <v>966503500179</v>
-      </c>
+      <c r="A83" s="1"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" s="1">
-        <v>966503263664</v>
-      </c>
+      <c r="A84" s="1"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
-        <v>966503266584</v>
-      </c>
+      <c r="A85" s="1"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" s="1">
-        <v>966501292315</v>
-      </c>
+      <c r="A86" s="1"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
-        <v>966503805061</v>
-      </c>
+      <c r="A87" s="1"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
-        <v>966504178474</v>
-      </c>
+      <c r="A88" s="1"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
-        <v>966501112795</v>
-      </c>
+      <c r="A89" s="1"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" s="1">
-        <v>966501338465</v>
-      </c>
+      <c r="A90" s="1"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
-        <v>966503070378</v>
-      </c>
+      <c r="A91" s="1"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
-        <v>966501128810</v>
-      </c>
+      <c r="A92" s="1"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
-        <v>966502659009</v>
-      </c>
+      <c r="A93" s="1"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
-        <v>966502040513</v>
-      </c>
+      <c r="A94" s="1"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
-        <v>966502468482</v>
-      </c>
+      <c r="A95" s="1"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96" s="1">
-        <v>966502049115</v>
-      </c>
+      <c r="A96" s="1"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" s="1">
-        <v>966501846884</v>
-      </c>
+      <c r="A97" s="1"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" s="1">
-        <v>966504272621</v>
-      </c>
+      <c r="A98" s="1"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" s="1">
-        <v>966501856008</v>
-      </c>
+      <c r="A99" s="1"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" s="1">
-        <v>966501219093</v>
-      </c>
+      <c r="A100" s="1"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" s="1">
-        <v>966502522021</v>
-      </c>
+      <c r="A101" s="1"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" s="1">
-        <v>966504580750</v>
-      </c>
+      <c r="A102" s="1"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" s="1">
-        <v>966503495005</v>
-      </c>
+      <c r="A103" s="1"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104" s="1">
-        <v>966503247796</v>
-      </c>
+      <c r="A104" s="1"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" s="1">
-        <v>966504171580</v>
-      </c>
+      <c r="A105" s="1"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" s="1">
-        <v>966501322849</v>
-      </c>
+      <c r="A106" s="1"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" s="1">
-        <v>966502884166</v>
-      </c>
+      <c r="A107" s="1"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" s="1">
-        <v>966502040515</v>
-      </c>
+      <c r="A108" s="1"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" s="1">
-        <v>966504244393</v>
-      </c>
+      <c r="A109" s="1"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" s="1">
-        <v>966504499887</v>
-      </c>
+      <c r="A110" s="1"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111" s="1">
-        <v>966504266701</v>
-      </c>
+      <c r="A111" s="1"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A112" s="1">
-        <v>966501852571</v>
-      </c>
+      <c r="A112" s="1"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" s="1">
-        <v>966504270566</v>
-      </c>
+      <c r="A113" s="1"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" s="1">
-        <v>966501862142</v>
-      </c>
+      <c r="A114" s="1"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" s="1">
-        <v>966501866466</v>
-      </c>
+      <c r="A115" s="1"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" s="1">
-        <v>966504290018</v>
-      </c>
+      <c r="A116" s="1"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" s="1">
-        <v>966502293003</v>
-      </c>
+      <c r="A117" s="1"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A118" s="1">
-        <v>966504550850</v>
-      </c>
+      <c r="A118" s="1"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A119" s="1">
-        <v>966504792821</v>
-      </c>
+      <c r="A119" s="1"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A120" s="1">
-        <v>966503967551</v>
-      </c>
+      <c r="A120" s="1"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121" s="1">
-        <v>966503456042</v>
-      </c>
+      <c r="A121" s="1"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A122" s="1">
-        <v>966504329079</v>
-      </c>
+      <c r="A122" s="1"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A123" s="1">
-        <v>966502139577</v>
-      </c>
+      <c r="A123" s="1"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A124" s="1">
-        <v>966502787071</v>
-      </c>
+      <c r="A124" s="1"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A125" s="1">
-        <v>966501722168</v>
-      </c>
+      <c r="A125" s="1"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A126" s="1">
-        <v>966501290775</v>
-      </c>
+      <c r="A126" s="1"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A127" s="1">
-        <v>966501320355</v>
-      </c>
+      <c r="A127" s="1"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A128" s="1">
-        <v>966504200956</v>
-      </c>
+      <c r="A128" s="1"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A129" s="1">
-        <v>966503858603</v>
-      </c>
+      <c r="A129" s="1"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130" s="1">
-        <v>966502857569</v>
-      </c>
+      <c r="A130" s="1"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131" s="1">
-        <v>966502653278</v>
-      </c>
+      <c r="A131" s="1"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132" s="1">
-        <v>966501361818</v>
-      </c>
+      <c r="A132" s="1"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133" s="1">
-        <v>966501846887</v>
-      </c>
+      <c r="A133" s="1"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134" s="1">
-        <v>966504266703</v>
-      </c>
+      <c r="A134" s="1"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135" s="1">
-        <v>966502271317</v>
-      </c>
+      <c r="A135" s="1"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A136" s="1">
-        <v>966503931627</v>
-      </c>
+      <c r="A136" s="1"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A137" s="1">
-        <v>966501631883</v>
-      </c>
+      <c r="A137" s="1"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A138" s="1">
-        <v>966501411131</v>
-      </c>
+      <c r="A138" s="1"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139" s="1">
-        <v>966502297708</v>
-      </c>
+      <c r="A139" s="1"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140" s="1">
-        <v>966503190791</v>
-      </c>
+      <c r="A140" s="1"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A141" s="1">
-        <v>966501895102</v>
-      </c>
+      <c r="A141" s="1"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A142" s="1">
-        <v>966502950178</v>
-      </c>
+      <c r="A142" s="1"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A143" s="1">
-        <v>966504807465</v>
-      </c>
+      <c r="A143" s="1"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A144" s="1">
-        <v>966502122508</v>
-      </c>
+      <c r="A144" s="1"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A145" s="1">
-        <v>966504344753</v>
-      </c>
+      <c r="A145" s="1"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146" s="1">
-        <v>966503765381</v>
-      </c>
+      <c r="A146" s="1"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A147" s="1">
-        <v>966501937238</v>
-      </c>
+      <c r="A147" s="1"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A148" s="1">
-        <v>966504854324</v>
-      </c>
+      <c r="A148" s="1"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A149" s="1">
-        <v>966503026034</v>
-      </c>
+      <c r="A149" s="1"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A150" s="1">
-        <v>966501991678</v>
-      </c>
+      <c r="A150" s="1"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A151" s="1">
-        <v>96890300023</v>
-      </c>
+      <c r="A151" s="1"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A152" s="1">
-        <v>96897774615</v>
-      </c>
+      <c r="A152" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9940E812-9C0A-4927-B820-2C233583272E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CB1B0F-8005-4050-8E77-2A9392DF86B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1440" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
+    <workbookView xWindow="1780" yWindow="1780" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -389,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B65809-7069-482D-ABD6-D568B5E57C26}">
-  <dimension ref="A1:A152"/>
+  <dimension ref="A1:A187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A68"/>
+      <selection activeCell="A2" sqref="A2:A187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -407,590 +407,933 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>966504438610</v>
+        <v>966556414270</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>966502649297</v>
+        <v>966560873339</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>966502911447</v>
+        <v>966504723332</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>966502937328</v>
+        <v>966504569086</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>966503454004</v>
+        <v>966501247557</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>966504333418</v>
+        <v>966502156019</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>966501694283</v>
+        <v>966502581258</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>966504111226</v>
+        <v>966504400136</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>966502789785</v>
+        <v>966503045922</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>966502160166</v>
+        <v>966501546718</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>966503283752</v>
+        <v>966501550824</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>966501766670</v>
+        <v>966504559852</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>966504185000</v>
+        <v>966501468589</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>966501338479</v>
+        <v>966504867429</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>966504230258</v>
+        <v>966504115667</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>966501175354</v>
+        <v>966501280800</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>966504743496</v>
+        <v>966503024052</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>966501183389</v>
+        <v>966503689907</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>966503679270</v>
+        <v>966504787724</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>966504539615</v>
+        <v>966503434928</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>966502721024</v>
+        <v>966501241997</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>966501886500</v>
+        <v>966501692496</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>966502305550</v>
+        <v>966501705110</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>966501456562</v>
+        <v>966503580843</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>966503220812</v>
+        <v>966504495441</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>966504346535</v>
+        <v>966504271633</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>966501701809</v>
+        <v>966502495951</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>966501268559</v>
+        <v>966501693419</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>966504603857</v>
+        <v>966502627395</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>966503003438</v>
+        <v>966502963418</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>966503284850</v>
+        <v>966502342934</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>966504666849</v>
+        <v>966503826923</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>966504195381</v>
+        <v>966501642536</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>966504198228</v>
+        <v>966504556368</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>966501355105</v>
+        <v>966503443346</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>966501357609</v>
+        <v>966502105044</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>966502252033</v>
+        <v>966502537353</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>966503916462</v>
+        <v>966502538110</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>966503153059</v>
+        <v>966503772230</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>966504772476</v>
+        <v>966504402059</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>966501204878</v>
+        <v>966504429458</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>966503428609</v>
+        <v>966501792452</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>966504838843</v>
+        <v>966502219688</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>966502827437</v>
+        <v>966501798246</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>966503048903</v>
+        <v>966502032221</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>966503338069</v>
+        <v>966502245243</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>966504212279</v>
+        <v>966502479840</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>966502859899</v>
+        <v>966503169605</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>966501817602</v>
+        <v>966503953708</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>966502252034</v>
+        <v>966504326356</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>966501832696</v>
+        <v>966504612307</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>966502255234</v>
+        <v>966503554712</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>966504754268</v>
+        <v>966501784470</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>966503228613</v>
+        <v>966502029938</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>966503233444</v>
+        <v>966503899777</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>966501932163</v>
+        <v>966503936272</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>966503267622</v>
+        <v>966504560822</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>966503814340</v>
+        <v>966504891629</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>966501769234</v>
+        <v>966502613182</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>966502835949</v>
+        <v>966501545975</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>966504210383</v>
+        <v>966501609635</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>966501141730</v>
+        <v>966501618508</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>966503882156</v>
+        <v>966502284958</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>966502040530</v>
+        <v>966502289825</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>966501620131</v>
+        <v>966504683167</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>966504758717</v>
+        <v>966502017618</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>966501417412</v>
+        <v>966504465199</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" s="1"/>
+      <c r="A69" s="1">
+        <v>966502032231</v>
+      </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" s="1"/>
+      <c r="A70" s="1">
+        <v>966501839699</v>
+      </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" s="1"/>
+      <c r="A71" s="1">
+        <v>966502062168</v>
+      </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" s="1"/>
+      <c r="A72" s="1">
+        <v>966502271323</v>
+      </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" s="1"/>
+      <c r="A73" s="1">
+        <v>966503204276</v>
+      </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" s="1"/>
+      <c r="A74" s="1">
+        <v>966503288932</v>
+      </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" s="1"/>
+      <c r="A75" s="1">
+        <v>966501530504</v>
+      </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" s="1"/>
+      <c r="A76" s="1">
+        <v>966501569098</v>
+      </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" s="1"/>
+      <c r="A77" s="1">
+        <v>966503910655</v>
+      </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" s="1"/>
+      <c r="A78" s="1">
+        <v>966503216047</v>
+      </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" s="1"/>
+      <c r="A79" s="1">
+        <v>966502556836</v>
+      </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" s="1"/>
+      <c r="A80" s="1">
+        <v>966502370195</v>
+      </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" s="1"/>
+      <c r="A81" s="1">
+        <v>966501762288</v>
+      </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" s="1"/>
+      <c r="A82" s="1">
+        <v>966501776310</v>
+      </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" s="1"/>
+      <c r="A83" s="1">
+        <v>966502027498</v>
+      </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" s="1"/>
+      <c r="A84" s="1">
+        <v>966504713623</v>
+      </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" s="1"/>
+      <c r="A85" s="1">
+        <v>966504482373</v>
+      </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" s="1"/>
+      <c r="A86" s="1">
+        <v>966502170854</v>
+      </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" s="1"/>
+      <c r="A87" s="1">
+        <v>966504912162</v>
+      </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" s="1"/>
+      <c r="A88" s="1">
+        <v>966503318888</v>
+      </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" s="1"/>
+      <c r="A89" s="1">
+        <v>966503361314</v>
+      </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" s="1"/>
+      <c r="A90" s="1">
+        <v>966501647946</v>
+      </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" s="1"/>
+      <c r="A91" s="1">
+        <v>966502156065</v>
+      </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92" s="1"/>
+      <c r="A92" s="1">
+        <v>966501522845</v>
+      </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" s="1"/>
+      <c r="A93" s="1">
+        <v>966501602641</v>
+      </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94" s="1"/>
+      <c r="A94" s="1">
+        <v>966502272951</v>
+      </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" s="1"/>
+      <c r="A95" s="1">
+        <v>966502280340</v>
+      </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96" s="1"/>
+      <c r="A96" s="1">
+        <v>966503181967</v>
+      </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" s="1"/>
+      <c r="A97" s="1">
+        <v>966501887943</v>
+      </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" s="1"/>
+      <c r="A98" s="1">
+        <v>966502318289</v>
+      </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" s="1"/>
+      <c r="A99" s="1">
+        <v>966501789543</v>
+      </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" s="1"/>
+      <c r="A100" s="1">
+        <v>966502852118</v>
+      </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" s="1"/>
+      <c r="A101" s="1">
+        <v>966503885623</v>
+      </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" s="1"/>
+      <c r="A102" s="1">
+        <v>966503128784</v>
+      </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" s="1"/>
+      <c r="A103" s="1">
+        <v>966502715707</v>
+      </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104" s="1"/>
+      <c r="A104" s="1">
+        <v>966503963611</v>
+      </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" s="1"/>
+      <c r="A105" s="1">
+        <v>966504847960</v>
+      </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" s="1"/>
+      <c r="A106" s="1">
+        <v>966504127428</v>
+      </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" s="1"/>
+      <c r="A107" s="1">
+        <v>966504652816</v>
+      </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" s="1"/>
+      <c r="A108" s="1">
+        <v>966502846645</v>
+      </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" s="1"/>
+      <c r="A109" s="1">
+        <v>966503864349</v>
+      </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" s="1"/>
+      <c r="A110" s="1">
+        <v>966502229055</v>
+      </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111" s="1"/>
+      <c r="A111" s="1">
+        <v>966501390758</v>
+      </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A112" s="1"/>
+      <c r="A112" s="1">
+        <v>966502901786</v>
+      </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" s="1"/>
+      <c r="A113" s="1">
+        <v>966503196606</v>
+      </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" s="1"/>
+      <c r="A114" s="1">
+        <v>966504575428</v>
+      </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" s="1"/>
+      <c r="A115" s="1">
+        <v>966502573200</v>
+      </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" s="1"/>
+      <c r="A116" s="1">
+        <v>966501123356</v>
+      </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" s="1"/>
+      <c r="A117" s="1">
+        <v>966503347662</v>
+      </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A118" s="1"/>
+      <c r="A118" s="1">
+        <v>966502891303</v>
+      </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A119" s="1"/>
+      <c r="A119" s="1">
+        <v>966504270609</v>
+      </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A120" s="1"/>
+      <c r="A120" s="1">
+        <v>966504521818</v>
+      </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121" s="1"/>
+      <c r="A121" s="1">
+        <v>966503187989</v>
+      </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A122" s="1"/>
+      <c r="A122" s="1">
+        <v>966503226659</v>
+      </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A123" s="1"/>
+      <c r="A123" s="1">
+        <v>966502557665</v>
+      </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A124" s="1"/>
+      <c r="A124" s="1">
+        <v>966502142773</v>
+      </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A125" s="1"/>
+      <c r="A125" s="1">
+        <v>966502567181</v>
+      </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A126" s="1"/>
+      <c r="A126" s="1">
+        <v>966504709747</v>
+      </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A127" s="1"/>
+      <c r="A127" s="1">
+        <v>966503385695</v>
+      </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A128" s="1"/>
+      <c r="A128" s="1">
+        <v>966502065694</v>
+      </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A129" s="1"/>
+      <c r="A129" s="1">
+        <v>966502509995</v>
+      </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130" s="1"/>
+      <c r="A130" s="1">
+        <v>966501220700</v>
+      </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131" s="1"/>
+      <c r="A131" s="1">
+        <v>966503723217</v>
+      </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132" s="1"/>
+      <c r="A132" s="1">
+        <v>966503755667</v>
+      </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133" s="1"/>
+      <c r="A133" s="1">
+        <v>966503242877</v>
+      </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134" s="1"/>
+      <c r="A134" s="1">
+        <v>966501142592</v>
+      </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135" s="1"/>
+      <c r="A135" s="1">
+        <v>966503638511</v>
+      </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A136" s="1"/>
+      <c r="A136" s="1">
+        <v>966501200851</v>
+      </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A137" s="1"/>
+      <c r="A137" s="1">
+        <v>966504867489</v>
+      </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A138" s="1"/>
+      <c r="A138" s="1">
+        <v>966501793300</v>
+      </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139" s="1"/>
+      <c r="A139" s="1">
+        <v>966504696673</v>
+      </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140" s="1"/>
+      <c r="A140" s="1">
+        <v>966503145310</v>
+      </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A141" s="1"/>
+      <c r="A141" s="1">
+        <v>966501219129</v>
+      </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A142" s="1"/>
+      <c r="A142" s="1">
+        <v>966504620410</v>
+      </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A143" s="1"/>
+      <c r="A143" s="1">
+        <v>966501754598</v>
+      </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A144" s="1"/>
+      <c r="A144" s="1">
+        <v>966504453149</v>
+      </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A145" s="1"/>
+      <c r="A145" s="1">
+        <v>966503367558</v>
+      </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146" s="1"/>
+      <c r="A146" s="1">
+        <v>966504731987</v>
+      </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A147" s="1"/>
+      <c r="A147" s="1">
+        <v>966501421740</v>
+      </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A148" s="1"/>
+      <c r="A148" s="1">
+        <v>966501227880</v>
+      </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A149" s="1"/>
+      <c r="A149" s="1">
+        <v>966503459292</v>
+      </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A150" s="1"/>
+      <c r="A150" s="1">
+        <v>966502565666</v>
+      </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A151" s="1"/>
+      <c r="A151" s="1">
+        <v>966503770309</v>
+      </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A152" s="1"/>
+      <c r="A152" s="1">
+        <v>966501724007</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
+        <v>966501731928</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
+        <v>966504908595</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A155" s="1">
+        <v>966504671026</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A156" s="1">
+        <v>966501777136</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A157" s="1">
+        <v>966502422717</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A158" s="1">
+        <v>966502666106</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A159" s="1">
+        <v>966502050691</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
+        <v>966503442424</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A161" s="1">
+        <v>966504560897</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A162" s="1">
+        <v>966501158758</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A163" s="1">
+        <v>966501625113</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A164" s="1">
+        <v>966502938169</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A165" s="1">
+        <v>966503439197</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A166" s="1">
+        <v>966504827152</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A167" s="1">
+        <v>966501935530</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A168" s="1">
+        <v>966501282474</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A169" s="1">
+        <v>966503806951</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A170" s="1">
+        <v>966503559777</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A171" s="1">
+        <v>966503068266</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A172" s="1">
+        <v>966501383026</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A173" s="1">
+        <v>966502938889</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A174" s="1">
+        <v>966503990121</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A175" s="1">
+        <v>966501253262</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A176" s="1">
+        <v>966504588949</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A177" s="1">
+        <v>966501326969</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A178" s="1">
+        <v>966503071419</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A179" s="1">
+        <v>966502013449</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A180" s="1">
+        <v>966502278014</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A181" s="1">
+        <v>966501428457</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A182" s="1">
+        <v>966502540666</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A183" s="1">
+        <v>966504651069</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A184" s="1">
+        <v>966501369939</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A185" s="1">
+        <v>966502724203</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A186" s="1">
+        <v>966504565441</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A187" s="1">
+        <v>966504852552</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CB1B0F-8005-4050-8E77-2A9392DF86B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2A5717-901C-48AA-9A97-FAD28905A520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="1780" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
+    <workbookView xWindow="2120" yWindow="2120" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -392,7 +392,7 @@
   <dimension ref="A1:A187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A187"/>
+      <selection activeCell="A2" sqref="A2:A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -407,933 +407,753 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>966556414270</v>
+        <v>966544113998</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>966560873339</v>
+        <v>966502641154</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>966504723332</v>
+        <v>966503602129</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>966504569086</v>
+        <v>966502451189</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>966501247557</v>
+        <v>966504466012</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>966502156019</v>
+        <v>966504244381</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>966502581258</v>
+        <v>966503119158</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>966504400136</v>
+        <v>966502255912</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>966503045922</v>
+        <v>966501170388</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>966501546718</v>
+        <v>966502267287</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>966501550824</v>
+        <v>966503923901</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>966504559852</v>
+        <v>966504273549</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>966501468589</v>
+        <v>966502700890</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>966504867429</v>
+        <v>966503166319</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>966504115667</v>
+        <v>966501877966</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>966501280800</v>
+        <v>966504544747</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>966503024052</v>
+        <v>966501219890</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>966503689907</v>
+        <v>966502306226</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>966504787724</v>
+        <v>966503987111</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>966503434928</v>
+        <v>966502555287</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>966501241997</v>
+        <v>966501923982</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>966501692496</v>
+        <v>966501262057</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>966501705110</v>
+        <v>966502364526</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>966503580843</v>
+        <v>966503257561</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>966504495441</v>
+        <v>966504871399</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>966504271633</v>
+        <v>966504634486</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>966502495951</v>
+        <v>966501307090</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>966501693419</v>
+        <v>966504406675</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>966502627395</v>
+        <v>966504416547</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>966502963418</v>
+        <v>966503837769</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>966502342934</v>
+        <v>966501993949</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>966503826923</v>
+        <v>966503577390</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>966501642536</v>
+        <v>966504199090</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>966504556368</v>
+        <v>966503335528</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>966503443346</v>
+        <v>966504208473</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>966502105044</v>
+        <v>966501130770</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>966502537353</v>
+        <v>966501131912</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>966502538110</v>
+        <v>966501356783</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>966503772230</v>
+        <v>966502021426</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>966504402059</v>
+        <v>966502668379</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>966504429458</v>
+        <v>966502245224</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>966501792452</v>
+        <v>966503898712</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>966502219688</v>
+        <v>966504729744</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>966501798246</v>
+        <v>966504489944</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>966502032221</v>
+        <v>966504496328</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>966502245243</v>
+        <v>966501611612</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>966502479840</v>
+        <v>966503920151</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>966503169605</v>
+        <v>966503676162</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>966503953708</v>
+        <v>966502502212</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>966504326356</v>
+        <v>966503425150</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>966504612307</v>
+        <v>966502737174</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>966503554712</v>
+        <v>966502542263</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>966501784470</v>
+        <v>966503743222</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>966502029938</v>
+        <v>966503249697</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>966503899777</v>
+        <v>966504126444</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>966503936272</v>
+        <v>966502152228</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>966504560822</v>
+        <v>966502366431</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>966504891629</v>
+        <v>966503517711</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>966502613182</v>
+        <v>966504881744</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>966501545975</v>
+        <v>966503811596</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>966501609635</v>
+        <v>966503556690</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>966501618508</v>
+        <v>966504422134</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>966502284958</v>
+        <v>966501123284</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>966502289825</v>
+        <v>966502856791</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>966504683167</v>
+        <v>966502014271</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>966502017618</v>
+        <v>966501353480</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>966504465199</v>
+        <v>966502223650</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>966502032231</v>
+        <v>966504703903</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>966501839699</v>
+        <v>966504709673</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>966502062168</v>
+        <v>966503099702</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>966502271323</v>
+        <v>966503628419</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>966503204276</v>
+        <v>966504235773</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>966503288932</v>
+        <v>966501592346</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>966501530504</v>
+        <v>966501376088</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>966501569098</v>
+        <v>966501382038</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>966503910655</v>
+        <v>966502678897</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>966503216047</v>
+        <v>966504491756</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>966502556836</v>
+        <v>966503159593</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>966502370195</v>
+        <v>966504777463</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>966501762288</v>
+        <v>966504542437</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>966501776310</v>
+        <v>966503705425</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>966502027498</v>
+        <v>966502303333</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>966504713623</v>
+        <v>966502306232</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>966504482373</v>
+        <v>966502105943</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>966502170854</v>
+        <v>966502538970</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>966504912162</v>
+        <v>966502553745</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>966503318888</v>
+        <v>966502555290</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>966503361314</v>
+        <v>966501708251</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>966501647946</v>
+        <v>966502568652</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>966502156065</v>
+        <v>966501717904</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>966501522845</v>
+        <v>966502149934</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>966501602641</v>
+        <v>966504383136</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>966502272951</v>
+        <v>966501516976</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>966502280340</v>
+        <v>966504880793</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>966503181967</v>
+        <v>966504410204</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>966501887943</v>
+        <v>966504424024</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" s="1">
-        <v>966502318289</v>
-      </c>
+      <c r="A98" s="1"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" s="1">
-        <v>966501789543</v>
-      </c>
+      <c r="A99" s="1"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" s="1">
-        <v>966502852118</v>
-      </c>
+      <c r="A100" s="1"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" s="1">
-        <v>966503885623</v>
-      </c>
+      <c r="A101" s="1"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" s="1">
-        <v>966503128784</v>
-      </c>
+      <c r="A102" s="1"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" s="1">
-        <v>966502715707</v>
-      </c>
+      <c r="A103" s="1"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104" s="1">
-        <v>966503963611</v>
-      </c>
+      <c r="A104" s="1"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" s="1">
-        <v>966504847960</v>
-      </c>
+      <c r="A105" s="1"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" s="1">
-        <v>966504127428</v>
-      </c>
+      <c r="A106" s="1"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" s="1">
-        <v>966504652816</v>
-      </c>
+      <c r="A107" s="1"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" s="1">
-        <v>966502846645</v>
-      </c>
+      <c r="A108" s="1"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" s="1">
-        <v>966503864349</v>
-      </c>
+      <c r="A109" s="1"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" s="1">
-        <v>966502229055</v>
-      </c>
+      <c r="A110" s="1"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111" s="1">
-        <v>966501390758</v>
-      </c>
+      <c r="A111" s="1"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A112" s="1">
-        <v>966502901786</v>
-      </c>
+      <c r="A112" s="1"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" s="1">
-        <v>966503196606</v>
-      </c>
+      <c r="A113" s="1"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" s="1">
-        <v>966504575428</v>
-      </c>
+      <c r="A114" s="1"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" s="1">
-        <v>966502573200</v>
-      </c>
+      <c r="A115" s="1"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" s="1">
-        <v>966501123356</v>
-      </c>
+      <c r="A116" s="1"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" s="1">
-        <v>966503347662</v>
-      </c>
+      <c r="A117" s="1"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A118" s="1">
-        <v>966502891303</v>
-      </c>
+      <c r="A118" s="1"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A119" s="1">
-        <v>966504270609</v>
-      </c>
+      <c r="A119" s="1"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A120" s="1">
-        <v>966504521818</v>
-      </c>
+      <c r="A120" s="1"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121" s="1">
-        <v>966503187989</v>
-      </c>
+      <c r="A121" s="1"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A122" s="1">
-        <v>966503226659</v>
-      </c>
+      <c r="A122" s="1"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A123" s="1">
-        <v>966502557665</v>
-      </c>
+      <c r="A123" s="1"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A124" s="1">
-        <v>966502142773</v>
-      </c>
+      <c r="A124" s="1"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A125" s="1">
-        <v>966502567181</v>
-      </c>
+      <c r="A125" s="1"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A126" s="1">
-        <v>966504709747</v>
-      </c>
+      <c r="A126" s="1"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A127" s="1">
-        <v>966503385695</v>
-      </c>
+      <c r="A127" s="1"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A128" s="1">
-        <v>966502065694</v>
-      </c>
+      <c r="A128" s="1"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A129" s="1">
-        <v>966502509995</v>
-      </c>
+      <c r="A129" s="1"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130" s="1">
-        <v>966501220700</v>
-      </c>
+      <c r="A130" s="1"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131" s="1">
-        <v>966503723217</v>
-      </c>
+      <c r="A131" s="1"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132" s="1">
-        <v>966503755667</v>
-      </c>
+      <c r="A132" s="1"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133" s="1">
-        <v>966503242877</v>
-      </c>
+      <c r="A133" s="1"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134" s="1">
-        <v>966501142592</v>
-      </c>
+      <c r="A134" s="1"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135" s="1">
-        <v>966503638511</v>
-      </c>
+      <c r="A135" s="1"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A136" s="1">
-        <v>966501200851</v>
-      </c>
+      <c r="A136" s="1"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A137" s="1">
-        <v>966504867489</v>
-      </c>
+      <c r="A137" s="1"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A138" s="1">
-        <v>966501793300</v>
-      </c>
+      <c r="A138" s="1"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139" s="1">
-        <v>966504696673</v>
-      </c>
+      <c r="A139" s="1"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140" s="1">
-        <v>966503145310</v>
-      </c>
+      <c r="A140" s="1"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A141" s="1">
-        <v>966501219129</v>
-      </c>
+      <c r="A141" s="1"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A142" s="1">
-        <v>966504620410</v>
-      </c>
+      <c r="A142" s="1"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A143" s="1">
-        <v>966501754598</v>
-      </c>
+      <c r="A143" s="1"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A144" s="1">
-        <v>966504453149</v>
-      </c>
+      <c r="A144" s="1"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A145" s="1">
-        <v>966503367558</v>
-      </c>
+      <c r="A145" s="1"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146" s="1">
-        <v>966504731987</v>
-      </c>
+      <c r="A146" s="1"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A147" s="1">
-        <v>966501421740</v>
-      </c>
+      <c r="A147" s="1"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A148" s="1">
-        <v>966501227880</v>
-      </c>
+      <c r="A148" s="1"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A149" s="1">
-        <v>966503459292</v>
-      </c>
+      <c r="A149" s="1"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A150" s="1">
-        <v>966502565666</v>
-      </c>
+      <c r="A150" s="1"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A151" s="1">
-        <v>966503770309</v>
-      </c>
+      <c r="A151" s="1"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A152" s="1">
-        <v>966501724007</v>
-      </c>
+      <c r="A152" s="1"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A153" s="1">
-        <v>966501731928</v>
-      </c>
+      <c r="A153" s="1"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A154" s="1">
-        <v>966504908595</v>
-      </c>
+      <c r="A154" s="1"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A155" s="1">
-        <v>966504671026</v>
-      </c>
+      <c r="A155" s="1"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A156" s="1">
-        <v>966501777136</v>
-      </c>
+      <c r="A156" s="1"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A157" s="1">
-        <v>966502422717</v>
-      </c>
+      <c r="A157" s="1"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A158" s="1">
-        <v>966502666106</v>
-      </c>
+      <c r="A158" s="1"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A159" s="1">
-        <v>966502050691</v>
-      </c>
+      <c r="A159" s="1"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A160" s="1">
-        <v>966503442424</v>
-      </c>
+      <c r="A160" s="1"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A161" s="1">
-        <v>966504560897</v>
-      </c>
+      <c r="A161" s="1"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A162" s="1">
-        <v>966501158758</v>
-      </c>
+      <c r="A162" s="1"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A163" s="1">
-        <v>966501625113</v>
-      </c>
+      <c r="A163" s="1"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A164" s="1">
-        <v>966502938169</v>
-      </c>
+      <c r="A164" s="1"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A165" s="1">
-        <v>966503439197</v>
-      </c>
+      <c r="A165" s="1"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A166" s="1">
-        <v>966504827152</v>
-      </c>
+      <c r="A166" s="1"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A167" s="1">
-        <v>966501935530</v>
-      </c>
+      <c r="A167" s="1"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A168" s="1">
-        <v>966501282474</v>
-      </c>
+      <c r="A168" s="1"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A169" s="1">
-        <v>966503806951</v>
-      </c>
+      <c r="A169" s="1"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A170" s="1">
-        <v>966503559777</v>
-      </c>
+      <c r="A170" s="1"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A171" s="1">
-        <v>966503068266</v>
-      </c>
+      <c r="A171" s="1"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A172" s="1">
-        <v>966501383026</v>
-      </c>
+      <c r="A172" s="1"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A173" s="1">
-        <v>966502938889</v>
-      </c>
+      <c r="A173" s="1"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A174" s="1">
-        <v>966503990121</v>
-      </c>
+      <c r="A174" s="1"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A175" s="1">
-        <v>966501253262</v>
-      </c>
+      <c r="A175" s="1"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A176" s="1">
-        <v>966504588949</v>
-      </c>
+      <c r="A176" s="1"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A177" s="1">
-        <v>966501326969</v>
-      </c>
+      <c r="A177" s="1"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A178" s="1">
-        <v>966503071419</v>
-      </c>
+      <c r="A178" s="1"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A179" s="1">
-        <v>966502013449</v>
-      </c>
+      <c r="A179" s="1"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A180" s="1">
-        <v>966502278014</v>
-      </c>
+      <c r="A180" s="1"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A181" s="1">
-        <v>966501428457</v>
-      </c>
+      <c r="A181" s="1"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A182" s="1">
-        <v>966502540666</v>
-      </c>
+      <c r="A182" s="1"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A183" s="1">
-        <v>966504651069</v>
-      </c>
+      <c r="A183" s="1"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A184" s="1">
-        <v>966501369939</v>
-      </c>
+      <c r="A184" s="1"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A185" s="1">
-        <v>966502724203</v>
-      </c>
+      <c r="A185" s="1"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A186" s="1">
-        <v>966504565441</v>
-      </c>
+      <c r="A186" s="1"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A187" s="1">
-        <v>966504852552</v>
-      </c>
+      <c r="A187" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2A5717-901C-48AA-9A97-FAD28905A520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5909DFD3-E710-4076-B44E-D6604FC0C5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="2120" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
+    <workbookView xWindow="2460" yWindow="2460" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -389,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B65809-7069-482D-ABD6-D568B5E57C26}">
-  <dimension ref="A1:A187"/>
+  <dimension ref="A1:A206"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A97"/>
+    <sheetView tabSelected="1" topLeftCell="A188" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -407,753 +407,1028 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>966544113998</v>
+        <v>966504132955</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>966502641154</v>
+        <v>966502581277</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>966503602129</v>
+        <v>966502798167</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>966502451189</v>
+        <v>966501514579</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>966504466012</v>
+        <v>966503558695</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>966504244381</v>
+        <v>966503833531</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>966503119158</v>
+        <v>966503838599</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>966502255912</v>
+        <v>966502411914</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>966501170388</v>
+        <v>966503045958</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>966502267287</v>
+        <v>966501546745</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>966503923901</v>
+        <v>966501994787</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>966504273549</v>
+        <v>966503053726</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>966502700890</v>
+        <v>966501777816</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>966503166319</v>
+        <v>966502431110</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>966501877966</v>
+        <v>966503865208</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>966504544747</v>
+        <v>966503338058</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>966501219890</v>
+        <v>966502221129</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>966502306226</v>
+        <v>966504242519</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>966503987111</v>
+        <v>966501173790</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>966502555287</v>
+        <v>966503129853</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>966501923982</v>
+        <v>966501616249</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>966501262057</v>
+        <v>966502488298</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>966502364526</v>
+        <v>966504270575</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>966503257561</v>
+        <v>966503400796</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>966504871399</v>
+        <v>966504274663</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>966504634486</v>
+        <v>966502917341</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>966501307090</v>
+        <v>966502284113</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>966504406675</v>
+        <v>966503695356</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>966504416547</v>
+        <v>966502930825</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>966503837769</v>
+        <v>966502299444</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>966501993949</v>
+        <v>966501654025</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>966503577390</v>
+        <v>966504546903</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>966504199090</v>
+        <v>966501656767</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>966503335528</v>
+        <v>966502303363</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>966504208473</v>
+        <v>966503191700</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>966501130770</v>
+        <v>966501660977</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>966501131912</v>
+        <v>966501228725</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>966501356783</v>
+        <v>966501444016</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>966502021426</v>
+        <v>966502532117</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>966502668379</v>
+        <v>966504813667</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>966502245224</v>
+        <v>966501249956</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>966503898712</v>
+        <v>966503998116</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>966504729744</v>
+        <v>966504595234</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>966504489944</v>
+        <v>966502771819</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>966504496328</v>
+        <v>966501935488</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>966501611612</v>
+        <v>966503251815</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>966503920151</v>
+        <v>966504140450</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>966503676162</v>
+        <v>966501292330</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>966502502212</v>
+        <v>966503814327</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>966503425150</v>
+        <v>966502822072</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>966502737174</v>
+        <v>966503315025</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>966502542263</v>
+        <v>966504913918</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>966503743222</v>
+        <v>966504192581</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>966503249697</v>
+        <v>966501119309</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>966504126444</v>
+        <v>966502012627</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>966502152228</v>
+        <v>966504721612</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>966502366431</v>
+        <v>966504725181</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>966503517711</v>
+        <v>966502481366</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>966504881744</v>
+        <v>966502063093</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>966503811596</v>
+        <v>966504280645</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>966503556690</v>
+        <v>966502705652</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>966504422134</v>
+        <v>966502285852</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>966501123284</v>
+        <v>966501881099</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>966502856791</v>
+        <v>966503706664</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>966502014271</v>
+        <v>966502525794</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>966501353480</v>
+        <v>966503733955</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>966502223650</v>
+        <v>966502116400</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>966504703903</v>
+        <v>966501244402</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>966504709673</v>
+        <v>966501258883</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>966503099702</v>
+        <v>966503233438</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>966503628419</v>
+        <v>966503775119</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>966504235773</v>
+        <v>966501939689</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>966501592346</v>
+        <v>966503510261</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>966501376088</v>
+        <v>966502790750</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>966501382038</v>
+        <v>966503796788</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>966502678897</v>
+        <v>966503279832</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>966504491756</v>
+        <v>966503809665</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>966503159593</v>
+        <v>966503557773</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>966504777463</v>
+        <v>966504659794</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>966504542437</v>
+        <v>966502200276</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>966503705425</v>
+        <v>966501553112</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>966502303333</v>
+        <v>966502430272</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>966502306232</v>
+        <v>966501565880</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>966502105943</v>
+        <v>966503877734</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>966502538970</v>
+        <v>966504222918</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>966502553745</v>
+        <v>966502448689</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>966502555290</v>
+        <v>966501142554</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>966501708251</v>
+        <v>966501149844</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>966502568652</v>
+        <v>966502027492</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>966501717904</v>
+        <v>966502661307</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>966502149934</v>
+        <v>966501814990</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>966504383136</v>
+        <v>966504714653</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>966501516976</v>
+        <v>966504716594</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>966504880793</v>
+        <v>966504719455</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>966504410204</v>
+        <v>966502893784</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>966504424024</v>
+        <v>966503406471</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" s="1"/>
+      <c r="A98" s="1">
+        <v>966503935309</v>
+      </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" s="1"/>
+      <c r="A99" s="1">
+        <v>966502515613</v>
+      </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" s="1"/>
+      <c r="A100" s="1">
+        <v>966503446340</v>
+      </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" s="1"/>
+      <c r="A101" s="1">
+        <v>966504801719</v>
+      </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" s="1"/>
+      <c r="A102" s="1">
+        <v>966502532129</v>
+      </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" s="1"/>
+      <c r="A103" s="1">
+        <v>966503451696</v>
+      </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104" s="1"/>
+      <c r="A104" s="1">
+        <v>966502536557</v>
+      </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" s="1"/>
+      <c r="A105" s="1">
+        <v>966503995206</v>
+      </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" s="1"/>
+      <c r="A106" s="1">
+        <v>966503997195</v>
+      </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" s="1"/>
+      <c r="A107" s="1">
+        <v>966502348486</v>
+      </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" s="1"/>
+      <c r="A108" s="1">
+        <v>966502568674</v>
+      </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" s="1"/>
+      <c r="A109" s="1">
+        <v>966503526447</v>
+      </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" s="1"/>
+      <c r="A110" s="1">
+        <v>966504649353</v>
+      </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111" s="1"/>
+      <c r="A111" s="1">
+        <v>966504660588</v>
+      </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A112" s="1"/>
+      <c r="A112" s="1">
+        <v>966502625212</v>
+      </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" s="1"/>
+      <c r="A113" s="1">
+        <v>966502837616</v>
+      </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" s="1"/>
+      <c r="A114" s="1">
+        <v>966504197327</v>
+      </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" s="1"/>
+      <c r="A115" s="1">
+        <v>966504697486</v>
+      </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" s="1"/>
+      <c r="A116" s="1">
+        <v>966502020052</v>
+      </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" s="1"/>
+      <c r="A117" s="1">
+        <v>966504704926</v>
+      </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A118" s="1"/>
+      <c r="A118" s="1">
+        <v>966504720539</v>
+      </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A119" s="1"/>
+      <c r="A119" s="1">
+        <v>966504721621</v>
+      </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A120" s="1"/>
+      <c r="A120" s="1">
+        <v>966504241637</v>
+      </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121" s="1"/>
+      <c r="A121" s="1">
+        <v>966502888903</v>
+      </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A122" s="1"/>
+      <c r="A122" s="1">
+        <v>966503905101</v>
+      </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A123" s="1"/>
+      <c r="A123" s="1">
+        <v>966504251066</v>
+      </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A124" s="1"/>
+      <c r="A124" s="1">
+        <v>966502261189</v>
+      </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A125" s="1"/>
+      <c r="A125" s="1">
+        <v>966502272121</v>
+      </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A126" s="1"/>
+      <c r="A126" s="1">
+        <v>966502301752</v>
+      </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A127" s="1"/>
+      <c r="A127" s="1">
+        <v>966501228732</v>
+      </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A128" s="1"/>
+      <c r="A128" s="1">
+        <v>966502950201</v>
+      </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A129" s="1"/>
+      <c r="A129" s="1">
+        <v>966502326951</v>
+      </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130" s="1"/>
+      <c r="A130" s="1">
+        <v>966503997198</v>
+      </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131" s="1"/>
+      <c r="A131" s="1">
+        <v>966502548616</v>
+      </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132" s="1"/>
+      <c r="A132" s="1">
+        <v>966501699383</v>
+      </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133" s="1"/>
+      <c r="A133" s="1">
+        <v>966504596878</v>
+      </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134" s="1"/>
+      <c r="A134" s="1">
+        <v>966502570255</v>
+      </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135" s="1"/>
+      <c r="A135" s="1">
+        <v>966503248807</v>
+      </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A136" s="1"/>
+      <c r="A136" s="1">
+        <v>966502360704</v>
+      </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A137" s="1"/>
+      <c r="A137" s="1">
+        <v>966504382218</v>
+      </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A138" s="1"/>
+      <c r="A138" s="1">
+        <v>966504626500</v>
+      </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139" s="1"/>
+      <c r="A139" s="1">
+        <v>966504875727</v>
+      </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140" s="1"/>
+      <c r="A140" s="1">
+        <v>966502606159</v>
+      </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A141" s="1"/>
+      <c r="A141" s="1">
+        <v>966501775428</v>
+      </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A142" s="1"/>
+      <c r="A142" s="1">
+        <v>966501113645</v>
+      </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A143" s="1"/>
+      <c r="A143" s="1">
+        <v>966503583303</v>
+      </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A144" s="1"/>
+      <c r="A144" s="1">
+        <v>966503059446</v>
+      </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A145" s="1"/>
+      <c r="A145" s="1">
+        <v>966501117606</v>
+      </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146" s="1"/>
+      <c r="A146" s="1">
+        <v>966503328443</v>
+      </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A147" s="1"/>
+      <c r="A147" s="1">
+        <v>966504440458</v>
+      </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A148" s="1"/>
+      <c r="A148" s="1">
+        <v>966504442283</v>
+      </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A149" s="1"/>
+      <c r="A149" s="1">
+        <v>966502007458</v>
+      </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A150" s="1"/>
+      <c r="A150" s="1">
+        <v>966503073599</v>
+      </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A151" s="1"/>
+      <c r="A151" s="1">
+        <v>966503875866</v>
+      </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A152" s="1"/>
+      <c r="A152" s="1">
+        <v>966502259724</v>
+      </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A153" s="1"/>
+      <c r="A153" s="1">
+        <v>966504254917</v>
+      </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A154" s="1"/>
+      <c r="A154" s="1">
+        <v>966501613622</v>
+      </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A155" s="1"/>
+      <c r="A155" s="1">
+        <v>966504278662</v>
+      </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A156" s="1"/>
+      <c r="A156" s="1">
+        <v>966503158635</v>
+      </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A157" s="1"/>
+      <c r="A157" s="1">
+        <v>966501414962</v>
+      </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A158" s="1"/>
+      <c r="A158" s="1">
+        <v>966501208002</v>
+      </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A159" s="1"/>
+      <c r="A159" s="1">
+        <v>966502511553</v>
+      </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A160" s="1"/>
+      <c r="A160" s="1">
+        <v>966501650444</v>
+      </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A161" s="1"/>
+      <c r="A161" s="1">
+        <v>966502518884</v>
+      </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A162" s="1"/>
+      <c r="A162" s="1">
+        <v>966504788521</v>
+      </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A163" s="1"/>
+      <c r="A163" s="1">
+        <v>966502096080</v>
+      </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A164" s="1"/>
+      <c r="A164" s="1">
+        <v>966503984988</v>
+      </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A165" s="1"/>
+      <c r="A165" s="1">
+        <v>966503752355</v>
+      </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A166" s="1"/>
+      <c r="A166" s="1">
+        <v>966502141965</v>
+      </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A167" s="1"/>
+      <c r="A167" s="1">
+        <v>966502996565</v>
+      </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A168" s="1"/>
+      <c r="A168" s="1">
+        <v>966504616699</v>
+      </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A169" s="1"/>
+      <c r="A169" s="1">
+        <v>966501512980</v>
+      </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A170" s="1"/>
+      <c r="A170" s="1">
+        <v>966502170008</v>
+      </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A171" s="1"/>
+      <c r="A171" s="1">
+        <v>966502818261</v>
+      </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A172" s="1"/>
+      <c r="A172" s="1">
+        <v>966504415716</v>
+      </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A173" s="1"/>
+      <c r="A173" s="1">
+        <v>966504179417</v>
+      </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A174" s="1"/>
+      <c r="A174" s="1">
+        <v>966504181331</v>
+      </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A175" s="1"/>
+      <c r="A175" s="1">
+        <v>966501330329</v>
+      </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A176" s="1"/>
+      <c r="A176" s="1">
+        <v>966501780979</v>
+      </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A177" s="1"/>
+      <c r="A177" s="1">
+        <v>966501117607</v>
+      </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A178" s="1"/>
+      <c r="A178" s="1">
+        <v>966501564180</v>
+      </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A179" s="1"/>
+      <c r="A179" s="1">
+        <v>966502654937</v>
+      </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A180" s="1"/>
+      <c r="A180" s="1">
+        <v>966504712609</v>
+      </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A181" s="1"/>
+      <c r="A181" s="1">
+        <v>966503627442</v>
+      </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A182" s="1"/>
+      <c r="A182" s="1">
+        <v>966503894000</v>
+      </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A183" s="1"/>
+      <c r="A183" s="1">
+        <v>966501374367</v>
+      </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A184" s="1"/>
+      <c r="A184" s="1">
+        <v>966502884998</v>
+      </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A185" s="1"/>
+      <c r="A185" s="1">
+        <v>966503650166</v>
+      </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A186" s="1"/>
+      <c r="A186" s="1">
+        <v>966503652239</v>
+      </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A187" s="1"/>
+      <c r="A187" s="1">
+        <v>966504501601</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A188" s="1">
+        <v>966503923959</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A189" s="1">
+        <v>966504278669</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A190" s="1">
+        <v>966504518696</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A191" s="1">
+        <v>966504528204</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A192" s="1">
+        <v>966502514866</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A193" s="1">
+        <v>966504545601</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A194" s="1">
+        <v>966504307070</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A195" s="1">
+        <v>966501893436</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A196" s="1">
+        <v>966502965888</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A197" s="1">
+        <v>966504105632</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A198" s="1">
+        <v>966503503019</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A199" s="1">
+        <v>966503511244</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A200" s="1">
+        <v>966504864738</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A201" s="1">
+        <v>966503793558</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A202" s="1">
+        <v>966502170011</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A203" s="1">
+        <v>966502400567</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A204" s="1">
+        <v>966503829799</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A205" s="1">
+        <v>966502627424</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A206" s="1">
+        <v>966503317019</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5909DFD3-E710-4076-B44E-D6604FC0C5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDD7574-F8D7-40AA-8996-B5408B50F2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="2460" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
+    <workbookView xWindow="3140" yWindow="3140" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,8 +391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B65809-7069-482D-ABD6-D568B5E57C26}">
   <dimension ref="A1:A206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A206"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -407,1028 +407,816 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>966504132955</v>
+        <v>966503798881</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>966502581277</v>
+        <v>966503146411</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>966502798167</v>
+        <v>966502744416</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>966501514579</v>
+        <v>966504555509</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>966503558695</v>
+        <v>966501464007</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>966503833531</v>
+        <v>966504453138</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>966503838599</v>
+        <v>966504207516</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>966502411914</v>
+        <v>966503982950</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>966503045958</v>
+        <v>966502138759</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>966501546745</v>
+        <v>966503867166</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>966501994787</v>
+        <v>966503273977</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>966503053726</v>
+        <v>966502232738</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>966501777816</v>
+        <v>966504861761</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>966502431110</v>
+        <v>966503403703</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>966503865208</v>
+        <v>966503234313</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>966503338058</v>
+        <v>966502361692</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>966502221129</v>
+        <v>966501731895</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>966504242519</v>
+        <v>966504724334</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>966501173790</v>
+        <v>966504568156</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>966503129853</v>
+        <v>966504346552</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>966501616249</v>
+        <v>966502100337</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>966502488298</v>
+        <v>966503228619</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>966504270575</v>
+        <v>966502074877</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>966503400796</v>
+        <v>966504375342</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>966504274663</v>
+        <v>966502955112</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>966502917341</v>
+        <v>966503770296</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>966502284113</v>
+        <v>966503189938</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>966503695356</v>
+        <v>966502678936</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>966502930825</v>
+        <v>966504811933</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>966502299444</v>
+        <v>966504273672</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>966501654025</v>
+        <v>966502721840</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>966504546903</v>
+        <v>966501157914</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>966501656767</v>
+        <v>966504300080</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>966502303363</v>
+        <v>966501951549</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>966503191700</v>
+        <v>966503605319</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>966501660977</v>
+        <v>966503727991</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>966501228725</v>
+        <v>966503604289</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>966501444016</v>
+        <v>966504495484</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>966502532117</v>
+        <v>966501701845</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>966504813667</v>
+        <v>966502035533</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>966501249956</v>
+        <v>966501234776</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>966503998116</v>
+        <v>966503558735</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>966504595234</v>
+        <v>966501116020</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>966502771819</v>
+        <v>966501400699</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>966501935488</v>
+        <v>966503257644</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>966503251815</v>
+        <v>966502359707</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>966504140450</v>
+        <v>966502203922</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>966501292330</v>
+        <v>966501189755</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>966503814327</v>
+        <v>966503560809</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>966502822072</v>
+        <v>966502770935</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>966503315025</v>
+        <v>966503709003</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>966504913918</v>
+        <v>966504669295</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>966504192581</v>
+        <v>966504342185</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>966501119309</v>
+        <v>966501534054</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>966502012627</v>
+        <v>966503883026</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>966504721612</v>
+        <v>966502289865</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>966504725181</v>
+        <v>966504617682</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>966502481366</v>
+        <v>966504455979</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>966502063093</v>
+        <v>966504258846</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>966504280645</v>
+        <v>966501486026</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>966502705652</v>
+        <v>966504255968</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>966502285852</v>
+        <v>966504234935</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>966501881099</v>
+        <v>966504692224</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>966503706664</v>
+        <v>966502660567</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>966502525794</v>
+        <v>966502542335</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>966503733955</v>
+        <v>966502633799</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>966502116400</v>
+        <v>966503628474</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>966501244402</v>
+        <v>966503200440</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>966501258883</v>
+        <v>966502354135</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>966503233438</v>
+        <v>966504609788</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>966503775119</v>
+        <v>966503613366</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>966501939689</v>
+        <v>966504727144</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>966503510261</v>
+        <v>966501469591</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>966502790750</v>
+        <v>966502211922</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>966503796788</v>
+        <v>966503226663</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>966503279832</v>
+        <v>966504237672</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>966503809665</v>
+        <v>966504200055</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>966503557773</v>
+        <v>966504570075</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>966504659794</v>
+        <v>966502200310</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>966502200276</v>
+        <v>966503371221</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>966501553112</v>
+        <v>966502229064</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>966502430272</v>
+        <v>966502164120</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>966501565880</v>
+        <v>966501781848</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>966503877734</v>
+        <v>966504495505</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>966504222918</v>
+        <v>966503779864</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>966502448689</v>
+        <v>966502919076</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>966501142554</v>
+        <v>966502647712</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>966501149844</v>
+        <v>966503448436</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>966502027492</v>
+        <v>966504868440</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>966502661307</v>
+        <v>966501319609</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>966501814990</v>
+        <v>966501271136</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>966504714653</v>
+        <v>966504413833</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>966504716594</v>
+        <v>966503185989</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>966504719455</v>
+        <v>966502111007</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>966502893784</v>
+        <v>966504769095</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>966503406471</v>
+        <v>966504806573</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>966503935309</v>
+        <v>966503937303</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>966502515613</v>
+        <v>966502676665</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>966503446340</v>
+        <v>966504258856</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" s="1">
-        <v>966504801719</v>
-      </c>
+      <c r="A101" s="1"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" s="1">
-        <v>966502532129</v>
-      </c>
+      <c r="A102" s="1"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" s="1">
-        <v>966503451696</v>
-      </c>
+      <c r="A103" s="1"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104" s="1">
-        <v>966502536557</v>
-      </c>
+      <c r="A104" s="1"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" s="1">
-        <v>966503995206</v>
-      </c>
+      <c r="A105" s="1"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" s="1">
-        <v>966503997195</v>
-      </c>
+      <c r="A106" s="1"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" s="1">
-        <v>966502348486</v>
-      </c>
+      <c r="A107" s="1"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" s="1">
-        <v>966502568674</v>
-      </c>
+      <c r="A108" s="1"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" s="1">
-        <v>966503526447</v>
-      </c>
+      <c r="A109" s="1"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" s="1">
-        <v>966504649353</v>
-      </c>
+      <c r="A110" s="1"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111" s="1">
-        <v>966504660588</v>
-      </c>
+      <c r="A111" s="1"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A112" s="1">
-        <v>966502625212</v>
-      </c>
+      <c r="A112" s="1"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" s="1">
-        <v>966502837616</v>
-      </c>
+      <c r="A113" s="1"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" s="1">
-        <v>966504197327</v>
-      </c>
+      <c r="A114" s="1"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" s="1">
-        <v>966504697486</v>
-      </c>
+      <c r="A115" s="1"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" s="1">
-        <v>966502020052</v>
-      </c>
+      <c r="A116" s="1"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" s="1">
-        <v>966504704926</v>
-      </c>
+      <c r="A117" s="1"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A118" s="1">
-        <v>966504720539</v>
-      </c>
+      <c r="A118" s="1"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A119" s="1">
-        <v>966504721621</v>
-      </c>
+      <c r="A119" s="1"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A120" s="1">
-        <v>966504241637</v>
-      </c>
+      <c r="A120" s="1"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121" s="1">
-        <v>966502888903</v>
-      </c>
+      <c r="A121" s="1"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A122" s="1">
-        <v>966503905101</v>
-      </c>
+      <c r="A122" s="1"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A123" s="1">
-        <v>966504251066</v>
-      </c>
+      <c r="A123" s="1"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A124" s="1">
-        <v>966502261189</v>
-      </c>
+      <c r="A124" s="1"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A125" s="1">
-        <v>966502272121</v>
-      </c>
+      <c r="A125" s="1"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A126" s="1">
-        <v>966502301752</v>
-      </c>
+      <c r="A126" s="1"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A127" s="1">
-        <v>966501228732</v>
-      </c>
+      <c r="A127" s="1"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A128" s="1">
-        <v>966502950201</v>
-      </c>
+      <c r="A128" s="1"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A129" s="1">
-        <v>966502326951</v>
-      </c>
+      <c r="A129" s="1"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130" s="1">
-        <v>966503997198</v>
-      </c>
+      <c r="A130" s="1"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131" s="1">
-        <v>966502548616</v>
-      </c>
+      <c r="A131" s="1"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132" s="1">
-        <v>966501699383</v>
-      </c>
+      <c r="A132" s="1"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133" s="1">
-        <v>966504596878</v>
-      </c>
+      <c r="A133" s="1"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134" s="1">
-        <v>966502570255</v>
-      </c>
+      <c r="A134" s="1"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135" s="1">
-        <v>966503248807</v>
-      </c>
+      <c r="A135" s="1"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A136" s="1">
-        <v>966502360704</v>
-      </c>
+      <c r="A136" s="1"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A137" s="1">
-        <v>966504382218</v>
-      </c>
+      <c r="A137" s="1"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A138" s="1">
-        <v>966504626500</v>
-      </c>
+      <c r="A138" s="1"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139" s="1">
-        <v>966504875727</v>
-      </c>
+      <c r="A139" s="1"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140" s="1">
-        <v>966502606159</v>
-      </c>
+      <c r="A140" s="1"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A141" s="1">
-        <v>966501775428</v>
-      </c>
+      <c r="A141" s="1"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A142" s="1">
-        <v>966501113645</v>
-      </c>
+      <c r="A142" s="1"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A143" s="1">
-        <v>966503583303</v>
-      </c>
+      <c r="A143" s="1"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A144" s="1">
-        <v>966503059446</v>
-      </c>
+      <c r="A144" s="1"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A145" s="1">
-        <v>966501117606</v>
-      </c>
+      <c r="A145" s="1"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146" s="1">
-        <v>966503328443</v>
-      </c>
+      <c r="A146" s="1"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A147" s="1">
-        <v>966504440458</v>
-      </c>
+      <c r="A147" s="1"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A148" s="1">
-        <v>966504442283</v>
-      </c>
+      <c r="A148" s="1"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A149" s="1">
-        <v>966502007458</v>
-      </c>
+      <c r="A149" s="1"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A150" s="1">
-        <v>966503073599</v>
-      </c>
+      <c r="A150" s="1"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A151" s="1">
-        <v>966503875866</v>
-      </c>
+      <c r="A151" s="1"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A152" s="1">
-        <v>966502259724</v>
-      </c>
+      <c r="A152" s="1"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A153" s="1">
-        <v>966504254917</v>
-      </c>
+      <c r="A153" s="1"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A154" s="1">
-        <v>966501613622</v>
-      </c>
+      <c r="A154" s="1"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A155" s="1">
-        <v>966504278662</v>
-      </c>
+      <c r="A155" s="1"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A156" s="1">
-        <v>966503158635</v>
-      </c>
+      <c r="A156" s="1"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A157" s="1">
-        <v>966501414962</v>
-      </c>
+      <c r="A157" s="1"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A158" s="1">
-        <v>966501208002</v>
-      </c>
+      <c r="A158" s="1"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A159" s="1">
-        <v>966502511553</v>
-      </c>
+      <c r="A159" s="1"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A160" s="1">
-        <v>966501650444</v>
-      </c>
+      <c r="A160" s="1"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A161" s="1">
-        <v>966502518884</v>
-      </c>
+      <c r="A161" s="1"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A162" s="1">
-        <v>966504788521</v>
-      </c>
+      <c r="A162" s="1"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A163" s="1">
-        <v>966502096080</v>
-      </c>
+      <c r="A163" s="1"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A164" s="1">
-        <v>966503984988</v>
-      </c>
+      <c r="A164" s="1"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A165" s="1">
-        <v>966503752355</v>
-      </c>
+      <c r="A165" s="1"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A166" s="1">
-        <v>966502141965</v>
-      </c>
+      <c r="A166" s="1"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A167" s="1">
-        <v>966502996565</v>
-      </c>
+      <c r="A167" s="1"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A168" s="1">
-        <v>966504616699</v>
-      </c>
+      <c r="A168" s="1"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A169" s="1">
-        <v>966501512980</v>
-      </c>
+      <c r="A169" s="1"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A170" s="1">
-        <v>966502170008</v>
-      </c>
+      <c r="A170" s="1"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A171" s="1">
-        <v>966502818261</v>
-      </c>
+      <c r="A171" s="1"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A172" s="1">
-        <v>966504415716</v>
-      </c>
+      <c r="A172" s="1"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A173" s="1">
-        <v>966504179417</v>
-      </c>
+      <c r="A173" s="1"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A174" s="1">
-        <v>966504181331</v>
-      </c>
+      <c r="A174" s="1"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A175" s="1">
-        <v>966501330329</v>
-      </c>
+      <c r="A175" s="1"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A176" s="1">
-        <v>966501780979</v>
-      </c>
+      <c r="A176" s="1"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A177" s="1">
-        <v>966501117607</v>
-      </c>
+      <c r="A177" s="1"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A178" s="1">
-        <v>966501564180</v>
-      </c>
+      <c r="A178" s="1"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A179" s="1">
-        <v>966502654937</v>
-      </c>
+      <c r="A179" s="1"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A180" s="1">
-        <v>966504712609</v>
-      </c>
+      <c r="A180" s="1"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A181" s="1">
-        <v>966503627442</v>
-      </c>
+      <c r="A181" s="1"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A182" s="1">
-        <v>966503894000</v>
-      </c>
+      <c r="A182" s="1"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A183" s="1">
-        <v>966501374367</v>
-      </c>
+      <c r="A183" s="1"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A184" s="1">
-        <v>966502884998</v>
-      </c>
+      <c r="A184" s="1"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A185" s="1">
-        <v>966503650166</v>
-      </c>
+      <c r="A185" s="1"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A186" s="1">
-        <v>966503652239</v>
-      </c>
+      <c r="A186" s="1"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A187" s="1">
-        <v>966504501601</v>
-      </c>
+      <c r="A187" s="1"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A188" s="1">
-        <v>966503923959</v>
-      </c>
+      <c r="A188" s="1"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A189" s="1">
-        <v>966504278669</v>
-      </c>
+      <c r="A189" s="1"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A190" s="1">
-        <v>966504518696</v>
-      </c>
+      <c r="A190" s="1"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A191" s="1">
-        <v>966504528204</v>
-      </c>
+      <c r="A191" s="1"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A192" s="1">
-        <v>966502514866</v>
-      </c>
+      <c r="A192" s="1"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A193" s="1">
-        <v>966504545601</v>
-      </c>
+      <c r="A193" s="1"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A194" s="1">
-        <v>966504307070</v>
-      </c>
+      <c r="A194" s="1"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A195" s="1">
-        <v>966501893436</v>
-      </c>
+      <c r="A195" s="1"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A196" s="1">
-        <v>966502965888</v>
-      </c>
+      <c r="A196" s="1"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A197" s="1">
-        <v>966504105632</v>
-      </c>
+      <c r="A197" s="1"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A198" s="1">
-        <v>966503503019</v>
-      </c>
+      <c r="A198" s="1"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A199" s="1">
-        <v>966503511244</v>
-      </c>
+      <c r="A199" s="1"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A200" s="1">
-        <v>966504864738</v>
-      </c>
+      <c r="A200" s="1"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A201" s="1">
-        <v>966503793558</v>
-      </c>
+      <c r="A201" s="1"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A202" s="1">
-        <v>966502170011</v>
-      </c>
+      <c r="A202" s="1"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A203" s="1">
-        <v>966502400567</v>
-      </c>
+      <c r="A203" s="1"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A204" s="1">
-        <v>966503829799</v>
-      </c>
+      <c r="A204" s="1"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A205" s="1">
-        <v>966502627424</v>
-      </c>
+      <c r="A205" s="1"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A206" s="1">
-        <v>966503317019</v>
-      </c>
+      <c r="A206" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDD7574-F8D7-40AA-8996-B5408B50F2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F96F75-C60D-43BD-9181-FA6555E763E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="3140" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
+    <workbookView xWindow="3140" yWindow="3160" windowWidth="19200" windowHeight="9950" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,8 +391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B65809-7069-482D-ABD6-D568B5E57C26}">
   <dimension ref="A1:A206"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A100"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87:A185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -407,753 +407,923 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>966503798881</v>
+        <v>966501915552</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>966503146411</v>
+        <v>966502550154</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>966502744416</v>
+        <v>966502859094</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>966504555509</v>
+        <v>966502876914</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>966501464007</v>
+        <v>966502757946</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>966504453138</v>
+        <v>966503443399</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>966504207516</v>
+        <v>966502483702</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>966503982950</v>
+        <v>966503485330</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>966502138759</v>
+        <v>966501363490</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>966503867166</v>
+        <v>966503672231</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>966503273977</v>
+        <v>966502233456</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>966502232738</v>
+        <v>966504562787</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>966504861761</v>
+        <v>966502192749</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>966503403703</v>
+        <v>966502610975</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>966503234313</v>
+        <v>966502000307</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>966502361692</v>
+        <v>966504258857</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>966501731895</v>
+        <v>966501966490</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>966504724334</v>
+        <v>966502218120</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>966504568156</v>
+        <v>966503719694</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>966504346552</v>
+        <v>966501558662</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>966502100337</v>
+        <v>966503443384</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>966503228619</v>
+        <v>966502246342</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>966502074877</v>
+        <v>966504187845</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>966504375342</v>
+        <v>966503563063</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>966502955112</v>
+        <v>966501733876</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>966503770296</v>
+        <v>966503243784</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>966503189938</v>
+        <v>966504394284</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>966502678936</v>
+        <v>966501226317</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>966504811933</v>
+        <v>966503046005</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>966504273672</v>
+        <v>966504141466</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>966502721840</v>
+        <v>966503653300</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>966501157914</v>
+        <v>966502976538</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>966504300080</v>
+        <v>966504388622</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>966501951549</v>
+        <v>966503241888</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>966503605319</v>
+        <v>966503166368</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>966503727991</v>
+        <v>966504480538</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>966503604289</v>
+        <v>966503737511</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>966504495484</v>
+        <v>966502678229</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>966501701845</v>
+        <v>966504170712</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>966502035533</v>
+        <v>966503040228</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>966501234776</v>
+        <v>966503494007</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>966503558735</v>
+        <v>966502525823</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>966501116020</v>
+        <v>966501505259</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>966501400699</v>
+        <v>966501172297</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>966503257644</v>
+        <v>966504702979</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>966502359707</v>
+        <v>966501285984</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>966502203922</v>
+        <v>966502525104</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>966501189755</v>
+        <v>966501603671</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>966503560809</v>
+        <v>966504729811</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>966502770935</v>
+        <v>966503041098</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>966503709003</v>
+        <v>966502032253</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>966504669295</v>
+        <v>966502621474</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>966504342185</v>
+        <v>966502040553</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>966501534054</v>
+        <v>966504446749</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>966503883026</v>
+        <v>966504335215</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>966502289865</v>
+        <v>966501199985</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>966504617682</v>
+        <v>966502749144</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>966504455979</v>
+        <v>966502240712</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>966504258846</v>
+        <v>966504252015</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>966501486026</v>
+        <v>966504854359</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>966504255968</v>
+        <v>966502064872</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>966504234935</v>
+        <v>966501398204</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>966504692224</v>
+        <v>966501460411</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>966502660567</v>
+        <v>966503087155</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>966502542335</v>
+        <v>966502852881</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>966502633799</v>
+        <v>966502279585</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>966503628474</v>
+        <v>966501299334</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>966503200440</v>
+        <v>966501942901</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>966502354135</v>
+        <v>966503767391</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>966504609788</v>
+        <v>966501135116</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>966503613366</v>
+        <v>966501314145</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>966504727144</v>
+        <v>966502960078</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>966501469591</v>
+        <v>966502872075</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>966502211922</v>
+        <v>966501920821</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>966503226663</v>
+        <v>966503372088</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>966504237672</v>
+        <v>966502128808</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>966504200055</v>
+        <v>966503101712</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>966504570075</v>
+        <v>966504792887</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>966502200310</v>
+        <v>966501231813</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>966503371221</v>
+        <v>966502874500</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>966502229064</v>
+        <v>966503923995</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>966502164120</v>
+        <v>966504342175</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>966501781848</v>
+        <v>966502082983</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>966504495505</v>
+        <v>966502840799</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>966503779864</v>
+        <v>966501253256</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>966502919076</v>
+        <v>966503593730</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>966502647712</v>
+        <v>966503078105</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>966503448436</v>
+        <v>966504705009</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>966504868440</v>
+        <v>966504708742</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>966501319609</v>
+        <v>966501151443</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>966501271136</v>
+        <v>966504235870</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>966504413833</v>
+        <v>966501380372</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>966503185989</v>
+        <v>966503651327</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>966502111007</v>
+        <v>966503666203</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>966504769095</v>
+        <v>966503927958</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>966504806573</v>
+        <v>966504531912</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>966503937303</v>
+        <v>966501870709</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>966502676665</v>
+        <v>966502514097</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>966504258856</v>
+        <v>966504540573</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" s="1"/>
+      <c r="A101" s="1">
+        <v>966502727331</v>
+      </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" s="1"/>
+      <c r="A102" s="1">
+        <v>966501886560</v>
+      </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" s="1"/>
+      <c r="A103" s="1">
+        <v>966501442215</v>
+      </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104" s="1"/>
+      <c r="A104" s="1">
+        <v>966504334336</v>
+      </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" s="1"/>
+      <c r="A105" s="1">
+        <v>966503216983</v>
+      </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" s="1"/>
+      <c r="A106" s="1">
+        <v>966504817338</v>
+      </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" s="1"/>
+      <c r="A107" s="1">
+        <v>966501250024</v>
+      </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" s="1"/>
+      <c r="A108" s="1">
+        <v>966504338702</v>
+      </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" s="1"/>
+      <c r="A109" s="1">
+        <v>966504588966</v>
+      </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" s="1"/>
+      <c r="A110" s="1">
+        <v>966503756659</v>
+      </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111" s="1"/>
+      <c r="A111" s="1">
+        <v>966503232589</v>
+      </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A112" s="1"/>
+      <c r="A112" s="1">
+        <v>966504116692</v>
+      </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" s="1"/>
+      <c r="A113" s="1">
+        <v>966503515556</v>
+      </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" s="1"/>
+      <c r="A114" s="1">
+        <v>966503520157</v>
+      </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" s="1"/>
+      <c r="A115" s="1">
+        <v>966504146732</v>
+      </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" s="1"/>
+      <c r="A116" s="1">
+        <v>966501297671</v>
+      </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" s="1"/>
+      <c r="A117" s="1">
+        <v>966503847454</v>
+      </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A118" s="1"/>
+      <c r="A118" s="1">
+        <v>966504436064</v>
+      </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A119" s="1"/>
+      <c r="A119" s="1">
+        <v>966501560223</v>
+      </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A120" s="1"/>
+      <c r="A120" s="1">
+        <v>966502849856</v>
+      </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121" s="1"/>
+      <c r="A121" s="1">
+        <v>966502214984</v>
+      </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A122" s="1"/>
+      <c r="A122" s="1">
+        <v>966504704002</v>
+      </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A123" s="1"/>
+      <c r="A123" s="1">
+        <v>966504222056</v>
+      </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A124" s="1"/>
+      <c r="A124" s="1">
+        <v>966503888405</v>
+      </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A125" s="1"/>
+      <c r="A125" s="1">
+        <v>966503636673</v>
+      </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A126" s="1"/>
+      <c r="A126" s="1">
+        <v>966503116206</v>
+      </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A127" s="1"/>
+      <c r="A127" s="1">
+        <v>966504243523</v>
+      </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A128" s="1"/>
+      <c r="A128" s="1">
+        <v>966501601719</v>
+      </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A129" s="1"/>
+      <c r="A129" s="1">
+        <v>966502899389</v>
+      </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130" s="1"/>
+      <c r="A130" s="1">
+        <v>966502713425</v>
+      </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131" s="1"/>
+      <c r="A131" s="1">
+        <v>966504781080</v>
+      </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132" s="1"/>
+      <c r="A132" s="1">
+        <v>966503953795</v>
+      </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133" s="1"/>
+      <c r="A133" s="1">
+        <v>966503698707</v>
+      </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134" s="1"/>
+      <c r="A134" s="1">
+        <v>966502525130</v>
+      </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135" s="1"/>
+      <c r="A135" s="1">
+        <v>966501687225</v>
+      </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A136" s="1"/>
+      <c r="A136" s="1">
+        <v>966503999141</v>
+      </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A137" s="1"/>
+      <c r="A137" s="1">
+        <v>966502555372</v>
+      </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A138" s="1"/>
+      <c r="A138" s="1">
+        <v>966501278424</v>
+      </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139" s="1"/>
+      <c r="A139" s="1">
+        <v>966501949869</v>
+      </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140" s="1"/>
+      <c r="A140" s="1">
+        <v>966504882776</v>
+      </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A141" s="1"/>
+      <c r="A141" s="1">
+        <v>966504883758</v>
+      </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A142" s="1"/>
+      <c r="A142" s="1">
+        <v>966504902981</v>
+      </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A143" s="1"/>
+      <c r="A143" s="1">
+        <v>966504903999</v>
+      </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A144" s="1"/>
+      <c r="A144" s="1">
+        <v>966501544400</v>
+      </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A145" s="1"/>
+      <c r="A145" s="1">
+        <v>966502636233</v>
+      </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146" s="1"/>
+      <c r="A146" s="1">
+        <v>966503340932</v>
+      </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A147" s="1"/>
+      <c r="A147" s="1">
+        <v>966504213345</v>
+      </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A148" s="1"/>
+      <c r="A148" s="1">
+        <v>966504704009</v>
+      </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A149" s="1"/>
+      <c r="A149" s="1">
+        <v>966504222059</v>
+      </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A150" s="1"/>
+      <c r="A150" s="1">
+        <v>966502022930</v>
+      </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A151" s="1"/>
+      <c r="A151" s="1">
+        <v>966502873758</v>
+      </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A152" s="1"/>
+      <c r="A152" s="1">
+        <v>966502666129</v>
+      </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A153" s="1"/>
+      <c r="A153" s="1">
+        <v>966504241698</v>
+      </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A154" s="1"/>
+      <c r="A154" s="1">
+        <v>966502885084</v>
+      </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A155" s="1"/>
+      <c r="A155" s="1">
+        <v>966504507715</v>
+      </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A156" s="1"/>
+      <c r="A156" s="1">
+        <v>966503394837</v>
+      </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A157" s="1"/>
+      <c r="A157" s="1">
+        <v>966503155524</v>
+      </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A158" s="1"/>
+      <c r="A158" s="1">
+        <v>966502072439</v>
+      </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A159" s="1"/>
+      <c r="A159" s="1">
+        <v>966502923856</v>
+      </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A160" s="1"/>
+      <c r="A160" s="1">
+        <v>966504774299</v>
+      </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A161" s="1"/>
+      <c r="A161" s="1">
+        <v>966501419119</v>
+      </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A162" s="1"/>
+      <c r="A162" s="1">
+        <v>966503956521</v>
+      </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A163" s="1"/>
+      <c r="A163" s="1">
+        <v>966503704244</v>
+      </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A164" s="1"/>
+      <c r="A164" s="1">
+        <v>966504308919</v>
+      </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A165" s="1"/>
+      <c r="A165" s="1">
+        <v>966501442226</v>
+      </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A166" s="1"/>
+      <c r="A166" s="1">
+        <v>966504597857</v>
+      </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A167" s="1"/>
+      <c r="A167" s="1">
+        <v>966503502176</v>
+      </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A168" s="1"/>
+      <c r="A168" s="1">
+        <v>966504128489</v>
+      </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A169" s="1"/>
+      <c r="A169" s="1">
+        <v>966501942918</v>
+      </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A170" s="1"/>
+      <c r="A170" s="1">
+        <v>966502580547</v>
+      </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A171" s="1"/>
+      <c r="A171" s="1">
+        <v>966503262746</v>
+      </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A172" s="1"/>
+      <c r="A172" s="1">
+        <v>966502590183</v>
+      </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A173" s="1"/>
+      <c r="A173" s="1">
+        <v>966503532961</v>
+      </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A174" s="1"/>
+      <c r="A174" s="1">
+        <v>966501967315</v>
+      </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A175" s="1"/>
+      <c r="A175" s="1">
+        <v>966501313409</v>
+      </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A176" s="1"/>
+      <c r="A176" s="1">
+        <v>966501994025</v>
+      </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A177" s="1"/>
+      <c r="A177" s="1">
+        <v>966501332003</v>
+      </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A178" s="1"/>
+      <c r="A178" s="1">
+        <v>966502420268</v>
+      </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A179" s="1"/>
+      <c r="A179" s="1">
+        <v>966502205367</v>
+      </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A180" s="1"/>
+      <c r="A180" s="1">
+        <v>966502000347</v>
+      </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A181" s="1"/>
+      <c r="A181" s="1">
+        <v>966502852174</v>
+      </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A182" s="1"/>
+      <c r="A182" s="1">
+        <v>966503595999</v>
+      </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A183" s="1"/>
+      <c r="A183" s="1">
+        <v>966502223728</v>
+      </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A184" s="1"/>
+      <c r="A184" s="1">
+        <v>966504220161</v>
+      </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A185" s="1"/>
+      <c r="A185" s="1">
+        <v>966502032295</v>
+      </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186" s="1"/>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F96F75-C60D-43BD-9181-FA6555E763E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548DC06C-8C06-4F42-B170-CE09D3C52B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="3160" windowWidth="19200" windowHeight="9950" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
+    <workbookView xWindow="3180" yWindow="3180" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,8 +391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B65809-7069-482D-ABD6-D568B5E57C26}">
   <dimension ref="A1:A206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87:A185"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -407,923 +407,557 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>966501915552</v>
+        <v>96897774615</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>966502550154</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>966502859094</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>966502876914</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>966502757946</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>966503443399</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>966502483702</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>966503485330</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>966501363490</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>966503672231</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>966502233456</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>966504562787</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>966502192749</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>966502610975</v>
-      </c>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>966502000307</v>
-      </c>
+      <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>966504258857</v>
-      </c>
+      <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>966501966490</v>
-      </c>
+      <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>966502218120</v>
-      </c>
+      <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>966503719694</v>
-      </c>
+      <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>966501558662</v>
-      </c>
+      <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>966503443384</v>
-      </c>
+      <c r="A22" s="1"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>966502246342</v>
-      </c>
+      <c r="A23" s="1"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>966504187845</v>
-      </c>
+      <c r="A24" s="1"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>966503563063</v>
-      </c>
+      <c r="A25" s="1"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>966501733876</v>
-      </c>
+      <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>966503243784</v>
-      </c>
+      <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>966504394284</v>
-      </c>
+      <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>966501226317</v>
-      </c>
+      <c r="A29" s="1"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>966503046005</v>
-      </c>
+      <c r="A30" s="1"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>966504141466</v>
-      </c>
+      <c r="A31" s="1"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>966503653300</v>
-      </c>
+      <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>966502976538</v>
-      </c>
+      <c r="A33" s="1"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <v>966504388622</v>
-      </c>
+      <c r="A34" s="1"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <v>966503241888</v>
-      </c>
+      <c r="A35" s="1"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>966503166368</v>
-      </c>
+      <c r="A36" s="1"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>966504480538</v>
-      </c>
+      <c r="A37" s="1"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>966503737511</v>
-      </c>
+      <c r="A38" s="1"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>966502678229</v>
-      </c>
+      <c r="A39" s="1"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <v>966504170712</v>
-      </c>
+      <c r="A40" s="1"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>966503040228</v>
-      </c>
+      <c r="A41" s="1"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <v>966503494007</v>
-      </c>
+      <c r="A42" s="1"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>966502525823</v>
-      </c>
+      <c r="A43" s="1"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>966501505259</v>
-      </c>
+      <c r="A44" s="1"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <v>966501172297</v>
-      </c>
+      <c r="A45" s="1"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>966504702979</v>
-      </c>
+      <c r="A46" s="1"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
-        <v>966501285984</v>
-      </c>
+      <c r="A47" s="1"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
-        <v>966502525104</v>
-      </c>
+      <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
-        <v>966501603671</v>
-      </c>
+      <c r="A49" s="1"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
-        <v>966504729811</v>
-      </c>
+      <c r="A50" s="1"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
-        <v>966503041098</v>
-      </c>
+      <c r="A51" s="1"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
-        <v>966502032253</v>
-      </c>
+      <c r="A52" s="1"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
-        <v>966502621474</v>
-      </c>
+      <c r="A53" s="1"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
-        <v>966502040553</v>
-      </c>
+      <c r="A54" s="1"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
-        <v>966504446749</v>
-      </c>
+      <c r="A55" s="1"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
-        <v>966504335215</v>
-      </c>
+      <c r="A56" s="1"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
-        <v>966501199985</v>
-      </c>
+      <c r="A57" s="1"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
-        <v>966502749144</v>
-      </c>
+      <c r="A58" s="1"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
-        <v>966502240712</v>
-      </c>
+      <c r="A59" s="1"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
-        <v>966504252015</v>
-      </c>
+      <c r="A60" s="1"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
-        <v>966504854359</v>
-      </c>
+      <c r="A61" s="1"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
-        <v>966502064872</v>
-      </c>
+      <c r="A62" s="1"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
-        <v>966501398204</v>
-      </c>
+      <c r="A63" s="1"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
-        <v>966501460411</v>
-      </c>
+      <c r="A64" s="1"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
-        <v>966503087155</v>
-      </c>
+      <c r="A65" s="1"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
-        <v>966502852881</v>
-      </c>
+      <c r="A66" s="1"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
-        <v>966502279585</v>
-      </c>
+      <c r="A67" s="1"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
-        <v>966501299334</v>
-      </c>
+      <c r="A68" s="1"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
-        <v>966501942901</v>
-      </c>
+      <c r="A69" s="1"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
-        <v>966503767391</v>
-      </c>
+      <c r="A70" s="1"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
-        <v>966501135116</v>
-      </c>
+      <c r="A71" s="1"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
-        <v>966501314145</v>
-      </c>
+      <c r="A72" s="1"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
-        <v>966502960078</v>
-      </c>
+      <c r="A73" s="1"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
-        <v>966502872075</v>
-      </c>
+      <c r="A74" s="1"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
-        <v>966501920821</v>
-      </c>
+      <c r="A75" s="1"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
-        <v>966503372088</v>
-      </c>
+      <c r="A76" s="1"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
-        <v>966502128808</v>
-      </c>
+      <c r="A77" s="1"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
-        <v>966503101712</v>
-      </c>
+      <c r="A78" s="1"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
-        <v>966504792887</v>
-      </c>
+      <c r="A79" s="1"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
-        <v>966501231813</v>
-      </c>
+      <c r="A80" s="1"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
-        <v>966502874500</v>
-      </c>
+      <c r="A81" s="1"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
-        <v>966503923995</v>
-      </c>
+      <c r="A82" s="1"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
-        <v>966504342175</v>
-      </c>
+      <c r="A83" s="1"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" s="1">
-        <v>966502082983</v>
-      </c>
+      <c r="A84" s="1"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
-        <v>966502840799</v>
-      </c>
+      <c r="A85" s="1"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" s="1">
-        <v>966501253256</v>
-      </c>
+      <c r="A86" s="1"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
-        <v>966503593730</v>
-      </c>
+      <c r="A87" s="1"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
-        <v>966503078105</v>
-      </c>
+      <c r="A88" s="1"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
-        <v>966504705009</v>
-      </c>
+      <c r="A89" s="1"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" s="1">
-        <v>966504708742</v>
-      </c>
+      <c r="A90" s="1"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
-        <v>966501151443</v>
-      </c>
+      <c r="A91" s="1"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
-        <v>966504235870</v>
-      </c>
+      <c r="A92" s="1"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
-        <v>966501380372</v>
-      </c>
+      <c r="A93" s="1"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
-        <v>966503651327</v>
-      </c>
+      <c r="A94" s="1"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
-        <v>966503666203</v>
-      </c>
+      <c r="A95" s="1"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96" s="1">
-        <v>966503927958</v>
-      </c>
+      <c r="A96" s="1"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" s="1">
-        <v>966504531912</v>
-      </c>
+      <c r="A97" s="1"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" s="1">
-        <v>966501870709</v>
-      </c>
+      <c r="A98" s="1"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" s="1">
-        <v>966502514097</v>
-      </c>
+      <c r="A99" s="1"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" s="1">
-        <v>966504540573</v>
-      </c>
+      <c r="A100" s="1"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" s="1">
-        <v>966502727331</v>
-      </c>
+      <c r="A101" s="1"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" s="1">
-        <v>966501886560</v>
-      </c>
+      <c r="A102" s="1"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" s="1">
-        <v>966501442215</v>
-      </c>
+      <c r="A103" s="1"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104" s="1">
-        <v>966504334336</v>
-      </c>
+      <c r="A104" s="1"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" s="1">
-        <v>966503216983</v>
-      </c>
+      <c r="A105" s="1"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" s="1">
-        <v>966504817338</v>
-      </c>
+      <c r="A106" s="1"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" s="1">
-        <v>966501250024</v>
-      </c>
+      <c r="A107" s="1"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" s="1">
-        <v>966504338702</v>
-      </c>
+      <c r="A108" s="1"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" s="1">
-        <v>966504588966</v>
-      </c>
+      <c r="A109" s="1"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" s="1">
-        <v>966503756659</v>
-      </c>
+      <c r="A110" s="1"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111" s="1">
-        <v>966503232589</v>
-      </c>
+      <c r="A111" s="1"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A112" s="1">
-        <v>966504116692</v>
-      </c>
+      <c r="A112" s="1"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" s="1">
-        <v>966503515556</v>
-      </c>
+      <c r="A113" s="1"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" s="1">
-        <v>966503520157</v>
-      </c>
+      <c r="A114" s="1"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" s="1">
-        <v>966504146732</v>
-      </c>
+      <c r="A115" s="1"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" s="1">
-        <v>966501297671</v>
-      </c>
+      <c r="A116" s="1"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" s="1">
-        <v>966503847454</v>
-      </c>
+      <c r="A117" s="1"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A118" s="1">
-        <v>966504436064</v>
-      </c>
+      <c r="A118" s="1"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A119" s="1">
-        <v>966501560223</v>
-      </c>
+      <c r="A119" s="1"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A120" s="1">
-        <v>966502849856</v>
-      </c>
+      <c r="A120" s="1"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121" s="1">
-        <v>966502214984</v>
-      </c>
+      <c r="A121" s="1"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A122" s="1">
-        <v>966504704002</v>
-      </c>
+      <c r="A122" s="1"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A123" s="1">
-        <v>966504222056</v>
-      </c>
+      <c r="A123" s="1"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A124" s="1">
-        <v>966503888405</v>
-      </c>
+      <c r="A124" s="1"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A125" s="1">
-        <v>966503636673</v>
-      </c>
+      <c r="A125" s="1"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A126" s="1">
-        <v>966503116206</v>
-      </c>
+      <c r="A126" s="1"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A127" s="1">
-        <v>966504243523</v>
-      </c>
+      <c r="A127" s="1"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A128" s="1">
-        <v>966501601719</v>
-      </c>
+      <c r="A128" s="1"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A129" s="1">
-        <v>966502899389</v>
-      </c>
+      <c r="A129" s="1"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130" s="1">
-        <v>966502713425</v>
-      </c>
+      <c r="A130" s="1"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131" s="1">
-        <v>966504781080</v>
-      </c>
+      <c r="A131" s="1"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132" s="1">
-        <v>966503953795</v>
-      </c>
+      <c r="A132" s="1"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133" s="1">
-        <v>966503698707</v>
-      </c>
+      <c r="A133" s="1"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134" s="1">
-        <v>966502525130</v>
-      </c>
+      <c r="A134" s="1"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135" s="1">
-        <v>966501687225</v>
-      </c>
+      <c r="A135" s="1"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A136" s="1">
-        <v>966503999141</v>
-      </c>
+      <c r="A136" s="1"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A137" s="1">
-        <v>966502555372</v>
-      </c>
+      <c r="A137" s="1"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A138" s="1">
-        <v>966501278424</v>
-      </c>
+      <c r="A138" s="1"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139" s="1">
-        <v>966501949869</v>
-      </c>
+      <c r="A139" s="1"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140" s="1">
-        <v>966504882776</v>
-      </c>
+      <c r="A140" s="1"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A141" s="1">
-        <v>966504883758</v>
-      </c>
+      <c r="A141" s="1"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A142" s="1">
-        <v>966504902981</v>
-      </c>
+      <c r="A142" s="1"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A143" s="1">
-        <v>966504903999</v>
-      </c>
+      <c r="A143" s="1"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A144" s="1">
-        <v>966501544400</v>
-      </c>
+      <c r="A144" s="1"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A145" s="1">
-        <v>966502636233</v>
-      </c>
+      <c r="A145" s="1"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146" s="1">
-        <v>966503340932</v>
-      </c>
+      <c r="A146" s="1"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A147" s="1">
-        <v>966504213345</v>
-      </c>
+      <c r="A147" s="1"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A148" s="1">
-        <v>966504704009</v>
-      </c>
+      <c r="A148" s="1"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A149" s="1">
-        <v>966504222059</v>
-      </c>
+      <c r="A149" s="1"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A150" s="1">
-        <v>966502022930</v>
-      </c>
+      <c r="A150" s="1"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A151" s="1">
-        <v>966502873758</v>
-      </c>
+      <c r="A151" s="1"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A152" s="1">
-        <v>966502666129</v>
-      </c>
+      <c r="A152" s="1"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A153" s="1">
-        <v>966504241698</v>
-      </c>
+      <c r="A153" s="1"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A154" s="1">
-        <v>966502885084</v>
-      </c>
+      <c r="A154" s="1"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A155" s="1">
-        <v>966504507715</v>
-      </c>
+      <c r="A155" s="1"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A156" s="1">
-        <v>966503394837</v>
-      </c>
+      <c r="A156" s="1"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A157" s="1">
-        <v>966503155524</v>
-      </c>
+      <c r="A157" s="1"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A158" s="1">
-        <v>966502072439</v>
-      </c>
+      <c r="A158" s="1"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A159" s="1">
-        <v>966502923856</v>
-      </c>
+      <c r="A159" s="1"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A160" s="1">
-        <v>966504774299</v>
-      </c>
+      <c r="A160" s="1"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A161" s="1">
-        <v>966501419119</v>
-      </c>
+      <c r="A161" s="1"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A162" s="1">
-        <v>966503956521</v>
-      </c>
+      <c r="A162" s="1"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A163" s="1">
-        <v>966503704244</v>
-      </c>
+      <c r="A163" s="1"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A164" s="1">
-        <v>966504308919</v>
-      </c>
+      <c r="A164" s="1"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A165" s="1">
-        <v>966501442226</v>
-      </c>
+      <c r="A165" s="1"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A166" s="1">
-        <v>966504597857</v>
-      </c>
+      <c r="A166" s="1"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A167" s="1">
-        <v>966503502176</v>
-      </c>
+      <c r="A167" s="1"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A168" s="1">
-        <v>966504128489</v>
-      </c>
+      <c r="A168" s="1"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A169" s="1">
-        <v>966501942918</v>
-      </c>
+      <c r="A169" s="1"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A170" s="1">
-        <v>966502580547</v>
-      </c>
+      <c r="A170" s="1"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A171" s="1">
-        <v>966503262746</v>
-      </c>
+      <c r="A171" s="1"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A172" s="1">
-        <v>966502590183</v>
-      </c>
+      <c r="A172" s="1"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A173" s="1">
-        <v>966503532961</v>
-      </c>
+      <c r="A173" s="1"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A174" s="1">
-        <v>966501967315</v>
-      </c>
+      <c r="A174" s="1"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A175" s="1">
-        <v>966501313409</v>
-      </c>
+      <c r="A175" s="1"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A176" s="1">
-        <v>966501994025</v>
-      </c>
+      <c r="A176" s="1"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A177" s="1">
-        <v>966501332003</v>
-      </c>
+      <c r="A177" s="1"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A178" s="1">
-        <v>966502420268</v>
-      </c>
+      <c r="A178" s="1"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A179" s="1">
-        <v>966502205367</v>
-      </c>
+      <c r="A179" s="1"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A180" s="1">
-        <v>966502000347</v>
-      </c>
+      <c r="A180" s="1"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A181" s="1">
-        <v>966502852174</v>
-      </c>
+      <c r="A181" s="1"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A182" s="1">
-        <v>966503595999</v>
-      </c>
+      <c r="A182" s="1"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A183" s="1">
-        <v>966502223728</v>
-      </c>
+      <c r="A183" s="1"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A184" s="1">
-        <v>966504220161</v>
-      </c>
+      <c r="A184" s="1"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A185" s="1">
-        <v>966502032295</v>
-      </c>
+      <c r="A185" s="1"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186" s="1"/>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548DC06C-8C06-4F42-B170-CE09D3C52B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE8A04C-7F52-41EA-926A-236893750D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="3180" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
@@ -43,13 +43,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -60,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,13 +74,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,7 +416,7 @@
   <dimension ref="A1:A206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -400,309 +424,505 @@
     <col min="1" max="1" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>96897774615</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" s="1"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" s="1"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" s="1"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" s="1"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" s="1"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" s="1"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" s="1"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" s="1"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" s="1"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" s="1"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" s="1"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" s="1"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" s="1"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" s="1"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" s="1"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" s="1"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" s="1"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" s="1"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" s="1"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" s="1"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92" s="1"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" s="1"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94" s="1"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" s="1"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96" s="1"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" s="1"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" s="1"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" s="1"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" s="1"/>
+    <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>96876929176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>96896464008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>96898222710</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>96899015990</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>96893655352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>96892868317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>96878488423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>96879337793</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>96898081522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>96894949663</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>96892855507</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>96894172882</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>96892074021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>96899770098</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>96897850339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>96872041491</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>96879330900</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
+        <v>96897076337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="2">
+        <v>96871566436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="2">
+        <v>96871513547</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="2">
+        <v>96879447923</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="2">
+        <v>96897780448</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="2">
+        <v>96891716133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="2">
+        <v>96898552777</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="2">
+        <v>96894994187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="2">
+        <v>96877188556</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="2">
+        <v>96894172347</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="2">
+        <v>96894334310</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="2">
+        <v>96892807208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="2">
+        <v>96891944202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="2">
+        <v>96897077328</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="2">
+        <v>96897827180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="2">
+        <v>96894453242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="2">
+        <v>96877109010</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="2">
+        <v>96891936732</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="2">
+        <v>96899793884</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="2">
+        <v>96892418454</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="2">
+        <v>96871794093</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="2">
+        <v>96899433644</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="2">
+        <v>96897172322</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="2">
+        <v>96896420029</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="2">
+        <v>96890644590</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="2">
+        <v>96894341435</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="2">
+        <v>96894794114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="2">
+        <v>96871168595</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="2">
+        <v>96899436698</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="2">
+        <v>96895440914</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="2">
+        <v>96871536660</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="2">
+        <v>96892355993</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="2">
+        <v>96894243683</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="2">
+        <v>96899659516</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="2">
+        <v>96890950454</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="2">
+        <v>96897782929</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="2">
+        <v>96877552733</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="2">
+        <v>96896341823</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="2">
+        <v>96899345378</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="2">
+        <v>96899266252</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="2">
+        <v>96898013089</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="2">
+        <v>96897090463</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="2">
+        <v>96891240455</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="2">
+        <v>96879180540</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="2">
+        <v>96893901401</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="2">
+        <v>96878404022</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="2">
+        <v>96897110830</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="2">
+        <v>96899750750</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="2">
+        <v>96894252433</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="2">
+        <v>96893973617</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="2">
+        <v>96894888135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="2">
+        <v>96892353230</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="2">
+        <v>96896644398</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="2">
+        <v>96892775526</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="2">
+        <v>96897006682</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="2">
+        <v>96896264144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="2">
+        <v>96872789111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="2">
+        <v>96899256262</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="2">
+        <v>96897034000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="2">
+        <v>96897255447</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="2">
+        <v>96896636909</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="2">
+        <v>96897406121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="2">
+        <v>96898817717</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="2">
+        <v>96899160018</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="2">
+        <v>96898537085</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="2">
+        <v>96876943222</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="2">
+        <v>96879407444</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="2">
+        <v>96892050348</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="2">
+        <v>96894261518</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="2">
+        <v>96879797874</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="2">
+        <v>96871714744</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="2">
+        <v>96891781099</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="2">
+        <v>96891944503</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="2">
+        <v>96893367077</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="2">
+        <v>96899371330</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="2">
+        <v>96893258544</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="2">
+        <v>96891481858</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="2">
+        <v>96891183151</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="2">
+        <v>96871119165</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="2">
+        <v>96897535580</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="2">
+        <v>96899551126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="2">
+        <v>96894249833</v>
+      </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE8A04C-7F52-41EA-926A-236893750D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5C3988-8524-4A1F-A10D-2D917B5A096D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="3180" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
@@ -416,7 +416,7 @@
   <dimension ref="A1:A206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A100"/>
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -431,498 +431,482 @@
     </row>
     <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
-        <v>96876929176</v>
+        <v>96892394462</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
-        <v>96896464008</v>
+        <v>96897886798</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
-        <v>96898222710</v>
+        <v>96894706806</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
-        <v>96899015990</v>
+        <v>96891321013</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
-        <v>96893655352</v>
+        <v>96891741868</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
-        <v>96892868317</v>
+        <v>96890609992</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
-        <v>96878488423</v>
+        <v>96893610799</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
-        <v>96879337793</v>
+        <v>96896715773</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
-        <v>96898081522</v>
+        <v>96896133693</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
-        <v>96894949663</v>
+        <v>96897294715</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
-        <v>96892855507</v>
+        <v>96899880060</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
-        <v>96894172882</v>
+        <v>96895990177</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
-        <v>96892074021</v>
+        <v>96898557007</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
-        <v>96899770098</v>
+        <v>96879201220</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
-        <v>96897850339</v>
+        <v>96895782156</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
-        <v>96872041491</v>
+        <v>96892549807</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
-        <v>96879330900</v>
+        <v>96899853553</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
-        <v>96897076337</v>
+        <v>96898168447</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
-        <v>96871566436</v>
+        <v>96891231328</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
-        <v>96871513547</v>
+        <v>96899592595</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
-        <v>96879447923</v>
+        <v>96895864392</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
-        <v>96897780448</v>
+        <v>96899330831</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
-        <v>96891716133</v>
+        <v>96899762044</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
-        <v>96898552777</v>
+        <v>96879050220</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
-        <v>96894994187</v>
+        <v>96890991012</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
-        <v>96877188556</v>
+        <v>96894623743</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
-        <v>96894172347</v>
+        <v>96898828535</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
-        <v>96894334310</v>
+        <v>96894941314</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
-        <v>96892807208</v>
+        <v>96895667029</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
-        <v>96891944202</v>
+        <v>96895647228</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
-        <v>96897077328</v>
+        <v>96871118041</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
-        <v>96897827180</v>
+        <v>96891691917</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
-        <v>96894453242</v>
+        <v>96878003441</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
-        <v>96877109010</v>
+        <v>96897611224</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
-        <v>96891936732</v>
+        <v>96877429616</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
-        <v>96899793884</v>
+        <v>96871931999</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
-        <v>96892418454</v>
+        <v>96898800107</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
-        <v>96871794093</v>
+        <v>96893536601</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
-        <v>96899433644</v>
+        <v>96892142272</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
-        <v>96897172322</v>
+        <v>96897093719</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
-        <v>96896420029</v>
+        <v>96896591037</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
-        <v>96890644590</v>
+        <v>96872289615</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
-        <v>96894341435</v>
+        <v>96895623233</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
-        <v>96894794114</v>
+        <v>96896080480</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
-        <v>96871168595</v>
+        <v>96893959118</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
-        <v>96899436698</v>
+        <v>96877451303</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
-        <v>96895440914</v>
+        <v>96896750701</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
-        <v>96871536660</v>
+        <v>96899389415</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
-        <v>96892355993</v>
+        <v>96895997015</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
-        <v>96894243683</v>
+        <v>96897729191</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
-        <v>96899659516</v>
+        <v>96897910091</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
-        <v>96890950454</v>
+        <v>96891280888</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
-        <v>96897782929</v>
+        <v>96896566544</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
-        <v>96877552733</v>
+        <v>96892764464</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
-        <v>96896341823</v>
+        <v>96897787190</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
-        <v>96899345378</v>
+        <v>96899521902</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
-        <v>96899266252</v>
+        <v>96897551773</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
-        <v>96898013089</v>
+        <v>96890160242</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
-        <v>96897090463</v>
+        <v>96871116488</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
-        <v>96891240455</v>
+        <v>96897476487</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
-        <v>96879180540</v>
+        <v>96879066886</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
-        <v>96893901401</v>
+        <v>96898910541</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
-        <v>96878404022</v>
+        <v>96872152263</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
-        <v>96897110830</v>
+        <v>96891714834</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
-        <v>96899750750</v>
+        <v>96898214458</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
-        <v>96894252433</v>
+        <v>96897805016</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
-        <v>96893973617</v>
+        <v>96879400529</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
-        <v>96894888135</v>
+        <v>96897449044</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
-        <v>96892353230</v>
+        <v>96895985260</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
-        <v>96896644398</v>
+        <v>96899015271</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
-        <v>96892775526</v>
+        <v>96891156833</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
-        <v>96897006682</v>
+        <v>96899850560</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
-        <v>96896264144</v>
+        <v>96891723941</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
-        <v>96872789111</v>
+        <v>96896594330</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
-        <v>96899256262</v>
+        <v>96894963855</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
-        <v>96897034000</v>
+        <v>96894616119</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
-        <v>96897255447</v>
+        <v>96897112371</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
-        <v>96896636909</v>
+        <v>96891373367</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
-        <v>96897406121</v>
+        <v>96898932898</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
-        <v>96898817717</v>
+        <v>96893330079</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
-        <v>96899160018</v>
+        <v>96893658008</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
-        <v>96898537085</v>
+        <v>96893314125</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
-        <v>96876943222</v>
+        <v>96897970031</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
-        <v>96879407444</v>
+        <v>96898856708</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
-        <v>96892050348</v>
+        <v>96897857110</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
-        <v>96894261518</v>
+        <v>96872578844</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
-        <v>96879797874</v>
+        <v>96898123765</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
-        <v>96871714744</v>
+        <v>96892770654</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
-        <v>96891781099</v>
+        <v>96899440444</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
-        <v>96891944503</v>
+        <v>96892021056</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2">
-        <v>96893367077</v>
+        <v>96879098924</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="2">
-        <v>96899371330</v>
-      </c>
+      <c r="A93" s="2"/>
     </row>
     <row r="94" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="2">
-        <v>96893258544</v>
-      </c>
+      <c r="A94" s="2"/>
     </row>
     <row r="95" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="2">
-        <v>96891481858</v>
-      </c>
+      <c r="A95" s="2"/>
     </row>
     <row r="96" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="2">
-        <v>96891183151</v>
-      </c>
+      <c r="A96" s="2"/>
     </row>
     <row r="97" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="2">
-        <v>96871119165</v>
-      </c>
+      <c r="A97" s="2"/>
     </row>
     <row r="98" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="2">
-        <v>96897535580</v>
-      </c>
+      <c r="A98" s="2"/>
     </row>
     <row r="99" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="2">
-        <v>96899551126</v>
-      </c>
+      <c r="A99" s="2"/>
     </row>
     <row r="100" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="2">
-        <v>96894249833</v>
-      </c>
+      <c r="A100" s="2"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5C3988-8524-4A1F-A10D-2D917B5A096D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB9A829-F8DF-4EB8-8710-2EFA35AE4979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="3180" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
+    <workbookView xWindow="3520" yWindow="3520" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,7 +416,7 @@
   <dimension ref="A1:A206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+      <selection activeCell="A2" sqref="A2:A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -431,515 +431,553 @@
     </row>
     <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
-        <v>96892394462</v>
+        <v>96896761060</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
-        <v>96897886798</v>
+        <v>96898205492</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
-        <v>96894706806</v>
+        <v>96897160787</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
-        <v>96891321013</v>
+        <v>96890992886</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
-        <v>96891741868</v>
+        <v>96892114147</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
-        <v>96890609992</v>
+        <v>96891232449</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
-        <v>96893610799</v>
+        <v>96896422824</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
-        <v>96896715773</v>
+        <v>96897181992</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
-        <v>96896133693</v>
+        <v>96891911980</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
-        <v>96897294715</v>
+        <v>96897901466</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
-        <v>96899880060</v>
+        <v>96872205005</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
-        <v>96895990177</v>
+        <v>96871960924</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
-        <v>96898557007</v>
+        <v>96895561667</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
-        <v>96879201220</v>
+        <v>96879190484</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
-        <v>96895782156</v>
+        <v>96895943434</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
-        <v>96892549807</v>
+        <v>96877285052</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
-        <v>96899853553</v>
+        <v>96893223989</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
-        <v>96898168447</v>
+        <v>96895920954</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
-        <v>96891231328</v>
+        <v>96890141654</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
-        <v>96899592595</v>
+        <v>96878112466</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
-        <v>96895864392</v>
+        <v>96899226990</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
-        <v>96899330831</v>
+        <v>96897460698</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
-        <v>96899762044</v>
+        <v>96897790913</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
-        <v>96879050220</v>
+        <v>96899206979</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
-        <v>96890991012</v>
+        <v>96892277890</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
-        <v>96894623743</v>
+        <v>96893696428</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
-        <v>96898828535</v>
+        <v>96896978297</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
-        <v>96894941314</v>
+        <v>96896004418</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
-        <v>96895667029</v>
+        <v>96897273144</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
-        <v>96895647228</v>
+        <v>96890918130</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
-        <v>96871118041</v>
+        <v>96871134555</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
-        <v>96891691917</v>
+        <v>96871516850</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
-        <v>96878003441</v>
+        <v>96894242020</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
-        <v>96897611224</v>
+        <v>96894511167</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
-        <v>96877429616</v>
+        <v>96899896011</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
-        <v>96871931999</v>
+        <v>96891233117</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
-        <v>96898800107</v>
+        <v>96895999250</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
-        <v>96893536601</v>
+        <v>96899258513</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
-        <v>96892142272</v>
+        <v>96892287408</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
-        <v>96897093719</v>
+        <v>96896703233</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
-        <v>96896591037</v>
+        <v>96892600226</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
-        <v>96872289615</v>
+        <v>96879333279</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
-        <v>96895623233</v>
+        <v>96896165590</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
-        <v>96896080480</v>
+        <v>96893513636</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
-        <v>96893959118</v>
+        <v>96872612777</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
-        <v>96877451303</v>
+        <v>96871963815</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
-        <v>96896750701</v>
+        <v>96879021029</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
-        <v>96899389415</v>
+        <v>96897206696</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
-        <v>96895997015</v>
+        <v>96894116313</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
-        <v>96897729191</v>
+        <v>96894718497</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
-        <v>96897910091</v>
+        <v>96894741755</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
-        <v>96891280888</v>
+        <v>96890102663</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
-        <v>96896566544</v>
+        <v>96899266264</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
-        <v>96892764464</v>
+        <v>96891172972</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
-        <v>96897787190</v>
+        <v>96898205858</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
-        <v>96899521902</v>
+        <v>96894117813</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
-        <v>96897551773</v>
+        <v>96891227720</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
-        <v>96890160242</v>
+        <v>96872838777</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
-        <v>96871116488</v>
+        <v>96893289386</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
-        <v>96897476487</v>
+        <v>96899687228</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
-        <v>96879066886</v>
+        <v>96893244844</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
-        <v>96898910541</v>
+        <v>96892030232</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
-        <v>96872152263</v>
+        <v>96893166848</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
-        <v>96891714834</v>
+        <v>96879998879</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
-        <v>96898214458</v>
+        <v>96872365191</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
-        <v>96897805016</v>
+        <v>96879112535</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
-        <v>96879400529</v>
+        <v>96899023345</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
-        <v>96897449044</v>
+        <v>96896500219</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
-        <v>96895985260</v>
+        <v>96898853896</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
-        <v>96899015271</v>
+        <v>96894495550</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
-        <v>96891156833</v>
+        <v>96896567199</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
-        <v>96899850560</v>
+        <v>96894011995</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
-        <v>96891723941</v>
+        <v>96895282161</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
-        <v>96896594330</v>
+        <v>96894095152</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
-        <v>96894963855</v>
+        <v>96897397334</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
-        <v>96894616119</v>
+        <v>96895448768</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
-        <v>96897112371</v>
+        <v>96897872533</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
-        <v>96891373367</v>
+        <v>96879968111</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
-        <v>96898932898</v>
+        <v>96894059316</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
-        <v>96893330079</v>
+        <v>96893606004</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
-        <v>96893658008</v>
+        <v>96899445775</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
-        <v>96893314125</v>
+        <v>96895899998</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
-        <v>96897970031</v>
+        <v>96897871814</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
-        <v>96898856708</v>
+        <v>96896680088</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
-        <v>96897857110</v>
+        <v>96891745424</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
-        <v>96872578844</v>
+        <v>96893807380</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
-        <v>96898123765</v>
+        <v>96892181139</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
-        <v>96892770654</v>
+        <v>96894397332</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
-        <v>96899440444</v>
+        <v>96892139513</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
-        <v>96892021056</v>
+        <v>96871750604</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2">
-        <v>96879098924</v>
+        <v>96879235115</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="2"/>
+      <c r="A93" s="2">
+        <v>96896197972</v>
+      </c>
     </row>
     <row r="94" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="2"/>
+      <c r="A94" s="2">
+        <v>96878911497</v>
+      </c>
     </row>
     <row r="95" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="2"/>
+      <c r="A95" s="2">
+        <v>96896416228</v>
+      </c>
     </row>
     <row r="96" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="2"/>
+      <c r="A96" s="2">
+        <v>96891141158</v>
+      </c>
     </row>
     <row r="97" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="2"/>
+      <c r="A97" s="2">
+        <v>96890603316</v>
+      </c>
     </row>
     <row r="98" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="2"/>
+      <c r="A98" s="2">
+        <v>96898807588</v>
+      </c>
     </row>
     <row r="99" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="2"/>
+      <c r="A99" s="2">
+        <v>96896220876</v>
+      </c>
     </row>
     <row r="100" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="2"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" s="1"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" s="1"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" s="1"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104" s="1"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" s="1"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" s="1"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" s="1"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" s="1"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" s="1"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" s="1"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111" s="1"/>
+      <c r="A100" s="2">
+        <v>96898115539</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="2">
+        <v>96871594241</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="2">
+        <v>96899241009</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="2">
+        <v>96893931222</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="2">
+        <v>96898911574</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="2">
+        <v>96871959516</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="2">
+        <v>96894009969</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="2">
+        <v>96894421718</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="2">
+        <v>96896571441</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="2">
+        <v>96893803513</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="2">
+        <v>96892420097</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="2">
+        <v>96897713600</v>
+      </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB9A829-F8DF-4EB8-8710-2EFA35AE4979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C6C1AE-509B-46D2-8C0B-CBAD14D5B9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="3520" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
+    <workbookView xWindow="3180" yWindow="3180" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,7 +416,7 @@
   <dimension ref="A1:A206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A111"/>
+      <selection activeCell="A2" sqref="A2:A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -431,643 +431,703 @@
     </row>
     <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
-        <v>96896761060</v>
+        <v>96894126091</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
-        <v>96898205492</v>
+        <v>96898218137</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
-        <v>96897160787</v>
+        <v>96894523567</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
-        <v>96890992886</v>
+        <v>96892297947</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
-        <v>96892114147</v>
+        <v>96892464218</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
-        <v>96891232449</v>
+        <v>96894342300</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
-        <v>96896422824</v>
+        <v>96895785995</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
-        <v>96897181992</v>
+        <v>96895999859</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
-        <v>96891911980</v>
+        <v>96891714935</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
-        <v>96897901466</v>
+        <v>96895910044</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
-        <v>96872205005</v>
+        <v>96891846646</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
-        <v>96871960924</v>
+        <v>96894347760</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
-        <v>96895561667</v>
+        <v>96892747017</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
-        <v>96879190484</v>
+        <v>96897837758</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
-        <v>96895943434</v>
+        <v>96890635483</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
-        <v>96877285052</v>
+        <v>96890633004</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
-        <v>96893223989</v>
+        <v>96896099600</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
-        <v>96895920954</v>
+        <v>96895060869</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
-        <v>96890141654</v>
+        <v>96897570256</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
-        <v>96878112466</v>
+        <v>96894111241</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
-        <v>96899226990</v>
+        <v>96892676032</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
-        <v>96897460698</v>
+        <v>96898098817</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
-        <v>96897790913</v>
+        <v>96895195278</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
-        <v>96899206979</v>
+        <v>96898843433</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
-        <v>96892277890</v>
+        <v>96891733743</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
-        <v>96893696428</v>
+        <v>96898562865</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
-        <v>96896978297</v>
+        <v>96897839204</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
-        <v>96896004418</v>
+        <v>96893356056</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
-        <v>96897273144</v>
+        <v>96872728288</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
-        <v>96890918130</v>
+        <v>96891469777</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
-        <v>96871134555</v>
+        <v>96879940099</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
-        <v>96871516850</v>
+        <v>96896450667</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
-        <v>96894242020</v>
+        <v>96892583849</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
-        <v>96894511167</v>
+        <v>96894011600</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
-        <v>96899896011</v>
+        <v>96894439008</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
-        <v>96891233117</v>
+        <v>96895110160</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
-        <v>96895999250</v>
+        <v>96897886558</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
-        <v>96899258513</v>
+        <v>96895767479</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
-        <v>96892287408</v>
+        <v>96899683967</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
-        <v>96896703233</v>
+        <v>96871147221</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
-        <v>96892600226</v>
+        <v>96891996999</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
-        <v>96879333279</v>
+        <v>96893859343</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
-        <v>96896165590</v>
+        <v>96894939225</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
-        <v>96893513636</v>
+        <v>96895103441</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
-        <v>96872612777</v>
+        <v>96897697656</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
-        <v>96871963815</v>
+        <v>96894488555</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
-        <v>96879021029</v>
+        <v>96891733763</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
-        <v>96897206696</v>
+        <v>96891492752</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
-        <v>96894116313</v>
+        <v>96892670636</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
-        <v>96894718497</v>
+        <v>96897744954</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
-        <v>96894741755</v>
+        <v>96899821578</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
-        <v>96890102663</v>
+        <v>96896032272</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
-        <v>96899266264</v>
+        <v>96891415527</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
-        <v>96891172972</v>
+        <v>96894163100</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
-        <v>96898205858</v>
+        <v>96899349354</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
-        <v>96894117813</v>
+        <v>96897869665</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
-        <v>96891227720</v>
+        <v>96894408826</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
-        <v>96872838777</v>
+        <v>96899422881</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
-        <v>96893289386</v>
+        <v>96891773774</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
-        <v>96899687228</v>
+        <v>96897849887</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
-        <v>96893244844</v>
+        <v>96891479971</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
-        <v>96892030232</v>
+        <v>96871550818</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
-        <v>96893166848</v>
+        <v>96891355513</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
-        <v>96879998879</v>
+        <v>96891191570</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
-        <v>96872365191</v>
+        <v>96899441204</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
-        <v>96879112535</v>
+        <v>96898269494</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
-        <v>96899023345</v>
+        <v>96894087658</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
-        <v>96896500219</v>
+        <v>96898202029</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
-        <v>96898853896</v>
+        <v>96895795132</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
-        <v>96894495550</v>
+        <v>96895817645</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
-        <v>96896567199</v>
+        <v>96892508722</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
-        <v>96894011995</v>
+        <v>96895127934</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
-        <v>96895282161</v>
+        <v>96897904424</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
-        <v>96894095152</v>
+        <v>96892070190</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
-        <v>96897397334</v>
+        <v>96891925440</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
-        <v>96895448768</v>
+        <v>96897199899</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
-        <v>96897872533</v>
+        <v>96890456645</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
-        <v>96879968111</v>
+        <v>96892441449</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
-        <v>96894059316</v>
+        <v>96895111464</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
-        <v>96893606004</v>
+        <v>96894445914</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
-        <v>96899445775</v>
+        <v>96892673216</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
-        <v>96895899998</v>
+        <v>96871782817</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
-        <v>96897871814</v>
+        <v>96893585585</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
-        <v>96896680088</v>
+        <v>96891182910</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
-        <v>96891745424</v>
+        <v>96897800373</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
-        <v>96893807380</v>
+        <v>96898200982</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
-        <v>96892181139</v>
+        <v>96895369222</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
-        <v>96894397332</v>
+        <v>96893340199</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
-        <v>96892139513</v>
+        <v>96897676971</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
-        <v>96871750604</v>
+        <v>96895357100</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2">
-        <v>96879235115</v>
+        <v>96894949780</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2">
-        <v>96896197972</v>
+        <v>96890998636</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="2">
-        <v>96878911497</v>
+        <v>96892626906</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="2">
-        <v>96896416228</v>
+        <v>96899440588</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="2">
-        <v>96891141158</v>
+        <v>96892272785</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="2">
-        <v>96890603316</v>
+        <v>96890245050</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="2">
-        <v>96898807588</v>
+        <v>96893335812</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="2">
-        <v>96896220876</v>
+        <v>96892313627</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="2">
-        <v>96898115539</v>
+        <v>96894468641</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
-        <v>96871594241</v>
+        <v>96894003149</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="2">
-        <v>96899241009</v>
+        <v>96897906433</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="2">
-        <v>96893931222</v>
+        <v>96892441188</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="2">
-        <v>96898911574</v>
+        <v>96894763342</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="2">
-        <v>96871959516</v>
+        <v>96877407507</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="2">
-        <v>96894009969</v>
+        <v>96878560128</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="2">
-        <v>96894421718</v>
+        <v>96897753772</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="2">
-        <v>96896571441</v>
+        <v>96899232246</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="2">
-        <v>96893803513</v>
+        <v>96895708728</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="2">
-        <v>96892420097</v>
+        <v>96897299658</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="2">
-        <v>96897713600</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A112" s="1"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" s="1"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" s="1"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" s="1"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" s="1"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" s="1"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A118" s="1"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A119" s="1"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A120" s="1"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121" s="1"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A122" s="1"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A123" s="1"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A124" s="1"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A125" s="1"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A126" s="1"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A127" s="1"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A128" s="1"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A129" s="1"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130" s="1"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131" s="1"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132" s="1"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133" s="1"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134" s="1"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135" s="1"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A136" s="1"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A137" s="1"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A138" s="1"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139" s="1"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140" s="1"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A141" s="1"/>
+        <v>96892786804</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="2">
+        <v>96899598549</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="2">
+        <v>96879648338</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="2">
+        <v>96897519488</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="2">
+        <v>96891932004</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="2">
+        <v>96894435922</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="2">
+        <v>96877188251</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A118" s="2">
+        <v>96892521227</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A119" s="2">
+        <v>96897966018</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A120" s="2">
+        <v>96893243741</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="2">
+        <v>96891191556</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A122" s="2">
+        <v>96893999608</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A123" s="2">
+        <v>96894444825</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A124" s="2">
+        <v>96877000454</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="2">
+        <v>96896730139</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A126" s="2">
+        <v>96891418886</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A127" s="2">
+        <v>96872165561</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A128" s="2">
+        <v>96895204029</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A129" s="2">
+        <v>96893355259</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A130" s="2">
+        <v>96899581587</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A131" s="2">
+        <v>96896617090</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A132" s="2">
+        <v>96895651633</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A133" s="2">
+        <v>96894338719</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A134" s="2">
+        <v>96899708078</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A135" s="2">
+        <v>96872122246</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A136" s="2">
+        <v>96891720064</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A137" s="2">
+        <v>96891449242</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A138" s="2">
+        <v>96879010024</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A139" s="2">
+        <v>96896919563</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A140" s="2">
+        <v>96899331558</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A141" s="2">
+        <v>96891238308</v>
+      </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" s="1"/>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C6C1AE-509B-46D2-8C0B-CBAD14D5B9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EA03C0-24C0-4780-8F81-99432BF98931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="3180" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
+    <workbookView xWindow="3520" yWindow="3520" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,7 +416,7 @@
   <dimension ref="A1:A206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A141"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -431,703 +431,463 @@
     </row>
     <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
-        <v>96894126091</v>
+        <v>96899096371</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
-        <v>96898218137</v>
+        <v>96894023227</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
-        <v>96894523567</v>
+        <v>96892892849</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
-        <v>96892297947</v>
+        <v>96892709022</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
-        <v>96892464218</v>
+        <v>96892878128</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
-        <v>96894342300</v>
+        <v>96892901216</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
-        <v>96895785995</v>
+        <v>96899889739</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
-        <v>96895999859</v>
+        <v>96878749983</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
-        <v>96891714935</v>
+        <v>96898050421</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
-        <v>96895910044</v>
+        <v>96878006076</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
-        <v>96891846646</v>
+        <v>96894105377</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
-        <v>96894347760</v>
+        <v>96899525162</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
-        <v>96892747017</v>
+        <v>96891149551</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
-        <v>96897837758</v>
+        <v>96895698671</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
-        <v>96890635483</v>
+        <v>96899223870</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
-        <v>96890633004</v>
+        <v>96890207090</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
-        <v>96896099600</v>
+        <v>96892873968</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
-        <v>96895060869</v>
+        <v>96879085985</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
-        <v>96897570256</v>
+        <v>96894080776</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
-        <v>96894111241</v>
+        <v>96894466289</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="2">
-        <v>96892676032</v>
-      </c>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="2">
-        <v>96898098817</v>
-      </c>
+      <c r="A23" s="2"/>
     </row>
     <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="2">
-        <v>96895195278</v>
-      </c>
+      <c r="A24" s="2"/>
     </row>
     <row r="25" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="2">
-        <v>96898843433</v>
-      </c>
+      <c r="A25" s="2"/>
     </row>
     <row r="26" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="2">
-        <v>96891733743</v>
-      </c>
+      <c r="A26" s="2"/>
     </row>
     <row r="27" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="2">
-        <v>96898562865</v>
-      </c>
+      <c r="A27" s="2"/>
     </row>
     <row r="28" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="2">
-        <v>96897839204</v>
-      </c>
+      <c r="A28" s="2"/>
     </row>
     <row r="29" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="2">
-        <v>96893356056</v>
-      </c>
+      <c r="A29" s="2"/>
     </row>
     <row r="30" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="2">
-        <v>96872728288</v>
-      </c>
+      <c r="A30" s="2"/>
     </row>
     <row r="31" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="2">
-        <v>96891469777</v>
-      </c>
+      <c r="A31" s="2"/>
     </row>
     <row r="32" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="2">
-        <v>96879940099</v>
-      </c>
+      <c r="A32" s="2"/>
     </row>
     <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="2">
-        <v>96896450667</v>
-      </c>
+      <c r="A33" s="2"/>
     </row>
     <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="2">
-        <v>96892583849</v>
-      </c>
+      <c r="A34" s="2"/>
     </row>
     <row r="35" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="2">
-        <v>96894011600</v>
-      </c>
+      <c r="A35" s="2"/>
     </row>
     <row r="36" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="2">
-        <v>96894439008</v>
-      </c>
+      <c r="A36" s="2"/>
     </row>
     <row r="37" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="2">
-        <v>96895110160</v>
-      </c>
+      <c r="A37" s="2"/>
     </row>
     <row r="38" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="2">
-        <v>96897886558</v>
-      </c>
+      <c r="A38" s="2"/>
     </row>
     <row r="39" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="2">
-        <v>96895767479</v>
-      </c>
+      <c r="A39" s="2"/>
     </row>
     <row r="40" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="2">
-        <v>96899683967</v>
-      </c>
+      <c r="A40" s="2"/>
     </row>
     <row r="41" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="2">
-        <v>96871147221</v>
-      </c>
+      <c r="A41" s="2"/>
     </row>
     <row r="42" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="2">
-        <v>96891996999</v>
-      </c>
+      <c r="A42" s="2"/>
     </row>
     <row r="43" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="2">
-        <v>96893859343</v>
-      </c>
+      <c r="A43" s="2"/>
     </row>
     <row r="44" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="2">
-        <v>96894939225</v>
-      </c>
+      <c r="A44" s="2"/>
     </row>
     <row r="45" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="2">
-        <v>96895103441</v>
-      </c>
+      <c r="A45" s="2"/>
     </row>
     <row r="46" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="2">
-        <v>96897697656</v>
-      </c>
+      <c r="A46" s="2"/>
     </row>
     <row r="47" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="2">
-        <v>96894488555</v>
-      </c>
+      <c r="A47" s="2"/>
     </row>
     <row r="48" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="2">
-        <v>96891733763</v>
-      </c>
+      <c r="A48" s="2"/>
     </row>
     <row r="49" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="2">
-        <v>96891492752</v>
-      </c>
+      <c r="A49" s="2"/>
     </row>
     <row r="50" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="2">
-        <v>96892670636</v>
-      </c>
+      <c r="A50" s="2"/>
     </row>
     <row r="51" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="2">
-        <v>96897744954</v>
-      </c>
+      <c r="A51" s="2"/>
     </row>
     <row r="52" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="2">
-        <v>96899821578</v>
-      </c>
+      <c r="A52" s="2"/>
     </row>
     <row r="53" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="2">
-        <v>96896032272</v>
-      </c>
+      <c r="A53" s="2"/>
     </row>
     <row r="54" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="2">
-        <v>96891415527</v>
-      </c>
+      <c r="A54" s="2"/>
     </row>
     <row r="55" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="2">
-        <v>96894163100</v>
-      </c>
+      <c r="A55" s="2"/>
     </row>
     <row r="56" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="2">
-        <v>96899349354</v>
-      </c>
+      <c r="A56" s="2"/>
     </row>
     <row r="57" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="2">
-        <v>96897869665</v>
-      </c>
+      <c r="A57" s="2"/>
     </row>
     <row r="58" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="2">
-        <v>96894408826</v>
-      </c>
+      <c r="A58" s="2"/>
     </row>
     <row r="59" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="2">
-        <v>96899422881</v>
-      </c>
+      <c r="A59" s="2"/>
     </row>
     <row r="60" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="2">
-        <v>96891773774</v>
-      </c>
+      <c r="A60" s="2"/>
     </row>
     <row r="61" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="2">
-        <v>96897849887</v>
-      </c>
+      <c r="A61" s="2"/>
     </row>
     <row r="62" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="2">
-        <v>96891479971</v>
-      </c>
+      <c r="A62" s="2"/>
     </row>
     <row r="63" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="2">
-        <v>96871550818</v>
-      </c>
+      <c r="A63" s="2"/>
     </row>
     <row r="64" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="2">
-        <v>96891355513</v>
-      </c>
+      <c r="A64" s="2"/>
     </row>
     <row r="65" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="2">
-        <v>96891191570</v>
-      </c>
+      <c r="A65" s="2"/>
     </row>
     <row r="66" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="2">
-        <v>96899441204</v>
-      </c>
+      <c r="A66" s="2"/>
     </row>
     <row r="67" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="2">
-        <v>96898269494</v>
-      </c>
+      <c r="A67" s="2"/>
     </row>
     <row r="68" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="2">
-        <v>96894087658</v>
-      </c>
+      <c r="A68" s="2"/>
     </row>
     <row r="69" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="2">
-        <v>96898202029</v>
-      </c>
+      <c r="A69" s="2"/>
     </row>
     <row r="70" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="2">
-        <v>96895795132</v>
-      </c>
+      <c r="A70" s="2"/>
     </row>
     <row r="71" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="2">
-        <v>96895817645</v>
-      </c>
+      <c r="A71" s="2"/>
     </row>
     <row r="72" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="2">
-        <v>96892508722</v>
-      </c>
+      <c r="A72" s="2"/>
     </row>
     <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="2">
-        <v>96895127934</v>
-      </c>
+      <c r="A73" s="2"/>
     </row>
     <row r="74" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="2">
-        <v>96897904424</v>
-      </c>
+      <c r="A74" s="2"/>
     </row>
     <row r="75" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="2">
-        <v>96892070190</v>
-      </c>
+      <c r="A75" s="2"/>
     </row>
     <row r="76" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="2">
-        <v>96891925440</v>
-      </c>
+      <c r="A76" s="2"/>
     </row>
     <row r="77" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="2">
-        <v>96897199899</v>
-      </c>
+      <c r="A77" s="2"/>
     </row>
     <row r="78" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="2">
-        <v>96890456645</v>
-      </c>
+      <c r="A78" s="2"/>
     </row>
     <row r="79" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="2">
-        <v>96892441449</v>
-      </c>
+      <c r="A79" s="2"/>
     </row>
     <row r="80" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="2">
-        <v>96895111464</v>
-      </c>
+      <c r="A80" s="2"/>
     </row>
     <row r="81" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="2">
-        <v>96894445914</v>
-      </c>
+      <c r="A81" s="2"/>
     </row>
     <row r="82" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="2">
-        <v>96892673216</v>
-      </c>
+      <c r="A82" s="2"/>
     </row>
     <row r="83" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="2">
-        <v>96871782817</v>
-      </c>
+      <c r="A83" s="2"/>
     </row>
     <row r="84" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="2">
-        <v>96893585585</v>
-      </c>
+      <c r="A84" s="2"/>
     </row>
     <row r="85" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="2">
-        <v>96891182910</v>
-      </c>
+      <c r="A85" s="2"/>
     </row>
     <row r="86" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="2">
-        <v>96897800373</v>
-      </c>
+      <c r="A86" s="2"/>
     </row>
     <row r="87" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="2">
-        <v>96898200982</v>
-      </c>
+      <c r="A87" s="2"/>
     </row>
     <row r="88" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="2">
-        <v>96895369222</v>
-      </c>
+      <c r="A88" s="2"/>
     </row>
     <row r="89" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="2">
-        <v>96893340199</v>
-      </c>
+      <c r="A89" s="2"/>
     </row>
     <row r="90" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="2">
-        <v>96897676971</v>
-      </c>
+      <c r="A90" s="2"/>
     </row>
     <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="2">
-        <v>96895357100</v>
-      </c>
+      <c r="A91" s="2"/>
     </row>
     <row r="92" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="2">
-        <v>96894949780</v>
-      </c>
+      <c r="A92" s="2"/>
     </row>
     <row r="93" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="2">
-        <v>96890998636</v>
-      </c>
+      <c r="A93" s="2"/>
     </row>
     <row r="94" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="2">
-        <v>96892626906</v>
-      </c>
+      <c r="A94" s="2"/>
     </row>
     <row r="95" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="2">
-        <v>96899440588</v>
-      </c>
+      <c r="A95" s="2"/>
     </row>
     <row r="96" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="2">
-        <v>96892272785</v>
-      </c>
+      <c r="A96" s="2"/>
     </row>
     <row r="97" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="2">
-        <v>96890245050</v>
-      </c>
+      <c r="A97" s="2"/>
     </row>
     <row r="98" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="2">
-        <v>96893335812</v>
-      </c>
+      <c r="A98" s="2"/>
     </row>
     <row r="99" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="2">
-        <v>96892313627</v>
-      </c>
+      <c r="A99" s="2"/>
     </row>
     <row r="100" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="2">
-        <v>96894468641</v>
-      </c>
+      <c r="A100" s="2"/>
     </row>
     <row r="101" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="2">
-        <v>96894003149</v>
-      </c>
+      <c r="A101" s="2"/>
     </row>
     <row r="102" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="2">
-        <v>96897906433</v>
-      </c>
+      <c r="A102" s="2"/>
     </row>
     <row r="103" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="2">
-        <v>96892441188</v>
-      </c>
+      <c r="A103" s="2"/>
     </row>
     <row r="104" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="2">
-        <v>96894763342</v>
-      </c>
+      <c r="A104" s="2"/>
     </row>
     <row r="105" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="2">
-        <v>96877407507</v>
-      </c>
+      <c r="A105" s="2"/>
     </row>
     <row r="106" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="2">
-        <v>96878560128</v>
-      </c>
+      <c r="A106" s="2"/>
     </row>
     <row r="107" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="2">
-        <v>96897753772</v>
-      </c>
+      <c r="A107" s="2"/>
     </row>
     <row r="108" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="2">
-        <v>96899232246</v>
-      </c>
+      <c r="A108" s="2"/>
     </row>
     <row r="109" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="2">
-        <v>96895708728</v>
-      </c>
+      <c r="A109" s="2"/>
     </row>
     <row r="110" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="2">
-        <v>96897299658</v>
-      </c>
+      <c r="A110" s="2"/>
     </row>
     <row r="111" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="2">
-        <v>96892786804</v>
-      </c>
+      <c r="A111" s="2"/>
     </row>
     <row r="112" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="2">
-        <v>96899598549</v>
-      </c>
+      <c r="A112" s="2"/>
     </row>
     <row r="113" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="2">
-        <v>96879648338</v>
-      </c>
+      <c r="A113" s="2"/>
     </row>
     <row r="114" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="2">
-        <v>96897519488</v>
-      </c>
+      <c r="A114" s="2"/>
     </row>
     <row r="115" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="2">
-        <v>96891932004</v>
-      </c>
+      <c r="A115" s="2"/>
     </row>
     <row r="116" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="2">
-        <v>96894435922</v>
-      </c>
+      <c r="A116" s="2"/>
     </row>
     <row r="117" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="2">
-        <v>96877188251</v>
-      </c>
+      <c r="A117" s="2"/>
     </row>
     <row r="118" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="2">
-        <v>96892521227</v>
-      </c>
+      <c r="A118" s="2"/>
     </row>
     <row r="119" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="2">
-        <v>96897966018</v>
-      </c>
+      <c r="A119" s="2"/>
     </row>
     <row r="120" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="2">
-        <v>96893243741</v>
-      </c>
+      <c r="A120" s="2"/>
     </row>
     <row r="121" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="2">
-        <v>96891191556</v>
-      </c>
+      <c r="A121" s="2"/>
     </row>
     <row r="122" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="2">
-        <v>96893999608</v>
-      </c>
+      <c r="A122" s="2"/>
     </row>
     <row r="123" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="2">
-        <v>96894444825</v>
-      </c>
+      <c r="A123" s="2"/>
     </row>
     <row r="124" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="2">
-        <v>96877000454</v>
-      </c>
+      <c r="A124" s="2"/>
     </row>
     <row r="125" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="2">
-        <v>96896730139</v>
-      </c>
+      <c r="A125" s="2"/>
     </row>
     <row r="126" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="2">
-        <v>96891418886</v>
-      </c>
+      <c r="A126" s="2"/>
     </row>
     <row r="127" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="2">
-        <v>96872165561</v>
-      </c>
+      <c r="A127" s="2"/>
     </row>
     <row r="128" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="2">
-        <v>96895204029</v>
-      </c>
+      <c r="A128" s="2"/>
     </row>
     <row r="129" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A129" s="2">
-        <v>96893355259</v>
-      </c>
+      <c r="A129" s="2"/>
     </row>
     <row r="130" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="2">
-        <v>96899581587</v>
-      </c>
+      <c r="A130" s="2"/>
     </row>
     <row r="131" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="2">
-        <v>96896617090</v>
-      </c>
+      <c r="A131" s="2"/>
     </row>
     <row r="132" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="2">
-        <v>96895651633</v>
-      </c>
+      <c r="A132" s="2"/>
     </row>
     <row r="133" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="2">
-        <v>96894338719</v>
-      </c>
+      <c r="A133" s="2"/>
     </row>
     <row r="134" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="2">
-        <v>96899708078</v>
-      </c>
+      <c r="A134" s="2"/>
     </row>
     <row r="135" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A135" s="2">
-        <v>96872122246</v>
-      </c>
+      <c r="A135" s="2"/>
     </row>
     <row r="136" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A136" s="2">
-        <v>96891720064</v>
-      </c>
+      <c r="A136" s="2"/>
     </row>
     <row r="137" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="2">
-        <v>96891449242</v>
-      </c>
+      <c r="A137" s="2"/>
     </row>
     <row r="138" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="2">
-        <v>96879010024</v>
-      </c>
+      <c r="A138" s="2"/>
     </row>
     <row r="139" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="2">
-        <v>96896919563</v>
-      </c>
+      <c r="A139" s="2"/>
     </row>
     <row r="140" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="2">
-        <v>96899331558</v>
-      </c>
+      <c r="A140" s="2"/>
     </row>
     <row r="141" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="2">
-        <v>96891238308</v>
-      </c>
+      <c r="A141" s="2"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" s="1"/>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EA03C0-24C0-4780-8F81-99432BF98931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F428E3-F13D-499B-A23A-C9CA9868F48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="3520" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,7 +416,7 @@
   <dimension ref="A1:A206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -431,103 +431,65 @@
     </row>
     <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
-        <v>96899096371</v>
+        <v>96897774615</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
-        <v>96894023227</v>
-      </c>
+      <c r="A3" s="2"/>
     </row>
     <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
-        <v>96892892849</v>
-      </c>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
-        <v>96892709022</v>
-      </c>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
-        <v>96892878128</v>
-      </c>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>96892901216</v>
-      </c>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>96899889739</v>
-      </c>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>96878749983</v>
-      </c>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>96898050421</v>
-      </c>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <v>96878006076</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>96894105377</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
-        <v>96899525162</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="2">
-        <v>96891149551</v>
-      </c>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="2">
-        <v>96895698671</v>
-      </c>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="2">
-        <v>96899223870</v>
-      </c>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="2">
-        <v>96890207090</v>
-      </c>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="2">
-        <v>96892873968</v>
-      </c>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="2">
-        <v>96879085985</v>
-      </c>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="2">
-        <v>96894080776</v>
-      </c>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="2">
-        <v>96894466289</v>
-      </c>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F428E3-F13D-499B-A23A-C9CA9868F48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EEEEA9-F7B3-4FD1-825C-7A95D3166967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,7 +416,7 @@
   <dimension ref="A1:A206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -431,425 +431,703 @@
     </row>
     <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
-        <v>96897774615</v>
+        <v>96878786919</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2">
+        <v>96896758894</v>
+      </c>
     </row>
     <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2">
+        <v>96899228301</v>
+      </c>
     </row>
     <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2">
+        <v>96897155303</v>
+      </c>
     </row>
     <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2">
+        <v>96899159717</v>
+      </c>
     </row>
     <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2">
+        <v>96872115810</v>
+      </c>
     </row>
     <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2">
+        <v>96891166606</v>
+      </c>
     </row>
     <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2">
+        <v>96892001925</v>
+      </c>
     </row>
     <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2">
+        <v>96897117191</v>
+      </c>
     </row>
     <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2">
+        <v>96894634922</v>
+      </c>
     </row>
     <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2">
+        <v>96896224666</v>
+      </c>
     </row>
     <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2">
+        <v>96896561610</v>
+      </c>
     </row>
     <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2">
+        <v>96896432555</v>
+      </c>
     </row>
     <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2">
+        <v>96898949559</v>
+      </c>
     </row>
     <row r="16" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2">
+        <v>96899611313</v>
+      </c>
     </row>
     <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2">
+        <v>96894443955</v>
+      </c>
     </row>
     <row r="18" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2">
+        <v>96879386001</v>
+      </c>
     </row>
     <row r="19" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2">
+        <v>96897884407</v>
+      </c>
     </row>
     <row r="20" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2">
+        <v>96892879797</v>
+      </c>
     </row>
     <row r="21" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2">
+        <v>96897705252</v>
+      </c>
     </row>
     <row r="22" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2">
+        <v>96892978005</v>
+      </c>
     </row>
     <row r="23" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="2"/>
+      <c r="A23" s="2">
+        <v>96899222830</v>
+      </c>
     </row>
     <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="2"/>
+      <c r="A24" s="2">
+        <v>96899577127</v>
+      </c>
     </row>
     <row r="25" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="2"/>
+      <c r="A25" s="2">
+        <v>96897798282</v>
+      </c>
     </row>
     <row r="26" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="2"/>
+      <c r="A26" s="2">
+        <v>96899677191</v>
+      </c>
     </row>
     <row r="27" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="2"/>
+      <c r="A27" s="2">
+        <v>96896639484</v>
+      </c>
     </row>
     <row r="28" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="2"/>
+      <c r="A28" s="2">
+        <v>96894824446</v>
+      </c>
     </row>
     <row r="29" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="2"/>
+      <c r="A29" s="2">
+        <v>96895259696</v>
+      </c>
     </row>
     <row r="30" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="2"/>
+      <c r="A30" s="2">
+        <v>96891413341</v>
+      </c>
     </row>
     <row r="31" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="2"/>
+      <c r="A31" s="2">
+        <v>96896370622</v>
+      </c>
     </row>
     <row r="32" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="2"/>
+      <c r="A32" s="2">
+        <v>96894468798</v>
+      </c>
     </row>
     <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="2"/>
+      <c r="A33" s="2">
+        <v>96893999716</v>
+      </c>
     </row>
     <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="2"/>
+      <c r="A34" s="2">
+        <v>96890108367</v>
+      </c>
     </row>
     <row r="35" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="2"/>
+      <c r="A35" s="2">
+        <v>96891760243</v>
+      </c>
     </row>
     <row r="36" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="2"/>
+      <c r="A36" s="2">
+        <v>96891398804</v>
+      </c>
     </row>
     <row r="37" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="2"/>
+      <c r="A37" s="2">
+        <v>96899123782</v>
+      </c>
     </row>
     <row r="38" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="2"/>
+      <c r="A38" s="2">
+        <v>96897911196</v>
+      </c>
     </row>
     <row r="39" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="2"/>
+      <c r="A39" s="2">
+        <v>96891466011</v>
+      </c>
     </row>
     <row r="40" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="2"/>
+      <c r="A40" s="2">
+        <v>96897829293</v>
+      </c>
     </row>
     <row r="41" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="2"/>
+      <c r="A41" s="2">
+        <v>96871194924</v>
+      </c>
     </row>
     <row r="42" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="2"/>
+      <c r="A42" s="2">
+        <v>96894312141</v>
+      </c>
     </row>
     <row r="43" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="2"/>
+      <c r="A43" s="2">
+        <v>96896417109</v>
+      </c>
     </row>
     <row r="44" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="2"/>
+      <c r="A44" s="2">
+        <v>96894554462</v>
+      </c>
     </row>
     <row r="45" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="2"/>
+      <c r="A45" s="2">
+        <v>96879125758</v>
+      </c>
     </row>
     <row r="46" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="2"/>
+      <c r="A46" s="2">
+        <v>96898515154</v>
+      </c>
     </row>
     <row r="47" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="2"/>
+      <c r="A47" s="2">
+        <v>96891888198</v>
+      </c>
     </row>
     <row r="48" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="2"/>
+      <c r="A48" s="2">
+        <v>96879296415</v>
+      </c>
     </row>
     <row r="49" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="2"/>
+      <c r="A49" s="2">
+        <v>96898516531</v>
+      </c>
     </row>
     <row r="50" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="2"/>
+      <c r="A50" s="2">
+        <v>96891221216</v>
+      </c>
     </row>
     <row r="51" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="2"/>
+      <c r="A51" s="2">
+        <v>96894329885</v>
+      </c>
     </row>
     <row r="52" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="2"/>
+      <c r="A52" s="2">
+        <v>96897776677</v>
+      </c>
     </row>
     <row r="53" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="2"/>
+      <c r="A53" s="2">
+        <v>96899348167</v>
+      </c>
     </row>
     <row r="54" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="2"/>
+      <c r="A54" s="2">
+        <v>96877151541</v>
+      </c>
     </row>
     <row r="55" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="2"/>
+      <c r="A55" s="2">
+        <v>96871047101</v>
+      </c>
     </row>
     <row r="56" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="2"/>
+      <c r="A56" s="2">
+        <v>96890111248</v>
+      </c>
     </row>
     <row r="57" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="2"/>
+      <c r="A57" s="2">
+        <v>96892365767</v>
+      </c>
     </row>
     <row r="58" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="2"/>
+      <c r="A58" s="2">
+        <v>96895238674</v>
+      </c>
     </row>
     <row r="59" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="2"/>
+      <c r="A59" s="2">
+        <v>96896126144</v>
+      </c>
     </row>
     <row r="60" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="2"/>
+      <c r="A60" s="2">
+        <v>96894444646</v>
+      </c>
     </row>
     <row r="61" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="2"/>
+      <c r="A61" s="2">
+        <v>96895848707</v>
+      </c>
     </row>
     <row r="62" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="2"/>
+      <c r="A62" s="2">
+        <v>96898012523</v>
+      </c>
     </row>
     <row r="63" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="2"/>
+      <c r="A63" s="2">
+        <v>96896010316</v>
+      </c>
     </row>
     <row r="64" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="2"/>
+      <c r="A64" s="2">
+        <v>96894651922</v>
+      </c>
     </row>
     <row r="65" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="2"/>
+      <c r="A65" s="2">
+        <v>96897887282</v>
+      </c>
     </row>
     <row r="66" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="2"/>
+      <c r="A66" s="2">
+        <v>96899444838</v>
+      </c>
     </row>
     <row r="67" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="2"/>
+      <c r="A67" s="2">
+        <v>96877496006</v>
+      </c>
     </row>
     <row r="68" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="2"/>
+      <c r="A68" s="2">
+        <v>96896626900</v>
+      </c>
     </row>
     <row r="69" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="2"/>
+      <c r="A69" s="2">
+        <v>96897506229</v>
+      </c>
     </row>
     <row r="70" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="2"/>
+      <c r="A70" s="2">
+        <v>96893226834</v>
+      </c>
     </row>
     <row r="71" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="2"/>
+      <c r="A71" s="2">
+        <v>96891919697</v>
+      </c>
     </row>
     <row r="72" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="2"/>
+      <c r="A72" s="2">
+        <v>96879944407</v>
+      </c>
     </row>
     <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="2"/>
+      <c r="A73" s="2">
+        <v>96879447892</v>
+      </c>
     </row>
     <row r="74" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="2"/>
+      <c r="A74" s="2">
+        <v>96890905890</v>
+      </c>
     </row>
     <row r="75" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="2"/>
+      <c r="A75" s="2">
+        <v>96890901189</v>
+      </c>
     </row>
     <row r="76" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="2"/>
+      <c r="A76" s="2">
+        <v>96897796156</v>
+      </c>
     </row>
     <row r="77" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="2"/>
+      <c r="A77" s="2">
+        <v>96894136963</v>
+      </c>
     </row>
     <row r="78" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="2"/>
+      <c r="A78" s="2">
+        <v>96896361040</v>
+      </c>
     </row>
     <row r="79" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="2"/>
+      <c r="A79" s="2">
+        <v>96871964342</v>
+      </c>
     </row>
     <row r="80" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="2"/>
+      <c r="A80" s="2">
+        <v>96893385256</v>
+      </c>
     </row>
     <row r="81" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="2"/>
+      <c r="A81" s="2">
+        <v>96892424908</v>
+      </c>
     </row>
     <row r="82" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="2"/>
+      <c r="A82" s="2">
+        <v>96896662073</v>
+      </c>
     </row>
     <row r="83" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="2"/>
+      <c r="A83" s="2">
+        <v>96894025267</v>
+      </c>
     </row>
     <row r="84" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="2"/>
+      <c r="A84" s="2">
+        <v>96898866859</v>
+      </c>
     </row>
     <row r="85" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="2"/>
+      <c r="A85" s="2">
+        <v>96896731567</v>
+      </c>
     </row>
     <row r="86" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="2"/>
+      <c r="A86" s="2">
+        <v>96894224062</v>
+      </c>
     </row>
     <row r="87" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="2"/>
+      <c r="A87" s="2">
+        <v>96894011000</v>
+      </c>
     </row>
     <row r="88" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="2"/>
+      <c r="A88" s="2">
+        <v>96891799514</v>
+      </c>
     </row>
     <row r="89" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="2"/>
+      <c r="A89" s="2">
+        <v>96890181977</v>
+      </c>
     </row>
     <row r="90" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="2"/>
+      <c r="A90" s="2">
+        <v>96899800633</v>
+      </c>
     </row>
     <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="2"/>
+      <c r="A91" s="2">
+        <v>96877260591</v>
+      </c>
     </row>
     <row r="92" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="2"/>
+      <c r="A92" s="2">
+        <v>96894952998</v>
+      </c>
     </row>
     <row r="93" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="2"/>
+      <c r="A93" s="2">
+        <v>96899520056</v>
+      </c>
     </row>
     <row r="94" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="2"/>
+      <c r="A94" s="2">
+        <v>96894652805</v>
+      </c>
     </row>
     <row r="95" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="2"/>
+      <c r="A95" s="2">
+        <v>96871729191</v>
+      </c>
     </row>
     <row r="96" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="2"/>
+      <c r="A96" s="2">
+        <v>96899625259</v>
+      </c>
     </row>
     <row r="97" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="2"/>
+      <c r="A97" s="2">
+        <v>96894796966</v>
+      </c>
     </row>
     <row r="98" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="2"/>
+      <c r="A98" s="2">
+        <v>96897348853</v>
+      </c>
     </row>
     <row r="99" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="2"/>
+      <c r="A99" s="2">
+        <v>96877229724</v>
+      </c>
     </row>
     <row r="100" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="2"/>
+      <c r="A100" s="2">
+        <v>96898937338</v>
+      </c>
     </row>
     <row r="101" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="2"/>
+      <c r="A101" s="2">
+        <v>96891999129</v>
+      </c>
     </row>
     <row r="102" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="2"/>
+      <c r="A102" s="2">
+        <v>96896076200</v>
+      </c>
     </row>
     <row r="103" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="2"/>
+      <c r="A103" s="2">
+        <v>96898991137</v>
+      </c>
     </row>
     <row r="104" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="2"/>
+      <c r="A104" s="2">
+        <v>96898054070</v>
+      </c>
     </row>
     <row r="105" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="2"/>
+      <c r="A105" s="2">
+        <v>96899808517</v>
+      </c>
     </row>
     <row r="106" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="2"/>
+      <c r="A106" s="2">
+        <v>96894949058</v>
+      </c>
     </row>
     <row r="107" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="2"/>
+      <c r="A107" s="2">
+        <v>96891473443</v>
+      </c>
     </row>
     <row r="108" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="2"/>
+      <c r="A108" s="2">
+        <v>96895133720</v>
+      </c>
     </row>
     <row r="109" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="2"/>
+      <c r="A109" s="2">
+        <v>96871141410</v>
+      </c>
     </row>
     <row r="110" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="2"/>
+      <c r="A110" s="2">
+        <v>96894445581</v>
+      </c>
     </row>
     <row r="111" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="2"/>
+      <c r="A111" s="2">
+        <v>96894749181</v>
+      </c>
     </row>
     <row r="112" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="2"/>
+      <c r="A112" s="2">
+        <v>96895488871</v>
+      </c>
     </row>
     <row r="113" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="2"/>
+      <c r="A113" s="2">
+        <v>96894078448</v>
+      </c>
     </row>
     <row r="114" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="2"/>
+      <c r="A114" s="2">
+        <v>96890604044</v>
+      </c>
     </row>
     <row r="115" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="2"/>
+      <c r="A115" s="2">
+        <v>96897548908</v>
+      </c>
     </row>
     <row r="116" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="2"/>
+      <c r="A116" s="2">
+        <v>96898897712</v>
+      </c>
     </row>
     <row r="117" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="2"/>
+      <c r="A117" s="2">
+        <v>96894469299</v>
+      </c>
     </row>
     <row r="118" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="2"/>
+      <c r="A118" s="2">
+        <v>96893582565</v>
+      </c>
     </row>
     <row r="119" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="2"/>
+      <c r="A119" s="2">
+        <v>96879441070</v>
+      </c>
     </row>
     <row r="120" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="2"/>
+      <c r="A120" s="2">
+        <v>96871714449</v>
+      </c>
     </row>
     <row r="121" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="2"/>
+      <c r="A121" s="2">
+        <v>96898176128</v>
+      </c>
     </row>
     <row r="122" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="2"/>
+      <c r="A122" s="2">
+        <v>96898888108</v>
+      </c>
     </row>
     <row r="123" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="2"/>
+      <c r="A123" s="2">
+        <v>96871512185</v>
+      </c>
     </row>
     <row r="124" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="2"/>
+      <c r="A124" s="2">
+        <v>96891147864</v>
+      </c>
     </row>
     <row r="125" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="2"/>
+      <c r="A125" s="2">
+        <v>96878129987</v>
+      </c>
     </row>
     <row r="126" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="2"/>
+      <c r="A126" s="2">
+        <v>96898121304</v>
+      </c>
     </row>
     <row r="127" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="2"/>
+      <c r="A127" s="2">
+        <v>96893547793</v>
+      </c>
     </row>
     <row r="128" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="2"/>
+      <c r="A128" s="2">
+        <v>96896988873</v>
+      </c>
     </row>
     <row r="129" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A129" s="2"/>
+      <c r="A129" s="2">
+        <v>96871194980</v>
+      </c>
     </row>
     <row r="130" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="2"/>
+      <c r="A130" s="2">
+        <v>96891363207</v>
+      </c>
     </row>
     <row r="131" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="2"/>
+      <c r="A131" s="2">
+        <v>96894557445</v>
+      </c>
     </row>
     <row r="132" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="2"/>
+      <c r="A132" s="2">
+        <v>96878484187</v>
+      </c>
     </row>
     <row r="133" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="2"/>
+      <c r="A133" s="2">
+        <v>96896100691</v>
+      </c>
     </row>
     <row r="134" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="2"/>
+      <c r="A134" s="2">
+        <v>96892412233</v>
+      </c>
     </row>
     <row r="135" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A135" s="2"/>
+      <c r="A135" s="2">
+        <v>96896953617</v>
+      </c>
     </row>
     <row r="136" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A136" s="2"/>
+      <c r="A136" s="2">
+        <v>96895950015</v>
+      </c>
     </row>
     <row r="137" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="2"/>
+      <c r="A137" s="2">
+        <v>96896911960</v>
+      </c>
     </row>
     <row r="138" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="2"/>
+      <c r="A138" s="2">
+        <v>96879995836</v>
+      </c>
     </row>
     <row r="139" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="2"/>
+      <c r="A139" s="2">
+        <v>96892875123</v>
+      </c>
     </row>
     <row r="140" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="2"/>
+      <c r="A140" s="2">
+        <v>96891188068</v>
+      </c>
     </row>
     <row r="141" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="2"/>
+      <c r="A141" s="2">
+        <v>96899868633</v>
+      </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" s="1"/>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EEEEA9-F7B3-4FD1-825C-7A95D3166967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8808E885-2FDF-4A31-9086-A1F7C6B5F0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
+    <workbookView xWindow="3180" yWindow="3180" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,7 +416,7 @@
   <dimension ref="A1:A206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A141"/>
+      <selection activeCell="A2" sqref="A2:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -431,703 +431,623 @@
     </row>
     <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
-        <v>96878786919</v>
+        <v>96896164814</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
-        <v>96896758894</v>
+        <v>96896101813</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
-        <v>96899228301</v>
+        <v>96894848415</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
-        <v>96897155303</v>
+        <v>96894464024</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
-        <v>96899159717</v>
+        <v>96899272470</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
-        <v>96872115810</v>
+        <v>96897729328</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
-        <v>96891166606</v>
+        <v>96894174767</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
-        <v>96892001925</v>
+        <v>96890156578</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
-        <v>96897117191</v>
+        <v>96891793234</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
-        <v>96894634922</v>
+        <v>96890906703</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
-        <v>96896224666</v>
+        <v>96893262323</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
-        <v>96896561610</v>
+        <v>96897614907</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
-        <v>96896432555</v>
+        <v>96899411491</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
-        <v>96898949559</v>
+        <v>96894187846</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
-        <v>96899611313</v>
+        <v>96898142116</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
-        <v>96894443955</v>
+        <v>96893983255</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
-        <v>96879386001</v>
+        <v>96896534488</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
-        <v>96897884407</v>
+        <v>96891928108</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
-        <v>96892879797</v>
+        <v>96895222277</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
-        <v>96897705252</v>
+        <v>96892718571</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
-        <v>96892978005</v>
+        <v>96890631311</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
-        <v>96899222830</v>
+        <v>96894018459</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
-        <v>96899577127</v>
+        <v>96892255151</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
-        <v>96897798282</v>
+        <v>96893357560</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
-        <v>96899677191</v>
+        <v>96896702581</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
-        <v>96896639484</v>
+        <v>96890104442</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
-        <v>96894824446</v>
+        <v>96894246155</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
-        <v>96895259696</v>
+        <v>96895565098</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
-        <v>96891413341</v>
+        <v>96899465957</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
-        <v>96896370622</v>
+        <v>96891291156</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
-        <v>96894468798</v>
+        <v>96895505002</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
-        <v>96893999716</v>
+        <v>96897400780</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
-        <v>96890108367</v>
+        <v>96893231332</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
-        <v>96891760243</v>
+        <v>96893506353</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
-        <v>96891398804</v>
+        <v>96890999529</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
-        <v>96899123782</v>
+        <v>96895253661</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
-        <v>96897911196</v>
+        <v>96899685388</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
-        <v>96891466011</v>
+        <v>96879471714</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
-        <v>96897829293</v>
+        <v>96892793783</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
-        <v>96871194924</v>
+        <v>96897500839</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
-        <v>96894312141</v>
+        <v>96890998125</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
-        <v>96896417109</v>
+        <v>96871570070</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
-        <v>96894554462</v>
+        <v>96879107761</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
-        <v>96879125758</v>
+        <v>96896690081</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
-        <v>96898515154</v>
+        <v>96893323519</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
-        <v>96891888198</v>
+        <v>96898018185</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
-        <v>96879296415</v>
+        <v>96896689008</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
-        <v>96898516531</v>
+        <v>96877512575</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
-        <v>96891221216</v>
+        <v>96898979735</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
-        <v>96894329885</v>
+        <v>96893864127</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
-        <v>96897776677</v>
+        <v>96894234595</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
-        <v>96899348167</v>
+        <v>96892813443</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
-        <v>96877151541</v>
+        <v>96890696655</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
-        <v>96871047101</v>
+        <v>96897944945</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
-        <v>96890111248</v>
+        <v>96893938439</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
-        <v>96892365767</v>
+        <v>96890620396</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
-        <v>96895238674</v>
+        <v>96893598626</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
-        <v>96896126144</v>
+        <v>96895606744</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
-        <v>96894444646</v>
+        <v>96896940505</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
-        <v>96895848707</v>
+        <v>96896660881</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
-        <v>96898012523</v>
+        <v>96899157743</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
-        <v>96896010316</v>
+        <v>96892620962</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
-        <v>96894651922</v>
+        <v>96892726777</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
-        <v>96897887282</v>
+        <v>96892096659</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
-        <v>96899444838</v>
+        <v>96897454643</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
-        <v>96877496006</v>
+        <v>96899448874</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
-        <v>96896626900</v>
+        <v>96890169469</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
-        <v>96897506229</v>
+        <v>96897873356</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
-        <v>96893226834</v>
+        <v>96877363632</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
-        <v>96891919697</v>
+        <v>96897728741</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
-        <v>96879944407</v>
+        <v>96894649868</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
-        <v>96879447892</v>
+        <v>96895202155</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
-        <v>96890905890</v>
+        <v>96892777932</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
-        <v>96890901189</v>
+        <v>96878655118</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
-        <v>96897796156</v>
+        <v>96892656770</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
-        <v>96894136963</v>
+        <v>96876903976</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
-        <v>96896361040</v>
+        <v>96891949432</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
-        <v>96871964342</v>
+        <v>96897880230</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
-        <v>96893385256</v>
+        <v>96892831128</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
-        <v>96892424908</v>
+        <v>96899773670</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
-        <v>96896662073</v>
+        <v>96895266984</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
-        <v>96894025267</v>
+        <v>96896316141</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
-        <v>96898866859</v>
+        <v>96897911619</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
-        <v>96896731567</v>
+        <v>96897290123</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
-        <v>96894224062</v>
+        <v>96899242441</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
-        <v>96894011000</v>
+        <v>96872581867</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
-        <v>96891799514</v>
+        <v>96898916911</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
-        <v>96890181977</v>
+        <v>96896940991</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
-        <v>96899800633</v>
+        <v>96897600400</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
-        <v>96877260591</v>
+        <v>96898869006</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2">
-        <v>96894952998</v>
+        <v>96894443825</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2">
-        <v>96899520056</v>
+        <v>96899555512</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="2">
-        <v>96894652805</v>
+        <v>96894405505</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="2">
-        <v>96871729191</v>
+        <v>96891000245</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="2">
-        <v>96899625259</v>
+        <v>96897113217</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="2">
-        <v>96894796966</v>
+        <v>96892925527</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="2">
-        <v>96897348853</v>
+        <v>96899201815</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="2">
-        <v>96877229724</v>
+        <v>96891907499</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="2">
-        <v>96898937338</v>
+        <v>96879226050</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
-        <v>96891999129</v>
+        <v>96895172005</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="2">
-        <v>96896076200</v>
-      </c>
+      <c r="A102" s="2"/>
     </row>
     <row r="103" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="2">
-        <v>96898991137</v>
-      </c>
+      <c r="A103" s="2"/>
     </row>
     <row r="104" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="2">
-        <v>96898054070</v>
-      </c>
+      <c r="A104" s="2"/>
     </row>
     <row r="105" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="2">
-        <v>96899808517</v>
-      </c>
+      <c r="A105" s="2"/>
     </row>
     <row r="106" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="2">
-        <v>96894949058</v>
-      </c>
+      <c r="A106" s="2"/>
     </row>
     <row r="107" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="2">
-        <v>96891473443</v>
-      </c>
+      <c r="A107" s="2"/>
     </row>
     <row r="108" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="2">
-        <v>96895133720</v>
-      </c>
+      <c r="A108" s="2"/>
     </row>
     <row r="109" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="2">
-        <v>96871141410</v>
-      </c>
+      <c r="A109" s="2"/>
     </row>
     <row r="110" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="2">
-        <v>96894445581</v>
-      </c>
+      <c r="A110" s="2"/>
     </row>
     <row r="111" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="2">
-        <v>96894749181</v>
-      </c>
+      <c r="A111" s="2"/>
     </row>
     <row r="112" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="2">
-        <v>96895488871</v>
-      </c>
+      <c r="A112" s="2"/>
     </row>
     <row r="113" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="2">
-        <v>96894078448</v>
-      </c>
+      <c r="A113" s="2"/>
     </row>
     <row r="114" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="2">
-        <v>96890604044</v>
-      </c>
+      <c r="A114" s="2"/>
     </row>
     <row r="115" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="2">
-        <v>96897548908</v>
-      </c>
+      <c r="A115" s="2"/>
     </row>
     <row r="116" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="2">
-        <v>96898897712</v>
-      </c>
+      <c r="A116" s="2"/>
     </row>
     <row r="117" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="2">
-        <v>96894469299</v>
-      </c>
+      <c r="A117" s="2"/>
     </row>
     <row r="118" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="2">
-        <v>96893582565</v>
-      </c>
+      <c r="A118" s="2"/>
     </row>
     <row r="119" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="2">
-        <v>96879441070</v>
-      </c>
+      <c r="A119" s="2"/>
     </row>
     <row r="120" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="2">
-        <v>96871714449</v>
-      </c>
+      <c r="A120" s="2"/>
     </row>
     <row r="121" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="2">
-        <v>96898176128</v>
-      </c>
+      <c r="A121" s="2"/>
     </row>
     <row r="122" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="2">
-        <v>96898888108</v>
-      </c>
+      <c r="A122" s="2"/>
     </row>
     <row r="123" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="2">
-        <v>96871512185</v>
-      </c>
+      <c r="A123" s="2"/>
     </row>
     <row r="124" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="2">
-        <v>96891147864</v>
-      </c>
+      <c r="A124" s="2"/>
     </row>
     <row r="125" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="2">
-        <v>96878129987</v>
-      </c>
+      <c r="A125" s="2"/>
     </row>
     <row r="126" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="2">
-        <v>96898121304</v>
-      </c>
+      <c r="A126" s="2"/>
     </row>
     <row r="127" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="2">
-        <v>96893547793</v>
-      </c>
+      <c r="A127" s="2"/>
     </row>
     <row r="128" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="2">
-        <v>96896988873</v>
-      </c>
+      <c r="A128" s="2"/>
     </row>
     <row r="129" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A129" s="2">
-        <v>96871194980</v>
-      </c>
+      <c r="A129" s="2"/>
     </row>
     <row r="130" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="2">
-        <v>96891363207</v>
-      </c>
+      <c r="A130" s="2"/>
     </row>
     <row r="131" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="2">
-        <v>96894557445</v>
-      </c>
+      <c r="A131" s="2"/>
     </row>
     <row r="132" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="2">
-        <v>96878484187</v>
-      </c>
+      <c r="A132" s="2"/>
     </row>
     <row r="133" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="2">
-        <v>96896100691</v>
-      </c>
+      <c r="A133" s="2"/>
     </row>
     <row r="134" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="2">
-        <v>96892412233</v>
-      </c>
+      <c r="A134" s="2"/>
     </row>
     <row r="135" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A135" s="2">
-        <v>96896953617</v>
-      </c>
+      <c r="A135" s="2"/>
     </row>
     <row r="136" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A136" s="2">
-        <v>96895950015</v>
-      </c>
+      <c r="A136" s="2"/>
     </row>
     <row r="137" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="2">
-        <v>96896911960</v>
-      </c>
+      <c r="A137" s="2"/>
     </row>
     <row r="138" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="2">
-        <v>96879995836</v>
-      </c>
+      <c r="A138" s="2"/>
     </row>
     <row r="139" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="2">
-        <v>96892875123</v>
-      </c>
+      <c r="A139" s="2"/>
     </row>
     <row r="140" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="2">
-        <v>96891188068</v>
-      </c>
+      <c r="A140" s="2"/>
     </row>
     <row r="141" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="2">
-        <v>96899868633</v>
-      </c>
+      <c r="A141" s="2"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" s="1"/>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8808E885-2FDF-4A31-9086-A1F7C6B5F0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA2C488-28D8-4895-92FB-11A341247F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="3180" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
+    <workbookView xWindow="3520" yWindow="3520" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,7 +416,7 @@
   <dimension ref="A1:A206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A101"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -431,503 +431,305 @@
     </row>
     <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
-        <v>96896164814</v>
+        <v>96897774615</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
-        <v>96896101813</v>
-      </c>
+      <c r="A3" s="2"/>
     </row>
     <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
-        <v>96894848415</v>
-      </c>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
-        <v>96894464024</v>
-      </c>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
-        <v>96899272470</v>
-      </c>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>96897729328</v>
-      </c>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>96894174767</v>
-      </c>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>96890156578</v>
-      </c>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>96891793234</v>
-      </c>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <v>96890906703</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>96893262323</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
-        <v>96897614907</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="2">
-        <v>96899411491</v>
-      </c>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="2">
-        <v>96894187846</v>
-      </c>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="2">
-        <v>96898142116</v>
-      </c>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="2">
-        <v>96893983255</v>
-      </c>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="2">
-        <v>96896534488</v>
-      </c>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="2">
-        <v>96891928108</v>
-      </c>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="2">
-        <v>96895222277</v>
-      </c>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="2">
-        <v>96892718571</v>
-      </c>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="2">
-        <v>96890631311</v>
-      </c>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="2">
-        <v>96894018459</v>
-      </c>
+      <c r="A23" s="2"/>
     </row>
     <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="2">
-        <v>96892255151</v>
-      </c>
+      <c r="A24" s="2"/>
     </row>
     <row r="25" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="2">
-        <v>96893357560</v>
-      </c>
+      <c r="A25" s="2"/>
     </row>
     <row r="26" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="2">
-        <v>96896702581</v>
-      </c>
+      <c r="A26" s="2"/>
     </row>
     <row r="27" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="2">
-        <v>96890104442</v>
-      </c>
+      <c r="A27" s="2"/>
     </row>
     <row r="28" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="2">
-        <v>96894246155</v>
-      </c>
+      <c r="A28" s="2"/>
     </row>
     <row r="29" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="2">
-        <v>96895565098</v>
-      </c>
+      <c r="A29" s="2"/>
     </row>
     <row r="30" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="2">
-        <v>96899465957</v>
-      </c>
+      <c r="A30" s="2"/>
     </row>
     <row r="31" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="2">
-        <v>96891291156</v>
-      </c>
+      <c r="A31" s="2"/>
     </row>
     <row r="32" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="2">
-        <v>96895505002</v>
-      </c>
+      <c r="A32" s="2"/>
     </row>
     <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="2">
-        <v>96897400780</v>
-      </c>
+      <c r="A33" s="2"/>
     </row>
     <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="2">
-        <v>96893231332</v>
-      </c>
+      <c r="A34" s="2"/>
     </row>
     <row r="35" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="2">
-        <v>96893506353</v>
-      </c>
+      <c r="A35" s="2"/>
     </row>
     <row r="36" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="2">
-        <v>96890999529</v>
-      </c>
+      <c r="A36" s="2"/>
     </row>
     <row r="37" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="2">
-        <v>96895253661</v>
-      </c>
+      <c r="A37" s="2"/>
     </row>
     <row r="38" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="2">
-        <v>96899685388</v>
-      </c>
+      <c r="A38" s="2"/>
     </row>
     <row r="39" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="2">
-        <v>96879471714</v>
-      </c>
+      <c r="A39" s="2"/>
     </row>
     <row r="40" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="2">
-        <v>96892793783</v>
-      </c>
+      <c r="A40" s="2"/>
     </row>
     <row r="41" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="2">
-        <v>96897500839</v>
-      </c>
+      <c r="A41" s="2"/>
     </row>
     <row r="42" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="2">
-        <v>96890998125</v>
-      </c>
+      <c r="A42" s="2"/>
     </row>
     <row r="43" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="2">
-        <v>96871570070</v>
-      </c>
+      <c r="A43" s="2"/>
     </row>
     <row r="44" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="2">
-        <v>96879107761</v>
-      </c>
+      <c r="A44" s="2"/>
     </row>
     <row r="45" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="2">
-        <v>96896690081</v>
-      </c>
+      <c r="A45" s="2"/>
     </row>
     <row r="46" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="2">
-        <v>96893323519</v>
-      </c>
+      <c r="A46" s="2"/>
     </row>
     <row r="47" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="2">
-        <v>96898018185</v>
-      </c>
+      <c r="A47" s="2"/>
     </row>
     <row r="48" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="2">
-        <v>96896689008</v>
-      </c>
+      <c r="A48" s="2"/>
     </row>
     <row r="49" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="2">
-        <v>96877512575</v>
-      </c>
+      <c r="A49" s="2"/>
     </row>
     <row r="50" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="2">
-        <v>96898979735</v>
-      </c>
+      <c r="A50" s="2"/>
     </row>
     <row r="51" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="2">
-        <v>96893864127</v>
-      </c>
+      <c r="A51" s="2"/>
     </row>
     <row r="52" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="2">
-        <v>96894234595</v>
-      </c>
+      <c r="A52" s="2"/>
     </row>
     <row r="53" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="2">
-        <v>96892813443</v>
-      </c>
+      <c r="A53" s="2"/>
     </row>
     <row r="54" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="2">
-        <v>96890696655</v>
-      </c>
+      <c r="A54" s="2"/>
     </row>
     <row r="55" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="2">
-        <v>96897944945</v>
-      </c>
+      <c r="A55" s="2"/>
     </row>
     <row r="56" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="2">
-        <v>96893938439</v>
-      </c>
+      <c r="A56" s="2"/>
     </row>
     <row r="57" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="2">
-        <v>96890620396</v>
-      </c>
+      <c r="A57" s="2"/>
     </row>
     <row r="58" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="2">
-        <v>96893598626</v>
-      </c>
+      <c r="A58" s="2"/>
     </row>
     <row r="59" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="2">
-        <v>96895606744</v>
-      </c>
+      <c r="A59" s="2"/>
     </row>
     <row r="60" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="2">
-        <v>96896940505</v>
-      </c>
+      <c r="A60" s="2"/>
     </row>
     <row r="61" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="2">
-        <v>96896660881</v>
-      </c>
+      <c r="A61" s="2"/>
     </row>
     <row r="62" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="2">
-        <v>96899157743</v>
-      </c>
+      <c r="A62" s="2"/>
     </row>
     <row r="63" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="2">
-        <v>96892620962</v>
-      </c>
+      <c r="A63" s="2"/>
     </row>
     <row r="64" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="2">
-        <v>96892726777</v>
-      </c>
+      <c r="A64" s="2"/>
     </row>
     <row r="65" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="2">
-        <v>96892096659</v>
-      </c>
+      <c r="A65" s="2"/>
     </row>
     <row r="66" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="2">
-        <v>96897454643</v>
-      </c>
+      <c r="A66" s="2"/>
     </row>
     <row r="67" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="2">
-        <v>96899448874</v>
-      </c>
+      <c r="A67" s="2"/>
     </row>
     <row r="68" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="2">
-        <v>96890169469</v>
-      </c>
+      <c r="A68" s="2"/>
     </row>
     <row r="69" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="2">
-        <v>96897873356</v>
-      </c>
+      <c r="A69" s="2"/>
     </row>
     <row r="70" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="2">
-        <v>96877363632</v>
-      </c>
+      <c r="A70" s="2"/>
     </row>
     <row r="71" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="2">
-        <v>96897728741</v>
-      </c>
+      <c r="A71" s="2"/>
     </row>
     <row r="72" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="2">
-        <v>96894649868</v>
-      </c>
+      <c r="A72" s="2"/>
     </row>
     <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="2">
-        <v>96895202155</v>
-      </c>
+      <c r="A73" s="2"/>
     </row>
     <row r="74" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="2">
-        <v>96892777932</v>
-      </c>
+      <c r="A74" s="2"/>
     </row>
     <row r="75" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="2">
-        <v>96878655118</v>
-      </c>
+      <c r="A75" s="2"/>
     </row>
     <row r="76" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="2">
-        <v>96892656770</v>
-      </c>
+      <c r="A76" s="2"/>
     </row>
     <row r="77" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="2">
-        <v>96876903976</v>
-      </c>
+      <c r="A77" s="2"/>
     </row>
     <row r="78" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="2">
-        <v>96891949432</v>
-      </c>
+      <c r="A78" s="2"/>
     </row>
     <row r="79" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="2">
-        <v>96897880230</v>
-      </c>
+      <c r="A79" s="2"/>
     </row>
     <row r="80" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="2">
-        <v>96892831128</v>
-      </c>
+      <c r="A80" s="2"/>
     </row>
     <row r="81" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="2">
-        <v>96899773670</v>
-      </c>
+      <c r="A81" s="2"/>
     </row>
     <row r="82" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="2">
-        <v>96895266984</v>
-      </c>
+      <c r="A82" s="2"/>
     </row>
     <row r="83" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="2">
-        <v>96896316141</v>
-      </c>
+      <c r="A83" s="2"/>
     </row>
     <row r="84" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="2">
-        <v>96897911619</v>
-      </c>
+      <c r="A84" s="2"/>
     </row>
     <row r="85" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="2">
-        <v>96897290123</v>
-      </c>
+      <c r="A85" s="2"/>
     </row>
     <row r="86" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="2">
-        <v>96899242441</v>
-      </c>
+      <c r="A86" s="2"/>
     </row>
     <row r="87" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="2">
-        <v>96872581867</v>
-      </c>
+      <c r="A87" s="2"/>
     </row>
     <row r="88" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="2">
-        <v>96898916911</v>
-      </c>
+      <c r="A88" s="2"/>
     </row>
     <row r="89" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="2">
-        <v>96896940991</v>
-      </c>
+      <c r="A89" s="2"/>
     </row>
     <row r="90" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="2">
-        <v>96897600400</v>
-      </c>
+      <c r="A90" s="2"/>
     </row>
     <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="2">
-        <v>96898869006</v>
-      </c>
+      <c r="A91" s="2"/>
     </row>
     <row r="92" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="2">
-        <v>96894443825</v>
-      </c>
+      <c r="A92" s="2"/>
     </row>
     <row r="93" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="2">
-        <v>96899555512</v>
-      </c>
+      <c r="A93" s="2"/>
     </row>
     <row r="94" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="2">
-        <v>96894405505</v>
-      </c>
+      <c r="A94" s="2"/>
     </row>
     <row r="95" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="2">
-        <v>96891000245</v>
-      </c>
+      <c r="A95" s="2"/>
     </row>
     <row r="96" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="2">
-        <v>96897113217</v>
-      </c>
+      <c r="A96" s="2"/>
     </row>
     <row r="97" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="2">
-        <v>96892925527</v>
-      </c>
+      <c r="A97" s="2"/>
     </row>
     <row r="98" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="2">
-        <v>96899201815</v>
-      </c>
+      <c r="A98" s="2"/>
     </row>
     <row r="99" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="2">
-        <v>96891907499</v>
-      </c>
+      <c r="A99" s="2"/>
     </row>
     <row r="100" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="2">
-        <v>96879226050</v>
-      </c>
+      <c r="A100" s="2"/>
     </row>
     <row r="101" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="2">
-        <v>96895172005</v>
-      </c>
+      <c r="A101" s="2"/>
     </row>
     <row r="102" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="2"/>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA2C488-28D8-4895-92FB-11A341247F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6837C8E1-7682-4252-A455-C5BF83A9250A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3520" yWindow="3520" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
@@ -416,7 +416,7 @@
   <dimension ref="A1:A206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -435,43 +435,69 @@
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2">
+        <v>447412091199</v>
+      </c>
     </row>
     <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2">
+        <v>447427352543</v>
+      </c>
     </row>
     <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2">
+        <v>447401755288</v>
+      </c>
     </row>
     <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2">
+        <v>447400497592</v>
+      </c>
     </row>
     <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2">
+        <v>447451057488</v>
+      </c>
     </row>
     <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2">
+        <v>447391150864</v>
+      </c>
     </row>
     <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2">
+        <v>447403558401</v>
+      </c>
     </row>
     <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2">
+        <v>447408811177</v>
+      </c>
     </row>
     <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2">
+        <v>447411317373</v>
+      </c>
     </row>
     <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2">
+        <v>447400869743</v>
+      </c>
     </row>
     <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2">
+        <v>447403949394</v>
+      </c>
     </row>
     <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2">
+        <v>447415498792</v>
+      </c>
     </row>
     <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2">
+        <v>447403383030</v>
+      </c>
     </row>
     <row r="16" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6837C8E1-7682-4252-A455-C5BF83A9250A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BE1179-658B-4FE4-ABBF-0BBBE9882AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="3520" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,12 +93,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,7 +417,7 @@
   <dimension ref="A1:A206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A2" sqref="A2:A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -424,215 +425,305 @@
     <col min="1" max="1" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
-        <v>96897774615</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
-        <v>447412091199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
-        <v>447427352543</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
-        <v>447401755288</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
-        <v>447400497592</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>447451057488</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>447391150864</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>447403558401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>447408811177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <v>447411317373</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>447400869743</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
-        <v>447403949394</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="2">
-        <v>447415498792</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="2">
-        <v>447403383030</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="2"/>
-    </row>
-    <row r="30" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="2"/>
-    </row>
-    <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="2"/>
-    </row>
-    <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="2"/>
-    </row>
-    <row r="35" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="2"/>
-    </row>
-    <row r="36" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="2"/>
-    </row>
-    <row r="37" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="2"/>
-    </row>
-    <row r="38" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="2"/>
-    </row>
-    <row r="39" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="2"/>
-    </row>
-    <row r="40" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="2"/>
-    </row>
-    <row r="41" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="2"/>
-    </row>
-    <row r="42" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="2"/>
-    </row>
-    <row r="43" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="2"/>
-    </row>
-    <row r="44" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="2"/>
-    </row>
-    <row r="45" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="2"/>
-    </row>
-    <row r="46" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="2"/>
-    </row>
-    <row r="47" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="2"/>
-    </row>
-    <row r="48" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="2"/>
-    </row>
-    <row r="49" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="2"/>
-    </row>
-    <row r="50" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="2"/>
-    </row>
-    <row r="51" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="2"/>
-    </row>
-    <row r="52" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="2"/>
-    </row>
-    <row r="53" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="2"/>
-    </row>
-    <row r="54" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="2"/>
-    </row>
-    <row r="55" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="2"/>
-    </row>
-    <row r="56" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="2"/>
-    </row>
-    <row r="57" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="2"/>
-    </row>
-    <row r="58" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="2"/>
-    </row>
-    <row r="59" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="2"/>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>447565315484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>447565315563</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>447565315608</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>447565315633</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>447565315748</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>447565315794</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>447565315866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>447565315958</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>447565315965</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>447565315996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>447565316006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>447565316016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>447565316054</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>447565316197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>447565316341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>447565316498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>447565316822</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>447565316848</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>447565316953</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>447565316955</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>447565316989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>447565317012</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>447565317021</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>447565317022</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>447565317026</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>447565317034</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>447565317058</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>447565317062</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>447565317071</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>447565317099</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>447565317125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>447565317134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>447565317150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>447565317170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <v>447565317174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
+        <v>447565317231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>447565317320</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
+        <v>447565317359</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
+        <v>447565317361</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
+        <v>447565317388</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
+        <v>447565317420</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
+        <v>447565317453</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
+        <v>447565317454</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
+        <v>447565317459</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
+        <v>447565317467</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" s="3">
+        <v>447565317497</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="3">
+        <v>447565317498</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
+        <v>447565317499</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="3">
+        <v>447565317503</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="3">
+        <v>447565317508</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
+        <v>447565317512</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="3">
+        <v>447565317516</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="3">
+        <v>447565317571</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
+        <v>447565317573</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="3">
+        <v>447565317588</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="3">
+        <v>447565317625</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" s="3">
+        <v>447565317666</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" s="3">
+        <v>447565317672</v>
+      </c>
     </row>
     <row r="60" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="2"/>
+      <c r="A60" s="3">
+        <v>447565317696</v>
+      </c>
     </row>
     <row r="61" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BE1179-658B-4FE4-ABBF-0BBBE9882AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93ED7CAE-BF45-499B-ABED-D5AA8CB29E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:A206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A60"/>
+      <selection activeCell="A2" sqref="A2:A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -432,391 +432,453 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
-        <v>447565315484</v>
+        <v>447565317700</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
-        <v>447565315563</v>
+        <v>447565317728</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
-        <v>447565315608</v>
+        <v>447565317734</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
-        <v>447565315633</v>
+        <v>447565317743</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
-        <v>447565315748</v>
+        <v>447565317749</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
-        <v>447565315794</v>
+        <v>447565317764</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
-        <v>447565315866</v>
+        <v>447565317767</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
-        <v>447565315958</v>
+        <v>447565317771</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
-        <v>447565315965</v>
+        <v>447565317797</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
-        <v>447565315996</v>
+        <v>447565317823</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
-        <v>447565316006</v>
+        <v>447565317824</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
-        <v>447565316016</v>
+        <v>447565317858</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
-        <v>447565316054</v>
+        <v>447565317868</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
-        <v>447565316197</v>
+        <v>447565317869</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
-        <v>447565316341</v>
+        <v>447565317874</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
-        <v>447565316498</v>
+        <v>447565317904</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
-        <v>447565316822</v>
+        <v>447565317911</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
-        <v>447565316848</v>
+        <v>447565317948</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
-        <v>447565316953</v>
+        <v>447565318004</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
-        <v>447565316955</v>
+        <v>447565318014</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
-        <v>447565316989</v>
+        <v>447565318022</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
-        <v>447565317012</v>
+        <v>447565318047</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
-        <v>447565317021</v>
+        <v>447565318051</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
-        <v>447565317022</v>
+        <v>447565318059</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
-        <v>447565317026</v>
+        <v>447565318101</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
-        <v>447565317034</v>
+        <v>447565318102</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
-        <v>447565317058</v>
+        <v>447565318119</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
-        <v>447565317062</v>
+        <v>447565318128</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
-        <v>447565317071</v>
+        <v>447565318131</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
-        <v>447565317099</v>
+        <v>447565318134</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
-        <v>447565317125</v>
+        <v>447565318141</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
-        <v>447565317134</v>
+        <v>447565318147</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
-        <v>447565317150</v>
+        <v>447565318154</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
-        <v>447565317170</v>
+        <v>447565318158</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
-        <v>447565317174</v>
+        <v>447565318165</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
-        <v>447565317231</v>
+        <v>447565318188</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
-        <v>447565317320</v>
+        <v>447565318195</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
-        <v>447565317359</v>
+        <v>447565318196</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
-        <v>447565317361</v>
+        <v>447565318205</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
-        <v>447565317388</v>
+        <v>447565318217</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
-        <v>447565317420</v>
+        <v>447565318222</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
-        <v>447565317453</v>
+        <v>447565318235</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
-        <v>447565317454</v>
+        <v>447565318236</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
-        <v>447565317459</v>
+        <v>447565318257</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
-        <v>447565317467</v>
+        <v>447565318267</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
-        <v>447565317497</v>
+        <v>447565318280</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
-        <v>447565317498</v>
+        <v>447565318287</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
-        <v>447565317499</v>
+        <v>447565318299</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
-        <v>447565317503</v>
+        <v>447565318301</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
-        <v>447565317508</v>
+        <v>447565318308</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
-        <v>447565317512</v>
+        <v>447565318317</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
-        <v>447565317516</v>
+        <v>447565318322</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
-        <v>447565317571</v>
+        <v>447565318324</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
-        <v>447565317573</v>
+        <v>447565318326</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
-        <v>447565317588</v>
+        <v>447565318331</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
-        <v>447565317625</v>
+        <v>447565318337</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
-        <v>447565317666</v>
+        <v>447565318340</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
-        <v>447565317672</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>447565318344</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
-        <v>447565317696</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="2"/>
-    </row>
-    <row r="62" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="2"/>
-    </row>
-    <row r="63" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="2"/>
-    </row>
-    <row r="64" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="2"/>
-    </row>
-    <row r="65" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="2"/>
-    </row>
-    <row r="66" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="2"/>
-    </row>
-    <row r="67" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="2"/>
-    </row>
-    <row r="68" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="2"/>
-    </row>
-    <row r="69" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="2"/>
-    </row>
-    <row r="70" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="2"/>
-    </row>
-    <row r="71" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="2"/>
-    </row>
-    <row r="72" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="2"/>
-    </row>
-    <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="2"/>
-    </row>
-    <row r="74" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="2"/>
-    </row>
-    <row r="75" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="2"/>
-    </row>
-    <row r="76" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="2"/>
-    </row>
-    <row r="77" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="2"/>
-    </row>
-    <row r="78" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="2"/>
-    </row>
-    <row r="79" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="2"/>
-    </row>
-    <row r="80" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="2"/>
-    </row>
-    <row r="81" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="2"/>
-    </row>
-    <row r="82" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="2"/>
-    </row>
-    <row r="83" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="2"/>
-    </row>
-    <row r="84" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="2"/>
-    </row>
-    <row r="85" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="2"/>
-    </row>
-    <row r="86" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="2"/>
-    </row>
-    <row r="87" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="2"/>
-    </row>
-    <row r="88" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="2"/>
-    </row>
-    <row r="89" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="2"/>
-    </row>
-    <row r="90" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="2"/>
+        <v>447565318346</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" s="3">
+        <v>447565318367</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" s="3">
+        <v>447565318372</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" s="3">
+        <v>447565318411</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" s="3">
+        <v>447565318416</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="3">
+        <v>447565318427</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="3">
+        <v>447565318428</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="3">
+        <v>447565318459</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="3">
+        <v>447565318464</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" s="3">
+        <v>447565318469</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="3">
+        <v>447565318471</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" s="3">
+        <v>447565318474</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" s="3">
+        <v>447565318484</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" s="3">
+        <v>447565318489</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" s="3">
+        <v>447565318509</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" s="3">
+        <v>447565318528</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" s="3">
+        <v>447565318548</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" s="3">
+        <v>447565318555</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" s="3">
+        <v>447565318558</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" s="3">
+        <v>447565318559</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" s="3">
+        <v>447565318584</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" s="3">
+        <v>447565318590</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" s="3">
+        <v>447565318596</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" s="3">
+        <v>447565318606</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" s="3">
+        <v>447565318624</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" s="3">
+        <v>447565318634</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" s="3">
+        <v>447565318690</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" s="3">
+        <v>447565318706</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" s="3">
+        <v>447565318718</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" s="3">
+        <v>447565318736</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" s="3">
+        <v>447565318737</v>
+      </c>
     </row>
     <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="2"/>
+      <c r="A91" s="3">
+        <v>447565318789</v>
+      </c>
     </row>
     <row r="92" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2"/>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93ED7CAE-BF45-499B-ABED-D5AA8CB29E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9B65EC-5F4B-4C71-8AF6-CCAE3959CEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:A206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A91"/>
+      <selection activeCell="A2" sqref="A2:A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -432,454 +432,355 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
-        <v>447565317700</v>
+        <v>447565318806</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
-        <v>447565317728</v>
+        <v>447565318841</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
-        <v>447565317734</v>
+        <v>447565318844</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
-        <v>447565317743</v>
+        <v>447565318850</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
-        <v>447565317749</v>
+        <v>447565318905</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
-        <v>447565317764</v>
+        <v>447565318981</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
-        <v>447565317767</v>
+        <v>447565319003</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
-        <v>447565317771</v>
+        <v>447565319052</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
-        <v>447565317797</v>
+        <v>447565319105</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
-        <v>447565317823</v>
+        <v>447565319164</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
-        <v>447565317824</v>
+        <v>447565319176</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
-        <v>447565317858</v>
+        <v>447565319275</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
-        <v>447565317868</v>
+        <v>447565319308</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
-        <v>447565317869</v>
+        <v>447565319403</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
-        <v>447565317874</v>
+        <v>447565319415</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
-        <v>447565317904</v>
+        <v>447565319553</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
-        <v>447565317911</v>
+        <v>447565319718</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
-        <v>447565317948</v>
+        <v>447565319774</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
-        <v>447565318004</v>
+        <v>447565319814</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
-        <v>447565318014</v>
+        <v>447565319840</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
-        <v>447565318022</v>
+        <v>447565319921</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
-        <v>447565318047</v>
+        <v>447565319956</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
-        <v>447565318051</v>
+        <v>447565319981</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
-        <v>447565318059</v>
+        <v>447565320058</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
-        <v>447565318101</v>
+        <v>447565320114</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
-        <v>447565318102</v>
+        <v>447565320247</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
-        <v>447565318119</v>
+        <v>447565320262</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
-        <v>447565318128</v>
+        <v>447565320282</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
-        <v>447565318131</v>
+        <v>447565320321</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
-        <v>447565318134</v>
+        <v>447565320459</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
-        <v>447565318141</v>
+        <v>447565320545</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
-        <v>447565318147</v>
+        <v>447565320744</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
-        <v>447565318154</v>
+        <v>447565320774</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
-        <v>447565318158</v>
+        <v>447565320903</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
-        <v>447565318165</v>
+        <v>447565320959</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
-        <v>447565318188</v>
+        <v>447565321123</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
-        <v>447565318195</v>
+        <v>447565321130</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
-        <v>447565318196</v>
+        <v>447565321144</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
-        <v>447565318205</v>
+        <v>447565321163</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
-        <v>447565318217</v>
+        <v>447565321166</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
-        <v>447565318222</v>
+        <v>447565321444</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
-        <v>447565318235</v>
+        <v>447565321450</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
-        <v>447565318236</v>
+        <v>447565321532</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
-        <v>447565318257</v>
+        <v>447565321653</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
-        <v>447565318267</v>
+        <v>447565321814</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
-        <v>447565318280</v>
+        <v>447565321904</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
-        <v>447565318287</v>
+        <v>447565321931</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
-        <v>447565318299</v>
+        <v>447565321969</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
-        <v>447565318301</v>
+        <v>447565321999</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
-        <v>447565318308</v>
+        <v>447565322044</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
-        <v>447565318317</v>
+        <v>447565322204</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
-        <v>447565318322</v>
+        <v>447565322399</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
-        <v>447565318324</v>
+        <v>447565322419</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
-        <v>447565318326</v>
+        <v>447565322514</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
-        <v>447565318331</v>
+        <v>447565322635</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
-        <v>447565318337</v>
+        <v>447565322652</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
-        <v>447565318340</v>
+        <v>447565322754</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
-        <v>447565318344</v>
+        <v>447565322801</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
-        <v>447565318346</v>
+        <v>447565322817</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
-        <v>447565318367</v>
+        <v>447565322890</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
-        <v>447565318372</v>
+        <v>447565323069</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
-        <v>447565318411</v>
+        <v>447565323150</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
-        <v>447565318416</v>
+        <v>447565323280</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
-        <v>447565318427</v>
+        <v>447565323379</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
-        <v>447565318428</v>
+        <v>447565323417</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
-        <v>447565318459</v>
+        <v>447565323483</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
-        <v>447565318464</v>
+        <v>447565323508</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
-        <v>447565318469</v>
+        <v>447565323573</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
-        <v>447565318471</v>
+        <v>447565323579</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
-        <v>447565318474</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" s="3">
-        <v>447565318484</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" s="3">
-        <v>447565318489</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" s="3">
-        <v>447565318509</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" s="3">
-        <v>447565318528</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" s="3">
-        <v>447565318548</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" s="3">
-        <v>447565318555</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" s="3">
-        <v>447565318558</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" s="3">
-        <v>447565318559</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" s="3">
-        <v>447565318584</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" s="3">
-        <v>447565318590</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" s="3">
-        <v>447565318596</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" s="3">
-        <v>447565318606</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" s="3">
-        <v>447565318624</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" s="3">
-        <v>447565318634</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" s="3">
-        <v>447565318690</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" s="3">
-        <v>447565318706</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" s="3">
-        <v>447565318718</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" s="3">
-        <v>447565318736</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" s="3">
-        <v>447565318737</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="3">
-        <v>447565318789</v>
-      </c>
-    </row>
+        <v>447565323580</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="92" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2"/>
     </row>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9B65EC-5F4B-4C71-8AF6-CCAE3959CEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4757DCDD-68CB-483E-B9B5-8A7FCF398AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:A206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A71"/>
+      <selection activeCell="A2" sqref="A2:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -432,352 +432,152 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
-        <v>447565318806</v>
+        <v>447565323596</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
-        <v>447565318841</v>
+        <v>447565323599</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
-        <v>447565318844</v>
+        <v>447565323605</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
-        <v>447565318850</v>
+        <v>447565323615</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
-        <v>447565318905</v>
+        <v>447565323630</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
-        <v>447565318981</v>
+        <v>447565323632</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
-        <v>447565319003</v>
+        <v>447565323637</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
-        <v>447565319052</v>
+        <v>447565323639</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
-        <v>447565319105</v>
+        <v>447565323643</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
-        <v>447565319164</v>
+        <v>447565323650</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
-        <v>447565319176</v>
+        <v>447565323658</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
-        <v>447565319275</v>
+        <v>447565323661</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
-        <v>447565319308</v>
+        <v>447565323663</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
-        <v>447565319403</v>
+        <v>447565323674</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
-        <v>447565319415</v>
+        <v>447565323678</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
-        <v>447565319553</v>
+        <v>447565323680</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
-        <v>447565319718</v>
+        <v>447565323689</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
-        <v>447565319774</v>
+        <v>447565323694</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
-        <v>447565319814</v>
+        <v>447565323731</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
-        <v>447565319840</v>
+        <v>447565323746</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
-        <v>447565319921</v>
+        <v>447565323748</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
-        <v>447565319956</v>
+        <v>447565323776</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
-        <v>447565319981</v>
+        <v>447565323794</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
-        <v>447565320058</v>
+        <v>447565323805</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
-        <v>447565320114</v>
+        <v>447565323833</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
-        <v>447565320247</v>
+        <v>447565323842</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
-        <v>447565320262</v>
+        <v>447565323859</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
-        <v>447565320282</v>
+        <v>447565323866</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
-        <v>447565320321</v>
+        <v>447565323907</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
-        <v>447565320459</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="3">
-        <v>447565320545</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="3">
-        <v>447565320744</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3">
-        <v>447565320774</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="3">
-        <v>447565320903</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="3">
-        <v>447565320959</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="3">
-        <v>447565321123</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="3">
-        <v>447565321130</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="3">
-        <v>447565321144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="3">
-        <v>447565321163</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" s="3">
-        <v>447565321166</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="3">
-        <v>447565321444</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" s="3">
-        <v>447565321450</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" s="3">
-        <v>447565321532</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" s="3">
-        <v>447565321653</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" s="3">
-        <v>447565321814</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" s="3">
-        <v>447565321904</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" s="3">
-        <v>447565321931</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="3">
-        <v>447565321969</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="3">
-        <v>447565321999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="3">
-        <v>447565322044</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="3">
-        <v>447565322204</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" s="3">
-        <v>447565322399</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" s="3">
-        <v>447565322419</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" s="3">
-        <v>447565322514</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" s="3">
-        <v>447565322635</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" s="3">
-        <v>447565322652</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" s="3">
-        <v>447565322754</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" s="3">
-        <v>447565322801</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" s="3">
-        <v>447565322817</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" s="3">
-        <v>447565322890</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" s="3">
-        <v>447565323069</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" s="3">
-        <v>447565323150</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" s="3">
-        <v>447565323280</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" s="3">
-        <v>447565323379</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" s="3">
-        <v>447565323417</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" s="3">
-        <v>447565323483</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" s="3">
-        <v>447565323508</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" s="3">
-        <v>447565323573</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" s="3">
-        <v>447565323579</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" s="3">
-        <v>447565323580</v>
+        <v>447565323908</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4757DCDD-68CB-483E-B9B5-8A7FCF398AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B890B0AC-6C2B-48B9-9E99-5B9D1C0C3A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
+    <workbookView xWindow="3340" yWindow="3340" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B65809-7069-482D-ABD6-D568B5E57C26}">
   <dimension ref="A1:A206"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A31"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -432,152 +432,407 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
-        <v>447565323596</v>
+        <v>447565327748</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
-        <v>447565323599</v>
+        <v>447565327750</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
-        <v>447565323605</v>
+        <v>447565327753</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
-        <v>447565323615</v>
+        <v>447565327756</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
-        <v>447565323630</v>
+        <v>447565327762</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
-        <v>447565323632</v>
+        <v>447565327781</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
-        <v>447565323637</v>
+        <v>447565327794</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
-        <v>447565323639</v>
+        <v>447565327796</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
-        <v>447565323643</v>
+        <v>447565327802</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
-        <v>447565323650</v>
+        <v>447565327803</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
-        <v>447565323658</v>
+        <v>447565327804</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
-        <v>447565323661</v>
+        <v>447565327806</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
-        <v>447565323663</v>
+        <v>447565327814</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
-        <v>447565323674</v>
+        <v>447565327818</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
-        <v>447565323678</v>
+        <v>447565327823</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
-        <v>447565323680</v>
+        <v>447565327836</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
-        <v>447565323689</v>
+        <v>447565327839</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
-        <v>447565323694</v>
+        <v>447565327847</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
-        <v>447565323731</v>
+        <v>447565327897</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
-        <v>447565323746</v>
+        <v>447565327899</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
-        <v>447565323748</v>
+        <v>447565327905</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
-        <v>447565323776</v>
+        <v>447565327908</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
-        <v>447565323794</v>
+        <v>447565327916</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
-        <v>447565323805</v>
+        <v>447565327923</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
-        <v>447565323833</v>
+        <v>447565327925</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
-        <v>447565323842</v>
+        <v>447565327929</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
-        <v>447565323859</v>
+        <v>447565327931</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
-        <v>447565323866</v>
+        <v>447565327935</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
-        <v>447565323907</v>
+        <v>447565327936</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
-        <v>447565323908</v>
+        <v>447565327939</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>447565327941</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>447565327944</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>447565327969</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>447565327999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <v>447565328003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
+        <v>447565328010</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>447565328044</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
+        <v>447565328053</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
+        <v>447565328061</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
+        <v>447565328075</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
+        <v>447565328105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
+        <v>447565328118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
+        <v>447565328119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
+        <v>447565328155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
+        <v>447565328163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" s="3">
+        <v>447565328178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="3">
+        <v>447565328185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
+        <v>447565328216</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="3">
+        <v>447565328260</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="3">
+        <v>447565328280</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
+        <v>447565328297</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="3">
+        <v>447565328300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="3">
+        <v>447565328304</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
+        <v>447565328306</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="3">
+        <v>447565328308</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="3">
+        <v>447565328312</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" s="3">
+        <v>447565328347</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" s="3">
+        <v>447565328355</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" s="3">
+        <v>447565328358</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" s="3">
+        <v>447565328362</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" s="3">
+        <v>447565328368</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" s="3">
+        <v>447565328392</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" s="3">
+        <v>447565328393</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="3">
+        <v>447565328394</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="3">
+        <v>447565328407</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="3">
+        <v>447565328409</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="3">
+        <v>447565328417</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" s="3">
+        <v>447565328418</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="3">
+        <v>447565328426</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" s="3">
+        <v>447565328429</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" s="3">
+        <v>447565328439</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" s="3">
+        <v>447565328462</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" s="3">
+        <v>447565328473</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" s="3">
+        <v>447565328516</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" s="3">
+        <v>447565328519</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" s="3">
+        <v>447565328526</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" s="3">
+        <v>447565328539</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" s="3">
+        <v>447565329852</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" s="3">
+        <v>447565329856</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" s="3">
+        <v>447565329881</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" s="3">
+        <v>447565329897</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B890B0AC-6C2B-48B9-9E99-5B9D1C0C3A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B129F19-B764-4FF3-8E31-5F814ED6CFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3340" yWindow="3340" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B65809-7069-482D-ABD6-D568B5E57C26}">
   <dimension ref="A1:A206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -432,407 +432,352 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
-        <v>447565327748</v>
+        <v>447565329907</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
-        <v>447565327750</v>
+        <v>447565329923</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
-        <v>447565327753</v>
+        <v>447565329933</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
-        <v>447565327756</v>
+        <v>447565329938</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
-        <v>447565327762</v>
+        <v>447565329939</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
-        <v>447565327781</v>
+        <v>447565329943</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
-        <v>447565327794</v>
+        <v>447565329951</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
-        <v>447565327796</v>
+        <v>447565329954</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
-        <v>447565327802</v>
+        <v>447565329969</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
-        <v>447565327803</v>
+        <v>447565329983</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
-        <v>447565327804</v>
+        <v>447565329986</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
-        <v>447565327806</v>
+        <v>447565329988</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
-        <v>447565327814</v>
+        <v>447565330001</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
-        <v>447565327818</v>
+        <v>447565330003</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
-        <v>447565327823</v>
+        <v>447565330005</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
-        <v>447565327836</v>
+        <v>447565330015</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
-        <v>447565327839</v>
+        <v>447565330017</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
-        <v>447565327847</v>
+        <v>447565330025</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
-        <v>447565327897</v>
+        <v>447565330028</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
-        <v>447565327899</v>
+        <v>447565330031</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
-        <v>447565327905</v>
+        <v>447565330036</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
-        <v>447565327908</v>
+        <v>447565330043</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
-        <v>447565327916</v>
+        <v>447565330047</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
-        <v>447565327923</v>
+        <v>447565330060</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
-        <v>447565327925</v>
+        <v>447565330074</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
-        <v>447565327929</v>
+        <v>447565330090</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
-        <v>447565327931</v>
+        <v>447565330101</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
-        <v>447565327935</v>
+        <v>447565330105</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
-        <v>447565327936</v>
+        <v>447565330111</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
-        <v>447565327939</v>
+        <v>447565330139</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
-        <v>447565327941</v>
+        <v>447565330218</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
-        <v>447565327944</v>
+        <v>447565330231</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
-        <v>447565327969</v>
+        <v>447565330238</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
-        <v>447565327999</v>
+        <v>447565330246</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
-        <v>447565328003</v>
+        <v>447565330264</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
-        <v>447565328010</v>
+        <v>447565330283</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
-        <v>447565328044</v>
+        <v>447565330289</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
-        <v>447565328053</v>
+        <v>447565330297</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
-        <v>447565328061</v>
+        <v>447565330300</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
-        <v>447565328075</v>
+        <v>447565330308</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
-        <v>447565328105</v>
+        <v>447565330313</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
-        <v>447565328118</v>
+        <v>447565330384</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
-        <v>447565328119</v>
+        <v>447565330418</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
-        <v>447565328155</v>
+        <v>447565330433</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
-        <v>447565328163</v>
+        <v>447565330436</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
-        <v>447565328178</v>
+        <v>447565330466</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
-        <v>447565328185</v>
+        <v>447565330473</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
-        <v>447565328216</v>
+        <v>447565330501</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
-        <v>447565328260</v>
+        <v>447565330510</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
-        <v>447565328280</v>
+        <v>447565330514</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
-        <v>447565328297</v>
+        <v>447565330523</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
-        <v>447565328300</v>
+        <v>447565330528</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
-        <v>447565328304</v>
+        <v>447565330556</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
-        <v>447565328306</v>
+        <v>447565330582</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
-        <v>447565328308</v>
+        <v>447565330607</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
-        <v>447565328312</v>
+        <v>447565330621</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
-        <v>447565328347</v>
+        <v>447565330636</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
-        <v>447565328355</v>
+        <v>447565330688</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
-        <v>447565328358</v>
+        <v>447565330733</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
-        <v>447565328362</v>
+        <v>447565330768</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
-        <v>447565328368</v>
+        <v>447565330783</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
-        <v>447565328392</v>
+        <v>447565330822</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
-        <v>447565328393</v>
+        <v>447565330824</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
-        <v>447565328394</v>
+        <v>447565330840</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
-        <v>447565328407</v>
+        <v>447565330866</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
-        <v>447565328409</v>
+        <v>447565330868</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
-        <v>447565328417</v>
+        <v>447565330873</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
-        <v>447565328418</v>
+        <v>447565330879</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
-        <v>447565328426</v>
+        <v>447565330894</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
-        <v>447565328429</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" s="3">
-        <v>447565328439</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" s="3">
-        <v>447565328462</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" s="3">
-        <v>447565328473</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" s="3">
-        <v>447565328516</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" s="3">
-        <v>447565328519</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" s="3">
-        <v>447565328526</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" s="3">
-        <v>447565328539</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" s="3">
-        <v>447565329852</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" s="3">
-        <v>447565329856</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" s="3">
-        <v>447565329881</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" s="3">
-        <v>447565329897</v>
+        <v>447565330914</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B129F19-B764-4FF3-8E31-5F814ED6CFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA6EB5F-0044-4EC3-AAB1-4BC0CCA7F66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3340" yWindow="3340" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:A206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A71"/>
+      <selection activeCell="A2" sqref="A2:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -432,352 +432,252 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
-        <v>447565329907</v>
+        <v>447565330915</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
-        <v>447565329923</v>
+        <v>447565330921</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
-        <v>447565329933</v>
+        <v>447565330929</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
-        <v>447565329938</v>
+        <v>447565330938</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
-        <v>447565329939</v>
+        <v>447565330949</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
-        <v>447565329943</v>
+        <v>447565330982</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
-        <v>447565329951</v>
+        <v>447565330988</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
-        <v>447565329954</v>
+        <v>447565330993</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
-        <v>447565329969</v>
+        <v>447565331013</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
-        <v>447565329983</v>
+        <v>447565331015</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
-        <v>447565329986</v>
+        <v>447565331019</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
-        <v>447565329988</v>
+        <v>447565331020</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
-        <v>447565330001</v>
+        <v>447565331024</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
-        <v>447565330003</v>
+        <v>447565331036</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
-        <v>447565330005</v>
+        <v>447565331044</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
-        <v>447565330015</v>
+        <v>447565331063</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
-        <v>447565330017</v>
+        <v>447565331130</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
-        <v>447565330025</v>
+        <v>447565331134</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
-        <v>447565330028</v>
+        <v>447565331136</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
-        <v>447565330031</v>
+        <v>447565331139</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
-        <v>447565330036</v>
+        <v>447565331164</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
-        <v>447565330043</v>
+        <v>447565331186</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
-        <v>447565330047</v>
+        <v>447565331202</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
-        <v>447565330060</v>
+        <v>447565331207</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
-        <v>447565330074</v>
+        <v>447565331224</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
-        <v>447565330090</v>
+        <v>447565331225</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
-        <v>447565330101</v>
+        <v>447565331244</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
-        <v>447565330105</v>
+        <v>447565331266</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
-        <v>447565330111</v>
+        <v>447565331298</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
-        <v>447565330139</v>
+        <v>447565331421</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
-        <v>447565330218</v>
+        <v>447565331483</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
-        <v>447565330231</v>
+        <v>447565331527</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
-        <v>447565330238</v>
+        <v>447565331534</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
-        <v>447565330246</v>
+        <v>447565331612</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
-        <v>447565330264</v>
+        <v>447565331616</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
-        <v>447565330283</v>
+        <v>447565331619</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
-        <v>447565330289</v>
+        <v>447565331620</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
-        <v>447565330297</v>
+        <v>447565331632</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
-        <v>447565330300</v>
+        <v>447565331633</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
-        <v>447565330308</v>
+        <v>447565331663</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
-        <v>447565330313</v>
+        <v>447565331766</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
-        <v>447565330384</v>
+        <v>447565331874</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
-        <v>447565330418</v>
+        <v>447565331912</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
-        <v>447565330433</v>
+        <v>447565331917</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
-        <v>447565330436</v>
+        <v>447565331923</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
-        <v>447565330466</v>
+        <v>447565332078</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
-        <v>447565330473</v>
+        <v>447565332099</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
-        <v>447565330501</v>
+        <v>447565332122</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
-        <v>447565330510</v>
+        <v>447565332128</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
-        <v>447565330514</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="3">
-        <v>447565330523</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" s="3">
-        <v>447565330528</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" s="3">
-        <v>447565330556</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" s="3">
-        <v>447565330582</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" s="3">
-        <v>447565330607</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" s="3">
-        <v>447565330621</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" s="3">
-        <v>447565330636</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" s="3">
-        <v>447565330688</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" s="3">
-        <v>447565330733</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" s="3">
-        <v>447565330768</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" s="3">
-        <v>447565330783</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" s="3">
-        <v>447565330822</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" s="3">
-        <v>447565330824</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" s="3">
-        <v>447565330840</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" s="3">
-        <v>447565330866</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" s="3">
-        <v>447565330868</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" s="3">
-        <v>447565330873</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" s="3">
-        <v>447565330879</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" s="3">
-        <v>447565330894</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" s="3">
-        <v>447565330914</v>
+        <v>447565332230</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA6EB5F-0044-4EC3-AAB1-4BC0CCA7F66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0945EB7A-9377-4344-9D0B-F2AEE38712F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3340" yWindow="3340" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:A206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A51"/>
+      <selection activeCell="A2" sqref="A2:A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -432,252 +432,302 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
-        <v>447565330915</v>
+        <v>447565332395</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
-        <v>447565330921</v>
+        <v>447565332428</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
-        <v>447565330929</v>
+        <v>447565332477</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
-        <v>447565330938</v>
+        <v>447565332501</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
-        <v>447565330949</v>
+        <v>447565332523</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
-        <v>447565330982</v>
+        <v>447565332530</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
-        <v>447565330988</v>
+        <v>447565332567</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
-        <v>447565330993</v>
+        <v>447565332570</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
-        <v>447565331013</v>
+        <v>447565332575</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
-        <v>447565331015</v>
+        <v>447565332592</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
-        <v>447565331019</v>
+        <v>447565332736</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
-        <v>447565331020</v>
+        <v>447565332748</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
-        <v>447565331024</v>
+        <v>447565332752</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
-        <v>447565331036</v>
+        <v>447565332775</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
-        <v>447565331044</v>
+        <v>447565332840</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
-        <v>447565331063</v>
+        <v>447565332856</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
-        <v>447565331130</v>
+        <v>447565332867</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
-        <v>447565331134</v>
+        <v>447565332875</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
-        <v>447565331136</v>
+        <v>447565332951</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
-        <v>447565331139</v>
+        <v>447565332971</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
-        <v>447565331164</v>
+        <v>447565333072</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
-        <v>447565331186</v>
+        <v>447565333115</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
-        <v>447565331202</v>
+        <v>447565333182</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
-        <v>447565331207</v>
+        <v>447565333183</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
-        <v>447565331224</v>
+        <v>447565333185</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
-        <v>447565331225</v>
+        <v>447565333266</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
-        <v>447565331244</v>
+        <v>447565333274</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
-        <v>447565331266</v>
+        <v>447565333302</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
-        <v>447565331298</v>
+        <v>447565333304</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
-        <v>447565331421</v>
+        <v>447565333329</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
-        <v>447565331483</v>
+        <v>447565333357</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
-        <v>447565331527</v>
+        <v>447565333374</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
-        <v>447565331534</v>
+        <v>447565333440</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
-        <v>447565331612</v>
+        <v>447565333450</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
-        <v>447565331616</v>
+        <v>447565333465</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
-        <v>447565331619</v>
+        <v>447565333550</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
-        <v>447565331620</v>
+        <v>447565333584</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
-        <v>447565331632</v>
+        <v>447565333633</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
-        <v>447565331633</v>
+        <v>447565333681</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
-        <v>447565331663</v>
+        <v>447565333849</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
-        <v>447565331766</v>
+        <v>447565333977</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
-        <v>447565331874</v>
+        <v>447565333980</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
-        <v>447565331912</v>
+        <v>447565333984</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
-        <v>447565331917</v>
+        <v>447565334144</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
-        <v>447565331923</v>
+        <v>447565334207</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
-        <v>447565332078</v>
+        <v>447565334278</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
-        <v>447565332099</v>
+        <v>447565334326</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
-        <v>447565332122</v>
+        <v>447565334332</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
-        <v>447565332128</v>
+        <v>447565334338</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
-        <v>447565332230</v>
+        <v>447565334396</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
+        <v>447565334430</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="3">
+        <v>447565334438</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="3">
+        <v>447565334485</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
+        <v>447565334577</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="3">
+        <v>447565334580</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="3">
+        <v>447565334594</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" s="3">
+        <v>447565334595</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" s="3">
+        <v>447565334600</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" s="3">
+        <v>447565334613</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" s="3">
+        <v>447565334655</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>

--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\e-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0945EB7A-9377-4344-9D0B-F2AEE38712F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B61239-C5D1-42C5-8B9E-DDCA5616EBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="3340" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
+    <workbookView xWindow="3680" yWindow="3680" windowWidth="19200" windowHeight="9970" xr2:uid="{6A39F3CB-B48C-4BA8-9E7B-884D97579C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,150 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>447484791914</t>
+  </si>
+  <si>
+    <t>447399174305</t>
+  </si>
+  <si>
+    <t>447523122655</t>
+  </si>
+  <si>
+    <t>447554997388</t>
+  </si>
+  <si>
+    <t>447498526013</t>
+  </si>
+  <si>
+    <t>447776922636</t>
+  </si>
+  <si>
+    <t>353834800634</t>
+  </si>
+  <si>
+    <t>353834066038</t>
+  </si>
+  <si>
+    <t>353830565371</t>
+  </si>
+  <si>
+    <t>353857866265</t>
+  </si>
+  <si>
+    <t>447949390393</t>
+  </si>
+  <si>
+    <t>447931876188</t>
+  </si>
+  <si>
+    <t>447368416072</t>
+  </si>
+  <si>
+    <t>447368843053</t>
+  </si>
+  <si>
+    <t>447727175441</t>
+  </si>
+  <si>
+    <t>35796650688</t>
+  </si>
+  <si>
+    <t>447424554978</t>
+  </si>
+  <si>
+    <t>447387838228</t>
+  </si>
+  <si>
+    <t>447885369422</t>
+  </si>
+  <si>
+    <t>35796550698</t>
+  </si>
+  <si>
+    <t>447305200351</t>
+  </si>
+  <si>
+    <t>447958502193</t>
+  </si>
+  <si>
+    <t>447572016117</t>
+  </si>
+  <si>
+    <t>447412751317</t>
+  </si>
+  <si>
+    <t>447835056514</t>
+  </si>
+  <si>
+    <t>447523371363</t>
+  </si>
+  <si>
+    <t>447930404974</t>
+  </si>
+  <si>
+    <t>447780150389</t>
+  </si>
+  <si>
+    <t>447912843633</t>
+  </si>
+  <si>
+    <t>447391833049</t>
+  </si>
+  <si>
+    <t>447704634260</t>
+  </si>
+  <si>
+    <t>447983645206</t>
+  </si>
+  <si>
+    <t>447379783414</t>
+  </si>
+  <si>
+    <t>447961271399</t>
+  </si>
+  <si>
+    <t>447535276139</t>
+  </si>
+  <si>
+    <t>447956378938</t>
+  </si>
+  <si>
+    <t>27636851022</t>
+  </si>
+  <si>
+    <t>447398212365</t>
+  </si>
+  <si>
+    <t>447858647129</t>
+  </si>
+  <si>
+    <t>447772047892</t>
+  </si>
+  <si>
+    <t>447983757587</t>
+  </si>
+  <si>
+    <t>447778025192</t>
+  </si>
+  <si>
+    <t>447444007369</t>
+  </si>
+  <si>
+    <t>447539848779</t>
+  </si>
+  <si>
+    <t>447950586410</t>
+  </si>
+  <si>
+    <t>447904222515</t>
+  </si>
+  <si>
+    <t>971585004098</t>
   </si>
 </sst>
 </file>
@@ -414,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B65809-7069-482D-ABD6-D568B5E57C26}">
-  <dimension ref="A1:A206"/>
+  <dimension ref="A1:A203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A61"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -431,306 +572,275 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>447565332395</v>
+      <c r="A2" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>447565332428</v>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>447565332477</v>
+      <c r="A4" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>447565332501</v>
+      <c r="A5" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>447565332523</v>
+      <c r="A6" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>447565332530</v>
+      <c r="A7" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>447565332567</v>
+      <c r="A8" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>447565332570</v>
+      <c r="A9" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>447565332575</v>
+      <c r="A10" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>447565332592</v>
+      <c r="A11" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
-        <v>447565332736</v>
+      <c r="A12" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>447565332748</v>
+      <c r="A13" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
-        <v>447565332752</v>
+      <c r="A14" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
-        <v>447565332775</v>
+      <c r="A15" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
-        <v>447565332840</v>
+      <c r="A16" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
-        <v>447565332856</v>
+      <c r="A17" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
-        <v>447565332867</v>
+      <c r="A18" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
-        <v>447565332875</v>
+      <c r="A19" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
-        <v>447565332951</v>
+      <c r="A20" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
-        <v>447565332971</v>
+      <c r="A21" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
-        <v>447565333072</v>
+      <c r="A22" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
-        <v>447565333115</v>
+      <c r="A23" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3">
-        <v>447565333182</v>
+      <c r="A24" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3">
-        <v>447565333183</v>
+      <c r="A25" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
-        <v>447565333185</v>
+      <c r="A26" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
-        <v>447565333266</v>
+      <c r="A27" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3">
-        <v>447565333274</v>
+      <c r="A28" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3">
-        <v>447565333302</v>
+      <c r="A29" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="3">
-        <v>447565333304</v>
+      <c r="A30" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="3">
-        <v>447565333329</v>
+      <c r="A31" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="3">
-        <v>447565333357</v>
+      <c r="A32" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="3">
-        <v>447565333374</v>
+      <c r="A33" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3">
-        <v>447565333440</v>
+      <c r="A34" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="3">
-        <v>447565333450</v>
+      <c r="A35" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="3">
-        <v>447565333465</v>
+      <c r="A36" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="3">
-        <v>447565333550</v>
+      <c r="A37" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="3">
-        <v>447565333584</v>
+      <c r="A38" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="3">
-        <v>447565333633</v>
+      <c r="A39" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="3">
-        <v>447565333681</v>
+      <c r="A40" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" s="3">
-        <v>447565333849</v>
+      <c r="A41" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="3">
-        <v>447565333977</v>
+      <c r="A42" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" s="3">
-        <v>447565333980</v>
+      <c r="A43" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" s="3">
-        <v>447565333984</v>
+      <c r="A44" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" s="3">
-        <v>447565334144</v>
+      <c r="A45" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" s="3">
-        <v>447565334207</v>
+      <c r="A46" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" s="3">
-        <v>447565334278</v>
+      <c r="A47" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" s="3">
-        <v>447565334326</v>
+      <c r="A48" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="3">
-        <v>447565334332</v>
+      <c r="A49" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="3">
-        <v>447565334338</v>
+      <c r="A50" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="3">
-        <v>447565334396</v>
+      <c r="A51" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="3">
-        <v>447565334430</v>
+      <c r="A52" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" s="3">
-        <v>447565334438</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" s="3">
-        <v>447565334485</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" s="3">
-        <v>447565334577</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" s="3">
-        <v>447565334580</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" s="3">
-        <v>447565334594</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" s="3">
-        <v>447565334595</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" s="3">
-        <v>447565334600</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" s="3">
-        <v>447565334613</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" s="3">
-        <v>447565334655</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+      <c r="A53" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="89" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="2"/>
+    </row>
+    <row r="90" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="2"/>
+    </row>
+    <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="2"/>
+    </row>
     <row r="92" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2"/>
     </row>
@@ -872,14 +982,14 @@
     <row r="138" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="2"/>
     </row>
-    <row r="139" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="2"/>
-    </row>
-    <row r="140" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="2"/>
-    </row>
-    <row r="141" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="2"/>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A139" s="1"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A140" s="1"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A141" s="1"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" s="1"/>
@@ -1066,15 +1176,6 @@
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A203" s="1"/>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A204" s="1"/>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A205" s="1"/>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A206" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
